--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -72,7 +72,7 @@
     <t>L’initiative "pour une immigration modérée" passe la rampe à #Gemeinde_f avec #JaStimmenInProzent pourcents de oui.</t>
   </si>
   <si>
-    <t>Ja zur Initiative "Für eine massvolle Zuwanderung": Die #Gemeinde_d hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
+    <t>Ja zur Initiative "Für eine massvolle Zuwanderung": #Gemeinde_d hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f valident l'initiative pour une "immigration modérée" avec #JaStimmenInProzent de oui.</t>
@@ -953,14 +953,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1339,7 +1339,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1347,10 +1347,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1402,10 +1402,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5625,7 +5625,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -5639,7 +5639,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -5663,7 +5663,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5679,7 +5679,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -8888,7 +8888,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -8899,7 +8899,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -8907,7 +8907,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -8915,7 +8915,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -8923,7 +8923,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -8931,7 +8931,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -8939,7 +8939,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -9227,7 +9227,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -9238,7 +9238,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9246,7 +9246,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -9262,7 +9262,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -9278,7 +9278,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -9591,7 +9591,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -9602,7 +9602,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9610,7 +9610,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -9618,7 +9618,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -9626,7 +9626,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9634,7 +9634,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -9642,7 +9642,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5" t="s">

--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -63,7 +63,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Initiative "Für eine massvolle Zuwanderung".</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmentInProzent pourcents àl'initiative "pour une immigration modéree" à #Gemeinde_f.</t>
+    <t>C'est oui à #JaStimmenInProzent pourcents àl'initiative "pour une immigration modéree" à #Gemeinde_f.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Initiative "Für eine massvolle Zuwanderung" angenommen und zwar mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein. Das entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
@@ -141,7 +141,7 @@
     <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAsolut Abstimmenden haben ein Ja zur Initiative "Für eine massvolle Zuwanderung" in die Urne gelegt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont tous accepté l'initiative "pour une immigration modérée".</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont tous accepté l'initiative "pour une immigration modérée".</t>
   </si>
   <si>
     <t>Einstimmiges Resultat Ja</t>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">Klares Resultat in #Gemeinde_d: Alle #NeinStimmenAsolut Abstimmenden haben ein Nein zur Initiative "Für eine massvolle Zuwanderung" in die Urne gelegt. </t>
   </si>
   <si>
-    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont tous dit non à l'initiative "pour une immigration modérée".</t>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche ont tous dit non à l'initiative "pour une immigration modérée".</t>
   </si>
   <si>
     <t>Einstimmiges Resultat Nein</t>
@@ -1320,7 +1320,7 @@
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1458,7 +1458,7 @@
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="6" t="s">

--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -87,7 +87,7 @@
     <t>Les habitants de #Gemeinde_f rejettent l'initiative "pour une immigration modérée" avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
-    <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Initiative "Für eine massvolle Zuwanderung" abgelehnt.</t>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Initiative "Für eine massvolle Zuwanderung" abgelehnt.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f s'opposent à l'initiative "pour une immigration modérée" avec #NeinStimmenInProzent pourcents de non.</t>
@@ -711,7 +711,7 @@
     <t>KantonPhrase_Highest_Yes_Kant</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton_d.</t>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton #Kanton_d.</t>
   </si>
   <si>
     <t>#Gemeinde_f se distingue par le plus fort pourcentage de oui du #Kanton_f.</t>
@@ -723,7 +723,7 @@
     <t>KantonPhrase_Highest_No_Kant</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton Kanton_d.</t>
+    <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton #Kanton_d.</t>
   </si>
   <si>
     <t>#Gemeinde_f se signale par le plus fort pourcentage de non du #Kanton_f.</t>
@@ -735,7 +735,7 @@
     <t>KantonPhrase_Ja_Ja</t>
   </si>
   <si>
-    <t>#Gemeinde_d stimmt bei dieser Vorlage damit gleich wie der Kanton Kanton_d Ja.</t>
+    <t>#Gemeinde_d stimmt bei dieser Vorlage damit gleich wie der Kanton #Kanton_d Ja.</t>
   </si>
   <si>
     <t>A l'instar de son canton, #Gemeinde_f vote oui.</t>
@@ -747,7 +747,7 @@
     <t>KantonPhrase_Nein_Ja</t>
   </si>
   <si>
-    <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders als der Kanton Kanton_d, der Ja gesagt hat.</t>
+    <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders als der Kanton #Kanton_d, der Ja gesagt hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f vote non, contrairement à son canton.</t>
@@ -759,7 +759,7 @@
     <t>KantonPhrase_Ja_Nein</t>
   </si>
   <si>
-    <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders der Kanton Kanton_d, der Nein gesagt hat.</t>
+    <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders der Kanton #Kanton_d, der Nein gesagt hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f vote oui, contrairement à son canton.</t>
@@ -771,7 +771,7 @@
     <t>KantonPhrase_Nein_Nein</t>
   </si>
   <si>
-    <t>#Gemeinde_d stimmt damit bei dieser Vorlage gleich wie der Kanton Kanton_d Nein</t>
+    <t>#Gemeinde_d stimmt damit bei dieser Vorlage gleich wie der Kanton #Kanton_d Nein</t>
   </si>
   <si>
     <t>A l'instar de son canton, #Gemeinde_f vote non.</t>
@@ -828,7 +828,7 @@
     <t>Les habitants de #Gemeinde_f refusent un relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
-    <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben höhere Kinderabzüge bei der direkten Bundessteuer abgelehnt.</t>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben höhere Kinderabzüge bei der direkten Bundessteuer abgelehnt.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f rejettent un relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers avec #NeinStimmenInProzent pourcents de non.</t>
@@ -972,7 +972,7 @@
     <t>Les habitants de #Gemeinde_f refusent la modification de la loi sur la chasse avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
-    <t>#NeinStimmenInProzent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben das neue Jagdgesetz abgelehnt.</t>
+    <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben das neue Jagdgesetz abgelehnt.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f rejettent la modification de la loi sur la chasse avec #NeinStimmenInProzent pourcents de non.</t>
@@ -1268,11 +1268,11 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1679,7 +1679,7 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1756,10 +1756,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1787,7 +1787,7 @@
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -5939,7 +5939,7 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -6052,7 +6052,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -6066,7 +6066,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -9410,7 +9410,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -9533,7 +9533,7 @@
       <c r="A27" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -9547,7 +9547,7 @@
       <c r="A28" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -9561,7 +9561,7 @@
       <c r="A29" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -9575,7 +9575,7 @@
       <c r="A30" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -9589,7 +9589,7 @@
       <c r="A31" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -9603,7 +9603,7 @@
       <c r="A32" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -9699,7 +9699,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -9746,7 +9746,7 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -9823,7 +9823,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -9837,7 +9837,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -9854,7 +9854,7 @@
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -9882,7 +9882,7 @@
       <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -9960,7 +9960,7 @@
       <c r="A27" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -9974,7 +9974,7 @@
       <c r="A28" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -9988,7 +9988,7 @@
       <c r="A29" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -10002,7 +10002,7 @@
       <c r="A30" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -10016,7 +10016,7 @@
       <c r="A31" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -10030,7 +10030,7 @@
       <c r="A32" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -10096,7 +10096,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -10107,7 +10107,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -10118,7 +10118,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -10129,7 +10129,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -10151,7 +10151,7 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -10176,7 +10176,7 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>318</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -10187,7 +10187,7 @@
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>320</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -10198,7 +10198,7 @@
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -10209,7 +10209,7 @@
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -10220,7 +10220,7 @@
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>326</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -10231,7 +10231,7 @@
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>328</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -10239,10 +10239,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>330</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -10253,10 +10253,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -10267,10 +10267,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>334</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -10284,7 +10284,7 @@
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>336</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -10298,7 +10298,7 @@
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -10312,7 +10312,7 @@
       <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -10326,7 +10326,7 @@
       <c r="A22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -10340,7 +10340,7 @@
       <c r="A23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -10354,7 +10354,7 @@
       <c r="A24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -10390,7 +10390,7 @@
       <c r="A27" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -10404,7 +10404,7 @@
       <c r="A28" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -10418,7 +10418,7 @@
       <c r="A29" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -10432,7 +10432,7 @@
       <c r="A30" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -10446,7 +10446,7 @@
       <c r="A31" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -10460,7 +10460,7 @@
       <c r="A32" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C32" s="6" t="s">

--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="378">
   <si>
     <t>Text_ID</t>
   </si>
@@ -744,7 +744,7 @@
     <t>#Gemeinde_d stimmt bei dieser Vorlage damit gleich wie der Kanton #Kanton_d Ja.</t>
   </si>
   <si>
-    <t>A l'instar de son canton #Kanton_f, #Gemeinde_f vote oui.</t>
+    <t>#Gemeinde_f a voté oui, comme la majorité des citoyens du canton #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Ja</t>
@@ -756,7 +756,7 @@
     <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders als der Kanton #Kanton_d, der Ja gesagt hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f vote non, contrairement à son canton #Kanton_f.</t>
+    <t>#Gemeinde_f vote non, contrairement à la majorité des citoyens du canton #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt Nein, Kanton Ja</t>
@@ -768,7 +768,7 @@
     <t>#Gemeinde_d stimmt damit bei dieser Vorlage anders der Kanton #Kanton_d, der Nein gesagt hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f vote oui, contrairement à son canton #Kanton_f.</t>
+    <t>#Gemeinde_f vote oui, contrairement à la majorité des citoyens du canton #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt Ja, Kanton Nein</t>
@@ -780,7 +780,7 @@
     <t>#Gemeinde_d stimmt damit bei dieser Vorlage gleich wie der Kanton #Kanton_d Nein</t>
   </si>
   <si>
-    <t>A l'instar de son canton #Kanton_f, #Gemeinde_f vote non.</t>
+    <t>#Gemeinde_f a voté non, comme la majorité des citoyens du canton #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Nein</t>
@@ -1072,9 +1072,6 @@
   </si>
   <si>
     <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Ja gesagt zu dieser Vorlage.</t>
-  </si>
-  <si>
-    <t>A l'instar de son canton #Kanton_f, #Gemeinde_f vote oui</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage anders abgestimmt als der Kanton #Kanton_d, der Ja gesagt hat.</t>
@@ -1159,7 +1156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1177,6 +1174,9 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -1270,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1343,16 +1343,22 @@
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9248,7 +9254,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="41.86"/>
     <col customWidth="1" min="2" max="2" width="51.29"/>
-    <col customWidth="1" min="3" max="3" width="52.57"/>
+    <col customWidth="1" min="3" max="3" width="73.71"/>
     <col customWidth="1" min="4" max="4" width="70.29"/>
   </cols>
   <sheetData>
@@ -9623,7 +9629,7 @@
       <c r="B30" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>246</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -9637,7 +9643,7 @@
       <c r="B31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -9651,7 +9657,7 @@
       <c r="B32" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="26" t="s">
         <v>254</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10050,7 +10056,7 @@
       <c r="B30" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>246</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -10064,7 +10070,7 @@
       <c r="B31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -10078,7 +10084,7 @@
       <c r="B32" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="26" t="s">
         <v>254</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10102,7 +10108,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="41.86"/>
     <col customWidth="1" min="2" max="2" width="58.57"/>
-    <col customWidth="1" min="3" max="3" width="52.14"/>
+    <col customWidth="1" min="3" max="3" width="73.71"/>
     <col customWidth="1" min="4" max="4" width="70.29"/>
   </cols>
   <sheetData>
@@ -10133,7 +10139,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>306</v>
       </c>
     </row>
@@ -10467,7 +10473,7 @@
         <v>351</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>243</v>
@@ -10478,9 +10484,9 @@
         <v>244</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C30" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>246</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -10494,7 +10500,7 @@
       <c r="B31" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -10506,9 +10512,9 @@
         <v>252</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>254</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10534,3084 +10540,3084 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>359</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>363</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" s="28">
+        <v>364</v>
+      </c>
+      <c r="B6" s="30">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="28">
+        <v>365</v>
+      </c>
+      <c r="B7" s="30">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="28">
+        <v>370</v>
+      </c>
+      <c r="B10" s="30">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="28">
+        <v>371</v>
+      </c>
+      <c r="B11" s="30">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>368</v>
+        <v>372</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="28">
+        <v>374</v>
+      </c>
+      <c r="B14" s="30">
         <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B15" s="28">
+        <v>375</v>
+      </c>
+      <c r="B15" s="30">
         <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="17">
-      <c r="B17" s="29"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19">
-      <c r="B19" s="29"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21">
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23">
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27">
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
     </row>
     <row r="28">
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29">
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30">
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31">
-      <c r="B31" s="29"/>
+      <c r="B31" s="31"/>
     </row>
     <row r="32">
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
     </row>
     <row r="33">
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
     </row>
     <row r="34">
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
     </row>
     <row r="35">
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
     </row>
     <row r="36">
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37">
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
     </row>
     <row r="38">
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
     </row>
     <row r="39">
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40">
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="41">
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42">
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
     </row>
     <row r="43">
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44">
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45">
-      <c r="B45" s="29"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46">
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47">
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48">
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
     </row>
     <row r="49">
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50">
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51">
-      <c r="B51" s="29"/>
+      <c r="B51" s="31"/>
     </row>
     <row r="52">
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
     </row>
     <row r="53">
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
     </row>
     <row r="54">
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
     </row>
     <row r="55">
-      <c r="B55" s="29"/>
+      <c r="B55" s="31"/>
     </row>
     <row r="56">
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
     </row>
     <row r="57">
-      <c r="B57" s="29"/>
+      <c r="B57" s="31"/>
     </row>
     <row r="58">
-      <c r="B58" s="29"/>
+      <c r="B58" s="31"/>
     </row>
     <row r="59">
-      <c r="B59" s="29"/>
+      <c r="B59" s="31"/>
     </row>
     <row r="60">
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
     </row>
     <row r="61">
-      <c r="B61" s="29"/>
+      <c r="B61" s="31"/>
     </row>
     <row r="62">
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63">
-      <c r="B63" s="29"/>
+      <c r="B63" s="31"/>
     </row>
     <row r="64">
-      <c r="B64" s="29"/>
+      <c r="B64" s="31"/>
     </row>
     <row r="65">
-      <c r="B65" s="29"/>
+      <c r="B65" s="31"/>
     </row>
     <row r="66">
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
     </row>
     <row r="67">
-      <c r="B67" s="29"/>
+      <c r="B67" s="31"/>
     </row>
     <row r="68">
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
     </row>
     <row r="69">
-      <c r="B69" s="29"/>
+      <c r="B69" s="31"/>
     </row>
     <row r="70">
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
     </row>
     <row r="71">
-      <c r="B71" s="29"/>
+      <c r="B71" s="31"/>
     </row>
     <row r="72">
-      <c r="B72" s="29"/>
+      <c r="B72" s="31"/>
     </row>
     <row r="73">
-      <c r="B73" s="29"/>
+      <c r="B73" s="31"/>
     </row>
     <row r="74">
-      <c r="B74" s="29"/>
+      <c r="B74" s="31"/>
     </row>
     <row r="75">
-      <c r="B75" s="29"/>
+      <c r="B75" s="31"/>
     </row>
     <row r="76">
-      <c r="B76" s="29"/>
+      <c r="B76" s="31"/>
     </row>
     <row r="77">
-      <c r="B77" s="29"/>
+      <c r="B77" s="31"/>
     </row>
     <row r="78">
-      <c r="B78" s="29"/>
+      <c r="B78" s="31"/>
     </row>
     <row r="79">
-      <c r="B79" s="29"/>
+      <c r="B79" s="31"/>
     </row>
     <row r="80">
-      <c r="B80" s="29"/>
+      <c r="B80" s="31"/>
     </row>
     <row r="81">
-      <c r="B81" s="29"/>
+      <c r="B81" s="31"/>
     </row>
     <row r="82">
-      <c r="B82" s="29"/>
+      <c r="B82" s="31"/>
     </row>
     <row r="83">
-      <c r="B83" s="29"/>
+      <c r="B83" s="31"/>
     </row>
     <row r="84">
-      <c r="B84" s="29"/>
+      <c r="B84" s="31"/>
     </row>
     <row r="85">
-      <c r="B85" s="29"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86">
-      <c r="B86" s="29"/>
+      <c r="B86" s="31"/>
     </row>
     <row r="87">
-      <c r="B87" s="29"/>
+      <c r="B87" s="31"/>
     </row>
     <row r="88">
-      <c r="B88" s="29"/>
+      <c r="B88" s="31"/>
     </row>
     <row r="89">
-      <c r="B89" s="29"/>
+      <c r="B89" s="31"/>
     </row>
     <row r="90">
-      <c r="B90" s="29"/>
+      <c r="B90" s="31"/>
     </row>
     <row r="91">
-      <c r="B91" s="29"/>
+      <c r="B91" s="31"/>
     </row>
     <row r="92">
-      <c r="B92" s="29"/>
+      <c r="B92" s="31"/>
     </row>
     <row r="93">
-      <c r="B93" s="29"/>
+      <c r="B93" s="31"/>
     </row>
     <row r="94">
-      <c r="B94" s="29"/>
+      <c r="B94" s="31"/>
     </row>
     <row r="95">
-      <c r="B95" s="29"/>
+      <c r="B95" s="31"/>
     </row>
     <row r="96">
-      <c r="B96" s="29"/>
+      <c r="B96" s="31"/>
     </row>
     <row r="97">
-      <c r="B97" s="29"/>
+      <c r="B97" s="31"/>
     </row>
     <row r="98">
-      <c r="B98" s="29"/>
+      <c r="B98" s="31"/>
     </row>
     <row r="99">
-      <c r="B99" s="29"/>
+      <c r="B99" s="31"/>
     </row>
     <row r="100">
-      <c r="B100" s="29"/>
+      <c r="B100" s="31"/>
     </row>
     <row r="101">
-      <c r="B101" s="29"/>
+      <c r="B101" s="31"/>
     </row>
     <row r="102">
-      <c r="B102" s="29"/>
+      <c r="B102" s="31"/>
     </row>
     <row r="103">
-      <c r="B103" s="29"/>
+      <c r="B103" s="31"/>
     </row>
     <row r="104">
-      <c r="B104" s="29"/>
+      <c r="B104" s="31"/>
     </row>
     <row r="105">
-      <c r="B105" s="29"/>
+      <c r="B105" s="31"/>
     </row>
     <row r="106">
-      <c r="B106" s="29"/>
+      <c r="B106" s="31"/>
     </row>
     <row r="107">
-      <c r="B107" s="29"/>
+      <c r="B107" s="31"/>
     </row>
     <row r="108">
-      <c r="B108" s="29"/>
+      <c r="B108" s="31"/>
     </row>
     <row r="109">
-      <c r="B109" s="29"/>
+      <c r="B109" s="31"/>
     </row>
     <row r="110">
-      <c r="B110" s="29"/>
+      <c r="B110" s="31"/>
     </row>
     <row r="111">
-      <c r="B111" s="29"/>
+      <c r="B111" s="31"/>
     </row>
     <row r="112">
-      <c r="B112" s="29"/>
+      <c r="B112" s="31"/>
     </row>
     <row r="113">
-      <c r="B113" s="29"/>
+      <c r="B113" s="31"/>
     </row>
     <row r="114">
-      <c r="B114" s="29"/>
+      <c r="B114" s="31"/>
     </row>
     <row r="115">
-      <c r="B115" s="29"/>
+      <c r="B115" s="31"/>
     </row>
     <row r="116">
-      <c r="B116" s="29"/>
+      <c r="B116" s="31"/>
     </row>
     <row r="117">
-      <c r="B117" s="29"/>
+      <c r="B117" s="31"/>
     </row>
     <row r="118">
-      <c r="B118" s="29"/>
+      <c r="B118" s="31"/>
     </row>
     <row r="119">
-      <c r="B119" s="29"/>
+      <c r="B119" s="31"/>
     </row>
     <row r="120">
-      <c r="B120" s="29"/>
+      <c r="B120" s="31"/>
     </row>
     <row r="121">
-      <c r="B121" s="29"/>
+      <c r="B121" s="31"/>
     </row>
     <row r="122">
-      <c r="B122" s="29"/>
+      <c r="B122" s="31"/>
     </row>
     <row r="123">
-      <c r="B123" s="29"/>
+      <c r="B123" s="31"/>
     </row>
     <row r="124">
-      <c r="B124" s="29"/>
+      <c r="B124" s="31"/>
     </row>
     <row r="125">
-      <c r="B125" s="29"/>
+      <c r="B125" s="31"/>
     </row>
     <row r="126">
-      <c r="B126" s="29"/>
+      <c r="B126" s="31"/>
     </row>
     <row r="127">
-      <c r="B127" s="29"/>
+      <c r="B127" s="31"/>
     </row>
     <row r="128">
-      <c r="B128" s="29"/>
+      <c r="B128" s="31"/>
     </row>
     <row r="129">
-      <c r="B129" s="29"/>
+      <c r="B129" s="31"/>
     </row>
     <row r="130">
-      <c r="B130" s="29"/>
+      <c r="B130" s="31"/>
     </row>
     <row r="131">
-      <c r="B131" s="29"/>
+      <c r="B131" s="31"/>
     </row>
     <row r="132">
-      <c r="B132" s="29"/>
+      <c r="B132" s="31"/>
     </row>
     <row r="133">
-      <c r="B133" s="29"/>
+      <c r="B133" s="31"/>
     </row>
     <row r="134">
-      <c r="B134" s="29"/>
+      <c r="B134" s="31"/>
     </row>
     <row r="135">
-      <c r="B135" s="29"/>
+      <c r="B135" s="31"/>
     </row>
     <row r="136">
-      <c r="B136" s="29"/>
+      <c r="B136" s="31"/>
     </row>
     <row r="137">
-      <c r="B137" s="29"/>
+      <c r="B137" s="31"/>
     </row>
     <row r="138">
-      <c r="B138" s="29"/>
+      <c r="B138" s="31"/>
     </row>
     <row r="139">
-      <c r="B139" s="29"/>
+      <c r="B139" s="31"/>
     </row>
     <row r="140">
-      <c r="B140" s="29"/>
+      <c r="B140" s="31"/>
     </row>
     <row r="141">
-      <c r="B141" s="29"/>
+      <c r="B141" s="31"/>
     </row>
     <row r="142">
-      <c r="B142" s="29"/>
+      <c r="B142" s="31"/>
     </row>
     <row r="143">
-      <c r="B143" s="29"/>
+      <c r="B143" s="31"/>
     </row>
     <row r="144">
-      <c r="B144" s="29"/>
+      <c r="B144" s="31"/>
     </row>
     <row r="145">
-      <c r="B145" s="29"/>
+      <c r="B145" s="31"/>
     </row>
     <row r="146">
-      <c r="B146" s="29"/>
+      <c r="B146" s="31"/>
     </row>
     <row r="147">
-      <c r="B147" s="29"/>
+      <c r="B147" s="31"/>
     </row>
     <row r="148">
-      <c r="B148" s="29"/>
+      <c r="B148" s="31"/>
     </row>
     <row r="149">
-      <c r="B149" s="29"/>
+      <c r="B149" s="31"/>
     </row>
     <row r="150">
-      <c r="B150" s="29"/>
+      <c r="B150" s="31"/>
     </row>
     <row r="151">
-      <c r="B151" s="29"/>
+      <c r="B151" s="31"/>
     </row>
     <row r="152">
-      <c r="B152" s="29"/>
+      <c r="B152" s="31"/>
     </row>
     <row r="153">
-      <c r="B153" s="29"/>
+      <c r="B153" s="31"/>
     </row>
     <row r="154">
-      <c r="B154" s="29"/>
+      <c r="B154" s="31"/>
     </row>
     <row r="155">
-      <c r="B155" s="29"/>
+      <c r="B155" s="31"/>
     </row>
     <row r="156">
-      <c r="B156" s="29"/>
+      <c r="B156" s="31"/>
     </row>
     <row r="157">
-      <c r="B157" s="29"/>
+      <c r="B157" s="31"/>
     </row>
     <row r="158">
-      <c r="B158" s="29"/>
+      <c r="B158" s="31"/>
     </row>
     <row r="159">
-      <c r="B159" s="29"/>
+      <c r="B159" s="31"/>
     </row>
     <row r="160">
-      <c r="B160" s="29"/>
+      <c r="B160" s="31"/>
     </row>
     <row r="161">
-      <c r="B161" s="29"/>
+      <c r="B161" s="31"/>
     </row>
     <row r="162">
-      <c r="B162" s="29"/>
+      <c r="B162" s="31"/>
     </row>
     <row r="163">
-      <c r="B163" s="29"/>
+      <c r="B163" s="31"/>
     </row>
     <row r="164">
-      <c r="B164" s="29"/>
+      <c r="B164" s="31"/>
     </row>
     <row r="165">
-      <c r="B165" s="29"/>
+      <c r="B165" s="31"/>
     </row>
     <row r="166">
-      <c r="B166" s="29"/>
+      <c r="B166" s="31"/>
     </row>
     <row r="167">
-      <c r="B167" s="29"/>
+      <c r="B167" s="31"/>
     </row>
     <row r="168">
-      <c r="B168" s="29"/>
+      <c r="B168" s="31"/>
     </row>
     <row r="169">
-      <c r="B169" s="29"/>
+      <c r="B169" s="31"/>
     </row>
     <row r="170">
-      <c r="B170" s="29"/>
+      <c r="B170" s="31"/>
     </row>
     <row r="171">
-      <c r="B171" s="29"/>
+      <c r="B171" s="31"/>
     </row>
     <row r="172">
-      <c r="B172" s="29"/>
+      <c r="B172" s="31"/>
     </row>
     <row r="173">
-      <c r="B173" s="29"/>
+      <c r="B173" s="31"/>
     </row>
     <row r="174">
-      <c r="B174" s="29"/>
+      <c r="B174" s="31"/>
     </row>
     <row r="175">
-      <c r="B175" s="29"/>
+      <c r="B175" s="31"/>
     </row>
     <row r="176">
-      <c r="B176" s="29"/>
+      <c r="B176" s="31"/>
     </row>
     <row r="177">
-      <c r="B177" s="29"/>
+      <c r="B177" s="31"/>
     </row>
     <row r="178">
-      <c r="B178" s="29"/>
+      <c r="B178" s="31"/>
     </row>
     <row r="179">
-      <c r="B179" s="29"/>
+      <c r="B179" s="31"/>
     </row>
     <row r="180">
-      <c r="B180" s="29"/>
+      <c r="B180" s="31"/>
     </row>
     <row r="181">
-      <c r="B181" s="29"/>
+      <c r="B181" s="31"/>
     </row>
     <row r="182">
-      <c r="B182" s="29"/>
+      <c r="B182" s="31"/>
     </row>
     <row r="183">
-      <c r="B183" s="29"/>
+      <c r="B183" s="31"/>
     </row>
     <row r="184">
-      <c r="B184" s="29"/>
+      <c r="B184" s="31"/>
     </row>
     <row r="185">
-      <c r="B185" s="29"/>
+      <c r="B185" s="31"/>
     </row>
     <row r="186">
-      <c r="B186" s="29"/>
+      <c r="B186" s="31"/>
     </row>
     <row r="187">
-      <c r="B187" s="29"/>
+      <c r="B187" s="31"/>
     </row>
     <row r="188">
-      <c r="B188" s="29"/>
+      <c r="B188" s="31"/>
     </row>
     <row r="189">
-      <c r="B189" s="29"/>
+      <c r="B189" s="31"/>
     </row>
     <row r="190">
-      <c r="B190" s="29"/>
+      <c r="B190" s="31"/>
     </row>
     <row r="191">
-      <c r="B191" s="29"/>
+      <c r="B191" s="31"/>
     </row>
     <row r="192">
-      <c r="B192" s="29"/>
+      <c r="B192" s="31"/>
     </row>
     <row r="193">
-      <c r="B193" s="29"/>
+      <c r="B193" s="31"/>
     </row>
     <row r="194">
-      <c r="B194" s="29"/>
+      <c r="B194" s="31"/>
     </row>
     <row r="195">
-      <c r="B195" s="29"/>
+      <c r="B195" s="31"/>
     </row>
     <row r="196">
-      <c r="B196" s="29"/>
+      <c r="B196" s="31"/>
     </row>
     <row r="197">
-      <c r="B197" s="29"/>
+      <c r="B197" s="31"/>
     </row>
     <row r="198">
-      <c r="B198" s="29"/>
+      <c r="B198" s="31"/>
     </row>
     <row r="199">
-      <c r="B199" s="29"/>
+      <c r="B199" s="31"/>
     </row>
     <row r="200">
-      <c r="B200" s="29"/>
+      <c r="B200" s="31"/>
     </row>
     <row r="201">
-      <c r="B201" s="29"/>
+      <c r="B201" s="31"/>
     </row>
     <row r="202">
-      <c r="B202" s="29"/>
+      <c r="B202" s="31"/>
     </row>
     <row r="203">
-      <c r="B203" s="29"/>
+      <c r="B203" s="31"/>
     </row>
     <row r="204">
-      <c r="B204" s="29"/>
+      <c r="B204" s="31"/>
     </row>
     <row r="205">
-      <c r="B205" s="29"/>
+      <c r="B205" s="31"/>
     </row>
     <row r="206">
-      <c r="B206" s="29"/>
+      <c r="B206" s="31"/>
     </row>
     <row r="207">
-      <c r="B207" s="29"/>
+      <c r="B207" s="31"/>
     </row>
     <row r="208">
-      <c r="B208" s="29"/>
+      <c r="B208" s="31"/>
     </row>
     <row r="209">
-      <c r="B209" s="29"/>
+      <c r="B209" s="31"/>
     </row>
     <row r="210">
-      <c r="B210" s="29"/>
+      <c r="B210" s="31"/>
     </row>
     <row r="211">
-      <c r="B211" s="29"/>
+      <c r="B211" s="31"/>
     </row>
     <row r="212">
-      <c r="B212" s="29"/>
+      <c r="B212" s="31"/>
     </row>
     <row r="213">
-      <c r="B213" s="29"/>
+      <c r="B213" s="31"/>
     </row>
     <row r="214">
-      <c r="B214" s="29"/>
+      <c r="B214" s="31"/>
     </row>
     <row r="215">
-      <c r="B215" s="29"/>
+      <c r="B215" s="31"/>
     </row>
     <row r="216">
-      <c r="B216" s="29"/>
+      <c r="B216" s="31"/>
     </row>
     <row r="217">
-      <c r="B217" s="29"/>
+      <c r="B217" s="31"/>
     </row>
     <row r="218">
-      <c r="B218" s="29"/>
+      <c r="B218" s="31"/>
     </row>
     <row r="219">
-      <c r="B219" s="29"/>
+      <c r="B219" s="31"/>
     </row>
     <row r="220">
-      <c r="B220" s="29"/>
+      <c r="B220" s="31"/>
     </row>
     <row r="221">
-      <c r="B221" s="29"/>
+      <c r="B221" s="31"/>
     </row>
     <row r="222">
-      <c r="B222" s="29"/>
+      <c r="B222" s="31"/>
     </row>
     <row r="223">
-      <c r="B223" s="29"/>
+      <c r="B223" s="31"/>
     </row>
     <row r="224">
-      <c r="B224" s="29"/>
+      <c r="B224" s="31"/>
     </row>
     <row r="225">
-      <c r="B225" s="29"/>
+      <c r="B225" s="31"/>
     </row>
     <row r="226">
-      <c r="B226" s="29"/>
+      <c r="B226" s="31"/>
     </row>
     <row r="227">
-      <c r="B227" s="29"/>
+      <c r="B227" s="31"/>
     </row>
     <row r="228">
-      <c r="B228" s="29"/>
+      <c r="B228" s="31"/>
     </row>
     <row r="229">
-      <c r="B229" s="29"/>
+      <c r="B229" s="31"/>
     </row>
     <row r="230">
-      <c r="B230" s="29"/>
+      <c r="B230" s="31"/>
     </row>
     <row r="231">
-      <c r="B231" s="29"/>
+      <c r="B231" s="31"/>
     </row>
     <row r="232">
-      <c r="B232" s="29"/>
+      <c r="B232" s="31"/>
     </row>
     <row r="233">
-      <c r="B233" s="29"/>
+      <c r="B233" s="31"/>
     </row>
     <row r="234">
-      <c r="B234" s="29"/>
+      <c r="B234" s="31"/>
     </row>
     <row r="235">
-      <c r="B235" s="29"/>
+      <c r="B235" s="31"/>
     </row>
     <row r="236">
-      <c r="B236" s="29"/>
+      <c r="B236" s="31"/>
     </row>
     <row r="237">
-      <c r="B237" s="29"/>
+      <c r="B237" s="31"/>
     </row>
     <row r="238">
-      <c r="B238" s="29"/>
+      <c r="B238" s="31"/>
     </row>
     <row r="239">
-      <c r="B239" s="29"/>
+      <c r="B239" s="31"/>
     </row>
     <row r="240">
-      <c r="B240" s="29"/>
+      <c r="B240" s="31"/>
     </row>
     <row r="241">
-      <c r="B241" s="29"/>
+      <c r="B241" s="31"/>
     </row>
     <row r="242">
-      <c r="B242" s="29"/>
+      <c r="B242" s="31"/>
     </row>
     <row r="243">
-      <c r="B243" s="29"/>
+      <c r="B243" s="31"/>
     </row>
     <row r="244">
-      <c r="B244" s="29"/>
+      <c r="B244" s="31"/>
     </row>
     <row r="245">
-      <c r="B245" s="29"/>
+      <c r="B245" s="31"/>
     </row>
     <row r="246">
-      <c r="B246" s="29"/>
+      <c r="B246" s="31"/>
     </row>
     <row r="247">
-      <c r="B247" s="29"/>
+      <c r="B247" s="31"/>
     </row>
     <row r="248">
-      <c r="B248" s="29"/>
+      <c r="B248" s="31"/>
     </row>
     <row r="249">
-      <c r="B249" s="29"/>
+      <c r="B249" s="31"/>
     </row>
     <row r="250">
-      <c r="B250" s="29"/>
+      <c r="B250" s="31"/>
     </row>
     <row r="251">
-      <c r="B251" s="29"/>
+      <c r="B251" s="31"/>
     </row>
     <row r="252">
-      <c r="B252" s="29"/>
+      <c r="B252" s="31"/>
     </row>
     <row r="253">
-      <c r="B253" s="29"/>
+      <c r="B253" s="31"/>
     </row>
     <row r="254">
-      <c r="B254" s="29"/>
+      <c r="B254" s="31"/>
     </row>
     <row r="255">
-      <c r="B255" s="29"/>
+      <c r="B255" s="31"/>
     </row>
     <row r="256">
-      <c r="B256" s="29"/>
+      <c r="B256" s="31"/>
     </row>
     <row r="257">
-      <c r="B257" s="29"/>
+      <c r="B257" s="31"/>
     </row>
     <row r="258">
-      <c r="B258" s="29"/>
+      <c r="B258" s="31"/>
     </row>
     <row r="259">
-      <c r="B259" s="29"/>
+      <c r="B259" s="31"/>
     </row>
     <row r="260">
-      <c r="B260" s="29"/>
+      <c r="B260" s="31"/>
     </row>
     <row r="261">
-      <c r="B261" s="29"/>
+      <c r="B261" s="31"/>
     </row>
     <row r="262">
-      <c r="B262" s="29"/>
+      <c r="B262" s="31"/>
     </row>
     <row r="263">
-      <c r="B263" s="29"/>
+      <c r="B263" s="31"/>
     </row>
     <row r="264">
-      <c r="B264" s="29"/>
+      <c r="B264" s="31"/>
     </row>
     <row r="265">
-      <c r="B265" s="29"/>
+      <c r="B265" s="31"/>
     </row>
     <row r="266">
-      <c r="B266" s="29"/>
+      <c r="B266" s="31"/>
     </row>
     <row r="267">
-      <c r="B267" s="29"/>
+      <c r="B267" s="31"/>
     </row>
     <row r="268">
-      <c r="B268" s="29"/>
+      <c r="B268" s="31"/>
     </row>
     <row r="269">
-      <c r="B269" s="29"/>
+      <c r="B269" s="31"/>
     </row>
     <row r="270">
-      <c r="B270" s="29"/>
+      <c r="B270" s="31"/>
     </row>
     <row r="271">
-      <c r="B271" s="29"/>
+      <c r="B271" s="31"/>
     </row>
     <row r="272">
-      <c r="B272" s="29"/>
+      <c r="B272" s="31"/>
     </row>
     <row r="273">
-      <c r="B273" s="29"/>
+      <c r="B273" s="31"/>
     </row>
     <row r="274">
-      <c r="B274" s="29"/>
+      <c r="B274" s="31"/>
     </row>
     <row r="275">
-      <c r="B275" s="29"/>
+      <c r="B275" s="31"/>
     </row>
     <row r="276">
-      <c r="B276" s="29"/>
+      <c r="B276" s="31"/>
     </row>
     <row r="277">
-      <c r="B277" s="29"/>
+      <c r="B277" s="31"/>
     </row>
     <row r="278">
-      <c r="B278" s="29"/>
+      <c r="B278" s="31"/>
     </row>
     <row r="279">
-      <c r="B279" s="29"/>
+      <c r="B279" s="31"/>
     </row>
     <row r="280">
-      <c r="B280" s="29"/>
+      <c r="B280" s="31"/>
     </row>
     <row r="281">
-      <c r="B281" s="29"/>
+      <c r="B281" s="31"/>
     </row>
     <row r="282">
-      <c r="B282" s="29"/>
+      <c r="B282" s="31"/>
     </row>
     <row r="283">
-      <c r="B283" s="29"/>
+      <c r="B283" s="31"/>
     </row>
     <row r="284">
-      <c r="B284" s="29"/>
+      <c r="B284" s="31"/>
     </row>
     <row r="285">
-      <c r="B285" s="29"/>
+      <c r="B285" s="31"/>
     </row>
     <row r="286">
-      <c r="B286" s="29"/>
+      <c r="B286" s="31"/>
     </row>
     <row r="287">
-      <c r="B287" s="29"/>
+      <c r="B287" s="31"/>
     </row>
     <row r="288">
-      <c r="B288" s="29"/>
+      <c r="B288" s="31"/>
     </row>
     <row r="289">
-      <c r="B289" s="29"/>
+      <c r="B289" s="31"/>
     </row>
     <row r="290">
-      <c r="B290" s="29"/>
+      <c r="B290" s="31"/>
     </row>
     <row r="291">
-      <c r="B291" s="29"/>
+      <c r="B291" s="31"/>
     </row>
     <row r="292">
-      <c r="B292" s="29"/>
+      <c r="B292" s="31"/>
     </row>
     <row r="293">
-      <c r="B293" s="29"/>
+      <c r="B293" s="31"/>
     </row>
     <row r="294">
-      <c r="B294" s="29"/>
+      <c r="B294" s="31"/>
     </row>
     <row r="295">
-      <c r="B295" s="29"/>
+      <c r="B295" s="31"/>
     </row>
     <row r="296">
-      <c r="B296" s="29"/>
+      <c r="B296" s="31"/>
     </row>
     <row r="297">
-      <c r="B297" s="29"/>
+      <c r="B297" s="31"/>
     </row>
     <row r="298">
-      <c r="B298" s="29"/>
+      <c r="B298" s="31"/>
     </row>
     <row r="299">
-      <c r="B299" s="29"/>
+      <c r="B299" s="31"/>
     </row>
     <row r="300">
-      <c r="B300" s="29"/>
+      <c r="B300" s="31"/>
     </row>
     <row r="301">
-      <c r="B301" s="29"/>
+      <c r="B301" s="31"/>
     </row>
     <row r="302">
-      <c r="B302" s="29"/>
+      <c r="B302" s="31"/>
     </row>
     <row r="303">
-      <c r="B303" s="29"/>
+      <c r="B303" s="31"/>
     </row>
     <row r="304">
-      <c r="B304" s="29"/>
+      <c r="B304" s="31"/>
     </row>
     <row r="305">
-      <c r="B305" s="29"/>
+      <c r="B305" s="31"/>
     </row>
     <row r="306">
-      <c r="B306" s="29"/>
+      <c r="B306" s="31"/>
     </row>
     <row r="307">
-      <c r="B307" s="29"/>
+      <c r="B307" s="31"/>
     </row>
     <row r="308">
-      <c r="B308" s="29"/>
+      <c r="B308" s="31"/>
     </row>
     <row r="309">
-      <c r="B309" s="29"/>
+      <c r="B309" s="31"/>
     </row>
     <row r="310">
-      <c r="B310" s="29"/>
+      <c r="B310" s="31"/>
     </row>
     <row r="311">
-      <c r="B311" s="29"/>
+      <c r="B311" s="31"/>
     </row>
     <row r="312">
-      <c r="B312" s="29"/>
+      <c r="B312" s="31"/>
     </row>
     <row r="313">
-      <c r="B313" s="29"/>
+      <c r="B313" s="31"/>
     </row>
     <row r="314">
-      <c r="B314" s="29"/>
+      <c r="B314" s="31"/>
     </row>
     <row r="315">
-      <c r="B315" s="29"/>
+      <c r="B315" s="31"/>
     </row>
     <row r="316">
-      <c r="B316" s="29"/>
+      <c r="B316" s="31"/>
     </row>
     <row r="317">
-      <c r="B317" s="29"/>
+      <c r="B317" s="31"/>
     </row>
     <row r="318">
-      <c r="B318" s="29"/>
+      <c r="B318" s="31"/>
     </row>
     <row r="319">
-      <c r="B319" s="29"/>
+      <c r="B319" s="31"/>
     </row>
     <row r="320">
-      <c r="B320" s="29"/>
+      <c r="B320" s="31"/>
     </row>
     <row r="321">
-      <c r="B321" s="29"/>
+      <c r="B321" s="31"/>
     </row>
     <row r="322">
-      <c r="B322" s="29"/>
+      <c r="B322" s="31"/>
     </row>
     <row r="323">
-      <c r="B323" s="29"/>
+      <c r="B323" s="31"/>
     </row>
     <row r="324">
-      <c r="B324" s="29"/>
+      <c r="B324" s="31"/>
     </row>
     <row r="325">
-      <c r="B325" s="29"/>
+      <c r="B325" s="31"/>
     </row>
     <row r="326">
-      <c r="B326" s="29"/>
+      <c r="B326" s="31"/>
     </row>
     <row r="327">
-      <c r="B327" s="29"/>
+      <c r="B327" s="31"/>
     </row>
     <row r="328">
-      <c r="B328" s="29"/>
+      <c r="B328" s="31"/>
     </row>
     <row r="329">
-      <c r="B329" s="29"/>
+      <c r="B329" s="31"/>
     </row>
     <row r="330">
-      <c r="B330" s="29"/>
+      <c r="B330" s="31"/>
     </row>
     <row r="331">
-      <c r="B331" s="29"/>
+      <c r="B331" s="31"/>
     </row>
     <row r="332">
-      <c r="B332" s="29"/>
+      <c r="B332" s="31"/>
     </row>
     <row r="333">
-      <c r="B333" s="29"/>
+      <c r="B333" s="31"/>
     </row>
     <row r="334">
-      <c r="B334" s="29"/>
+      <c r="B334" s="31"/>
     </row>
     <row r="335">
-      <c r="B335" s="29"/>
+      <c r="B335" s="31"/>
     </row>
     <row r="336">
-      <c r="B336" s="29"/>
+      <c r="B336" s="31"/>
     </row>
     <row r="337">
-      <c r="B337" s="29"/>
+      <c r="B337" s="31"/>
     </row>
     <row r="338">
-      <c r="B338" s="29"/>
+      <c r="B338" s="31"/>
     </row>
     <row r="339">
-      <c r="B339" s="29"/>
+      <c r="B339" s="31"/>
     </row>
     <row r="340">
-      <c r="B340" s="29"/>
+      <c r="B340" s="31"/>
     </row>
     <row r="341">
-      <c r="B341" s="29"/>
+      <c r="B341" s="31"/>
     </row>
     <row r="342">
-      <c r="B342" s="29"/>
+      <c r="B342" s="31"/>
     </row>
     <row r="343">
-      <c r="B343" s="29"/>
+      <c r="B343" s="31"/>
     </row>
     <row r="344">
-      <c r="B344" s="29"/>
+      <c r="B344" s="31"/>
     </row>
     <row r="345">
-      <c r="B345" s="29"/>
+      <c r="B345" s="31"/>
     </row>
     <row r="346">
-      <c r="B346" s="29"/>
+      <c r="B346" s="31"/>
     </row>
     <row r="347">
-      <c r="B347" s="29"/>
+      <c r="B347" s="31"/>
     </row>
     <row r="348">
-      <c r="B348" s="29"/>
+      <c r="B348" s="31"/>
     </row>
     <row r="349">
-      <c r="B349" s="29"/>
+      <c r="B349" s="31"/>
     </row>
     <row r="350">
-      <c r="B350" s="29"/>
+      <c r="B350" s="31"/>
     </row>
     <row r="351">
-      <c r="B351" s="29"/>
+      <c r="B351" s="31"/>
     </row>
     <row r="352">
-      <c r="B352" s="29"/>
+      <c r="B352" s="31"/>
     </row>
     <row r="353">
-      <c r="B353" s="29"/>
+      <c r="B353" s="31"/>
     </row>
     <row r="354">
-      <c r="B354" s="29"/>
+      <c r="B354" s="31"/>
     </row>
     <row r="355">
-      <c r="B355" s="29"/>
+      <c r="B355" s="31"/>
     </row>
     <row r="356">
-      <c r="B356" s="29"/>
+      <c r="B356" s="31"/>
     </row>
     <row r="357">
-      <c r="B357" s="29"/>
+      <c r="B357" s="31"/>
     </row>
     <row r="358">
-      <c r="B358" s="29"/>
+      <c r="B358" s="31"/>
     </row>
     <row r="359">
-      <c r="B359" s="29"/>
+      <c r="B359" s="31"/>
     </row>
     <row r="360">
-      <c r="B360" s="29"/>
+      <c r="B360" s="31"/>
     </row>
     <row r="361">
-      <c r="B361" s="29"/>
+      <c r="B361" s="31"/>
     </row>
     <row r="362">
-      <c r="B362" s="29"/>
+      <c r="B362" s="31"/>
     </row>
     <row r="363">
-      <c r="B363" s="29"/>
+      <c r="B363" s="31"/>
     </row>
     <row r="364">
-      <c r="B364" s="29"/>
+      <c r="B364" s="31"/>
     </row>
     <row r="365">
-      <c r="B365" s="29"/>
+      <c r="B365" s="31"/>
     </row>
     <row r="366">
-      <c r="B366" s="29"/>
+      <c r="B366" s="31"/>
     </row>
     <row r="367">
-      <c r="B367" s="29"/>
+      <c r="B367" s="31"/>
     </row>
     <row r="368">
-      <c r="B368" s="29"/>
+      <c r="B368" s="31"/>
     </row>
     <row r="369">
-      <c r="B369" s="29"/>
+      <c r="B369" s="31"/>
     </row>
     <row r="370">
-      <c r="B370" s="29"/>
+      <c r="B370" s="31"/>
     </row>
     <row r="371">
-      <c r="B371" s="29"/>
+      <c r="B371" s="31"/>
     </row>
     <row r="372">
-      <c r="B372" s="29"/>
+      <c r="B372" s="31"/>
     </row>
     <row r="373">
-      <c r="B373" s="29"/>
+      <c r="B373" s="31"/>
     </row>
     <row r="374">
-      <c r="B374" s="29"/>
+      <c r="B374" s="31"/>
     </row>
     <row r="375">
-      <c r="B375" s="29"/>
+      <c r="B375" s="31"/>
     </row>
     <row r="376">
-      <c r="B376" s="29"/>
+      <c r="B376" s="31"/>
     </row>
     <row r="377">
-      <c r="B377" s="29"/>
+      <c r="B377" s="31"/>
     </row>
     <row r="378">
-      <c r="B378" s="29"/>
+      <c r="B378" s="31"/>
     </row>
     <row r="379">
-      <c r="B379" s="29"/>
+      <c r="B379" s="31"/>
     </row>
     <row r="380">
-      <c r="B380" s="29"/>
+      <c r="B380" s="31"/>
     </row>
     <row r="381">
-      <c r="B381" s="29"/>
+      <c r="B381" s="31"/>
     </row>
     <row r="382">
-      <c r="B382" s="29"/>
+      <c r="B382" s="31"/>
     </row>
     <row r="383">
-      <c r="B383" s="29"/>
+      <c r="B383" s="31"/>
     </row>
     <row r="384">
-      <c r="B384" s="29"/>
+      <c r="B384" s="31"/>
     </row>
     <row r="385">
-      <c r="B385" s="29"/>
+      <c r="B385" s="31"/>
     </row>
     <row r="386">
-      <c r="B386" s="29"/>
+      <c r="B386" s="31"/>
     </row>
     <row r="387">
-      <c r="B387" s="29"/>
+      <c r="B387" s="31"/>
     </row>
     <row r="388">
-      <c r="B388" s="29"/>
+      <c r="B388" s="31"/>
     </row>
     <row r="389">
-      <c r="B389" s="29"/>
+      <c r="B389" s="31"/>
     </row>
     <row r="390">
-      <c r="B390" s="29"/>
+      <c r="B390" s="31"/>
     </row>
     <row r="391">
-      <c r="B391" s="29"/>
+      <c r="B391" s="31"/>
     </row>
     <row r="392">
-      <c r="B392" s="29"/>
+      <c r="B392" s="31"/>
     </row>
     <row r="393">
-      <c r="B393" s="29"/>
+      <c r="B393" s="31"/>
     </row>
     <row r="394">
-      <c r="B394" s="29"/>
+      <c r="B394" s="31"/>
     </row>
     <row r="395">
-      <c r="B395" s="29"/>
+      <c r="B395" s="31"/>
     </row>
     <row r="396">
-      <c r="B396" s="29"/>
+      <c r="B396" s="31"/>
     </row>
     <row r="397">
-      <c r="B397" s="29"/>
+      <c r="B397" s="31"/>
     </row>
     <row r="398">
-      <c r="B398" s="29"/>
+      <c r="B398" s="31"/>
     </row>
     <row r="399">
-      <c r="B399" s="29"/>
+      <c r="B399" s="31"/>
     </row>
     <row r="400">
-      <c r="B400" s="29"/>
+      <c r="B400" s="31"/>
     </row>
     <row r="401">
-      <c r="B401" s="29"/>
+      <c r="B401" s="31"/>
     </row>
     <row r="402">
-      <c r="B402" s="29"/>
+      <c r="B402" s="31"/>
     </row>
     <row r="403">
-      <c r="B403" s="29"/>
+      <c r="B403" s="31"/>
     </row>
     <row r="404">
-      <c r="B404" s="29"/>
+      <c r="B404" s="31"/>
     </row>
     <row r="405">
-      <c r="B405" s="29"/>
+      <c r="B405" s="31"/>
     </row>
     <row r="406">
-      <c r="B406" s="29"/>
+      <c r="B406" s="31"/>
     </row>
     <row r="407">
-      <c r="B407" s="29"/>
+      <c r="B407" s="31"/>
     </row>
     <row r="408">
-      <c r="B408" s="29"/>
+      <c r="B408" s="31"/>
     </row>
     <row r="409">
-      <c r="B409" s="29"/>
+      <c r="B409" s="31"/>
     </row>
     <row r="410">
-      <c r="B410" s="29"/>
+      <c r="B410" s="31"/>
     </row>
     <row r="411">
-      <c r="B411" s="29"/>
+      <c r="B411" s="31"/>
     </row>
     <row r="412">
-      <c r="B412" s="29"/>
+      <c r="B412" s="31"/>
     </row>
     <row r="413">
-      <c r="B413" s="29"/>
+      <c r="B413" s="31"/>
     </row>
     <row r="414">
-      <c r="B414" s="29"/>
+      <c r="B414" s="31"/>
     </row>
     <row r="415">
-      <c r="B415" s="29"/>
+      <c r="B415" s="31"/>
     </row>
     <row r="416">
-      <c r="B416" s="29"/>
+      <c r="B416" s="31"/>
     </row>
     <row r="417">
-      <c r="B417" s="29"/>
+      <c r="B417" s="31"/>
     </row>
     <row r="418">
-      <c r="B418" s="29"/>
+      <c r="B418" s="31"/>
     </row>
     <row r="419">
-      <c r="B419" s="29"/>
+      <c r="B419" s="31"/>
     </row>
     <row r="420">
-      <c r="B420" s="29"/>
+      <c r="B420" s="31"/>
     </row>
     <row r="421">
-      <c r="B421" s="29"/>
+      <c r="B421" s="31"/>
     </row>
     <row r="422">
-      <c r="B422" s="29"/>
+      <c r="B422" s="31"/>
     </row>
     <row r="423">
-      <c r="B423" s="29"/>
+      <c r="B423" s="31"/>
     </row>
     <row r="424">
-      <c r="B424" s="29"/>
+      <c r="B424" s="31"/>
     </row>
     <row r="425">
-      <c r="B425" s="29"/>
+      <c r="B425" s="31"/>
     </row>
     <row r="426">
-      <c r="B426" s="29"/>
+      <c r="B426" s="31"/>
     </row>
     <row r="427">
-      <c r="B427" s="29"/>
+      <c r="B427" s="31"/>
     </row>
     <row r="428">
-      <c r="B428" s="29"/>
+      <c r="B428" s="31"/>
     </row>
     <row r="429">
-      <c r="B429" s="29"/>
+      <c r="B429" s="31"/>
     </row>
     <row r="430">
-      <c r="B430" s="29"/>
+      <c r="B430" s="31"/>
     </row>
     <row r="431">
-      <c r="B431" s="29"/>
+      <c r="B431" s="31"/>
     </row>
     <row r="432">
-      <c r="B432" s="29"/>
+      <c r="B432" s="31"/>
     </row>
     <row r="433">
-      <c r="B433" s="29"/>
+      <c r="B433" s="31"/>
     </row>
     <row r="434">
-      <c r="B434" s="29"/>
+      <c r="B434" s="31"/>
     </row>
     <row r="435">
-      <c r="B435" s="29"/>
+      <c r="B435" s="31"/>
     </row>
     <row r="436">
-      <c r="B436" s="29"/>
+      <c r="B436" s="31"/>
     </row>
     <row r="437">
-      <c r="B437" s="29"/>
+      <c r="B437" s="31"/>
     </row>
     <row r="438">
-      <c r="B438" s="29"/>
+      <c r="B438" s="31"/>
     </row>
     <row r="439">
-      <c r="B439" s="29"/>
+      <c r="B439" s="31"/>
     </row>
     <row r="440">
-      <c r="B440" s="29"/>
+      <c r="B440" s="31"/>
     </row>
     <row r="441">
-      <c r="B441" s="29"/>
+      <c r="B441" s="31"/>
     </row>
     <row r="442">
-      <c r="B442" s="29"/>
+      <c r="B442" s="31"/>
     </row>
     <row r="443">
-      <c r="B443" s="29"/>
+      <c r="B443" s="31"/>
     </row>
     <row r="444">
-      <c r="B444" s="29"/>
+      <c r="B444" s="31"/>
     </row>
     <row r="445">
-      <c r="B445" s="29"/>
+      <c r="B445" s="31"/>
     </row>
     <row r="446">
-      <c r="B446" s="29"/>
+      <c r="B446" s="31"/>
     </row>
     <row r="447">
-      <c r="B447" s="29"/>
+      <c r="B447" s="31"/>
     </row>
     <row r="448">
-      <c r="B448" s="29"/>
+      <c r="B448" s="31"/>
     </row>
     <row r="449">
-      <c r="B449" s="29"/>
+      <c r="B449" s="31"/>
     </row>
     <row r="450">
-      <c r="B450" s="29"/>
+      <c r="B450" s="31"/>
     </row>
     <row r="451">
-      <c r="B451" s="29"/>
+      <c r="B451" s="31"/>
     </row>
     <row r="452">
-      <c r="B452" s="29"/>
+      <c r="B452" s="31"/>
     </row>
     <row r="453">
-      <c r="B453" s="29"/>
+      <c r="B453" s="31"/>
     </row>
     <row r="454">
-      <c r="B454" s="29"/>
+      <c r="B454" s="31"/>
     </row>
     <row r="455">
-      <c r="B455" s="29"/>
+      <c r="B455" s="31"/>
     </row>
     <row r="456">
-      <c r="B456" s="29"/>
+      <c r="B456" s="31"/>
     </row>
     <row r="457">
-      <c r="B457" s="29"/>
+      <c r="B457" s="31"/>
     </row>
     <row r="458">
-      <c r="B458" s="29"/>
+      <c r="B458" s="31"/>
     </row>
     <row r="459">
-      <c r="B459" s="29"/>
+      <c r="B459" s="31"/>
     </row>
     <row r="460">
-      <c r="B460" s="29"/>
+      <c r="B460" s="31"/>
     </row>
     <row r="461">
-      <c r="B461" s="29"/>
+      <c r="B461" s="31"/>
     </row>
     <row r="462">
-      <c r="B462" s="29"/>
+      <c r="B462" s="31"/>
     </row>
     <row r="463">
-      <c r="B463" s="29"/>
+      <c r="B463" s="31"/>
     </row>
     <row r="464">
-      <c r="B464" s="29"/>
+      <c r="B464" s="31"/>
     </row>
     <row r="465">
-      <c r="B465" s="29"/>
+      <c r="B465" s="31"/>
     </row>
     <row r="466">
-      <c r="B466" s="29"/>
+      <c r="B466" s="31"/>
     </row>
     <row r="467">
-      <c r="B467" s="29"/>
+      <c r="B467" s="31"/>
     </row>
     <row r="468">
-      <c r="B468" s="29"/>
+      <c r="B468" s="31"/>
     </row>
     <row r="469">
-      <c r="B469" s="29"/>
+      <c r="B469" s="31"/>
     </row>
     <row r="470">
-      <c r="B470" s="29"/>
+      <c r="B470" s="31"/>
     </row>
     <row r="471">
-      <c r="B471" s="29"/>
+      <c r="B471" s="31"/>
     </row>
     <row r="472">
-      <c r="B472" s="29"/>
+      <c r="B472" s="31"/>
     </row>
     <row r="473">
-      <c r="B473" s="29"/>
+      <c r="B473" s="31"/>
     </row>
     <row r="474">
-      <c r="B474" s="29"/>
+      <c r="B474" s="31"/>
     </row>
     <row r="475">
-      <c r="B475" s="29"/>
+      <c r="B475" s="31"/>
     </row>
     <row r="476">
-      <c r="B476" s="29"/>
+      <c r="B476" s="31"/>
     </row>
     <row r="477">
-      <c r="B477" s="29"/>
+      <c r="B477" s="31"/>
     </row>
     <row r="478">
-      <c r="B478" s="29"/>
+      <c r="B478" s="31"/>
     </row>
     <row r="479">
-      <c r="B479" s="29"/>
+      <c r="B479" s="31"/>
     </row>
     <row r="480">
-      <c r="B480" s="29"/>
+      <c r="B480" s="31"/>
     </row>
     <row r="481">
-      <c r="B481" s="29"/>
+      <c r="B481" s="31"/>
     </row>
     <row r="482">
-      <c r="B482" s="29"/>
+      <c r="B482" s="31"/>
     </row>
     <row r="483">
-      <c r="B483" s="29"/>
+      <c r="B483" s="31"/>
     </row>
     <row r="484">
-      <c r="B484" s="29"/>
+      <c r="B484" s="31"/>
     </row>
     <row r="485">
-      <c r="B485" s="29"/>
+      <c r="B485" s="31"/>
     </row>
     <row r="486">
-      <c r="B486" s="29"/>
+      <c r="B486" s="31"/>
     </row>
     <row r="487">
-      <c r="B487" s="29"/>
+      <c r="B487" s="31"/>
     </row>
     <row r="488">
-      <c r="B488" s="29"/>
+      <c r="B488" s="31"/>
     </row>
     <row r="489">
-      <c r="B489" s="29"/>
+      <c r="B489" s="31"/>
     </row>
     <row r="490">
-      <c r="B490" s="29"/>
+      <c r="B490" s="31"/>
     </row>
     <row r="491">
-      <c r="B491" s="29"/>
+      <c r="B491" s="31"/>
     </row>
     <row r="492">
-      <c r="B492" s="29"/>
+      <c r="B492" s="31"/>
     </row>
     <row r="493">
-      <c r="B493" s="29"/>
+      <c r="B493" s="31"/>
     </row>
     <row r="494">
-      <c r="B494" s="29"/>
+      <c r="B494" s="31"/>
     </row>
     <row r="495">
-      <c r="B495" s="29"/>
+      <c r="B495" s="31"/>
     </row>
     <row r="496">
-      <c r="B496" s="29"/>
+      <c r="B496" s="31"/>
     </row>
     <row r="497">
-      <c r="B497" s="29"/>
+      <c r="B497" s="31"/>
     </row>
     <row r="498">
-      <c r="B498" s="29"/>
+      <c r="B498" s="31"/>
     </row>
     <row r="499">
-      <c r="B499" s="29"/>
+      <c r="B499" s="31"/>
     </row>
     <row r="500">
-      <c r="B500" s="29"/>
+      <c r="B500" s="31"/>
     </row>
     <row r="501">
-      <c r="B501" s="29"/>
+      <c r="B501" s="31"/>
     </row>
     <row r="502">
-      <c r="B502" s="29"/>
+      <c r="B502" s="31"/>
     </row>
     <row r="503">
-      <c r="B503" s="29"/>
+      <c r="B503" s="31"/>
     </row>
     <row r="504">
-      <c r="B504" s="29"/>
+      <c r="B504" s="31"/>
     </row>
     <row r="505">
-      <c r="B505" s="29"/>
+      <c r="B505" s="31"/>
     </row>
     <row r="506">
-      <c r="B506" s="29"/>
+      <c r="B506" s="31"/>
     </row>
     <row r="507">
-      <c r="B507" s="29"/>
+      <c r="B507" s="31"/>
     </row>
     <row r="508">
-      <c r="B508" s="29"/>
+      <c r="B508" s="31"/>
     </row>
     <row r="509">
-      <c r="B509" s="29"/>
+      <c r="B509" s="31"/>
     </row>
     <row r="510">
-      <c r="B510" s="29"/>
+      <c r="B510" s="31"/>
     </row>
     <row r="511">
-      <c r="B511" s="29"/>
+      <c r="B511" s="31"/>
     </row>
     <row r="512">
-      <c r="B512" s="29"/>
+      <c r="B512" s="31"/>
     </row>
     <row r="513">
-      <c r="B513" s="29"/>
+      <c r="B513" s="31"/>
     </row>
     <row r="514">
-      <c r="B514" s="29"/>
+      <c r="B514" s="31"/>
     </row>
     <row r="515">
-      <c r="B515" s="29"/>
+      <c r="B515" s="31"/>
     </row>
     <row r="516">
-      <c r="B516" s="29"/>
+      <c r="B516" s="31"/>
     </row>
     <row r="517">
-      <c r="B517" s="29"/>
+      <c r="B517" s="31"/>
     </row>
     <row r="518">
-      <c r="B518" s="29"/>
+      <c r="B518" s="31"/>
     </row>
     <row r="519">
-      <c r="B519" s="29"/>
+      <c r="B519" s="31"/>
     </row>
     <row r="520">
-      <c r="B520" s="29"/>
+      <c r="B520" s="31"/>
     </row>
     <row r="521">
-      <c r="B521" s="29"/>
+      <c r="B521" s="31"/>
     </row>
     <row r="522">
-      <c r="B522" s="29"/>
+      <c r="B522" s="31"/>
     </row>
     <row r="523">
-      <c r="B523" s="29"/>
+      <c r="B523" s="31"/>
     </row>
     <row r="524">
-      <c r="B524" s="29"/>
+      <c r="B524" s="31"/>
     </row>
     <row r="525">
-      <c r="B525" s="29"/>
+      <c r="B525" s="31"/>
     </row>
     <row r="526">
-      <c r="B526" s="29"/>
+      <c r="B526" s="31"/>
     </row>
     <row r="527">
-      <c r="B527" s="29"/>
+      <c r="B527" s="31"/>
     </row>
     <row r="528">
-      <c r="B528" s="29"/>
+      <c r="B528" s="31"/>
     </row>
     <row r="529">
-      <c r="B529" s="29"/>
+      <c r="B529" s="31"/>
     </row>
     <row r="530">
-      <c r="B530" s="29"/>
+      <c r="B530" s="31"/>
     </row>
     <row r="531">
-      <c r="B531" s="29"/>
+      <c r="B531" s="31"/>
     </row>
     <row r="532">
-      <c r="B532" s="29"/>
+      <c r="B532" s="31"/>
     </row>
     <row r="533">
-      <c r="B533" s="29"/>
+      <c r="B533" s="31"/>
     </row>
     <row r="534">
-      <c r="B534" s="29"/>
+      <c r="B534" s="31"/>
     </row>
     <row r="535">
-      <c r="B535" s="29"/>
+      <c r="B535" s="31"/>
     </row>
     <row r="536">
-      <c r="B536" s="29"/>
+      <c r="B536" s="31"/>
     </row>
     <row r="537">
-      <c r="B537" s="29"/>
+      <c r="B537" s="31"/>
     </row>
     <row r="538">
-      <c r="B538" s="29"/>
+      <c r="B538" s="31"/>
     </row>
     <row r="539">
-      <c r="B539" s="29"/>
+      <c r="B539" s="31"/>
     </row>
     <row r="540">
-      <c r="B540" s="29"/>
+      <c r="B540" s="31"/>
     </row>
     <row r="541">
-      <c r="B541" s="29"/>
+      <c r="B541" s="31"/>
     </row>
     <row r="542">
-      <c r="B542" s="29"/>
+      <c r="B542" s="31"/>
     </row>
     <row r="543">
-      <c r="B543" s="29"/>
+      <c r="B543" s="31"/>
     </row>
     <row r="544">
-      <c r="B544" s="29"/>
+      <c r="B544" s="31"/>
     </row>
     <row r="545">
-      <c r="B545" s="29"/>
+      <c r="B545" s="31"/>
     </row>
     <row r="546">
-      <c r="B546" s="29"/>
+      <c r="B546" s="31"/>
     </row>
     <row r="547">
-      <c r="B547" s="29"/>
+      <c r="B547" s="31"/>
     </row>
     <row r="548">
-      <c r="B548" s="29"/>
+      <c r="B548" s="31"/>
     </row>
     <row r="549">
-      <c r="B549" s="29"/>
+      <c r="B549" s="31"/>
     </row>
     <row r="550">
-      <c r="B550" s="29"/>
+      <c r="B550" s="31"/>
     </row>
     <row r="551">
-      <c r="B551" s="29"/>
+      <c r="B551" s="31"/>
     </row>
     <row r="552">
-      <c r="B552" s="29"/>
+      <c r="B552" s="31"/>
     </row>
     <row r="553">
-      <c r="B553" s="29"/>
+      <c r="B553" s="31"/>
     </row>
     <row r="554">
-      <c r="B554" s="29"/>
+      <c r="B554" s="31"/>
     </row>
     <row r="555">
-      <c r="B555" s="29"/>
+      <c r="B555" s="31"/>
     </row>
     <row r="556">
-      <c r="B556" s="29"/>
+      <c r="B556" s="31"/>
     </row>
     <row r="557">
-      <c r="B557" s="29"/>
+      <c r="B557" s="31"/>
     </row>
     <row r="558">
-      <c r="B558" s="29"/>
+      <c r="B558" s="31"/>
     </row>
     <row r="559">
-      <c r="B559" s="29"/>
+      <c r="B559" s="31"/>
     </row>
     <row r="560">
-      <c r="B560" s="29"/>
+      <c r="B560" s="31"/>
     </row>
     <row r="561">
-      <c r="B561" s="29"/>
+      <c r="B561" s="31"/>
     </row>
     <row r="562">
-      <c r="B562" s="29"/>
+      <c r="B562" s="31"/>
     </row>
     <row r="563">
-      <c r="B563" s="29"/>
+      <c r="B563" s="31"/>
     </row>
     <row r="564">
-      <c r="B564" s="29"/>
+      <c r="B564" s="31"/>
     </row>
     <row r="565">
-      <c r="B565" s="29"/>
+      <c r="B565" s="31"/>
     </row>
     <row r="566">
-      <c r="B566" s="29"/>
+      <c r="B566" s="31"/>
     </row>
     <row r="567">
-      <c r="B567" s="29"/>
+      <c r="B567" s="31"/>
     </row>
     <row r="568">
-      <c r="B568" s="29"/>
+      <c r="B568" s="31"/>
     </row>
     <row r="569">
-      <c r="B569" s="29"/>
+      <c r="B569" s="31"/>
     </row>
     <row r="570">
-      <c r="B570" s="29"/>
+      <c r="B570" s="31"/>
     </row>
     <row r="571">
-      <c r="B571" s="29"/>
+      <c r="B571" s="31"/>
     </row>
     <row r="572">
-      <c r="B572" s="29"/>
+      <c r="B572" s="31"/>
     </row>
     <row r="573">
-      <c r="B573" s="29"/>
+      <c r="B573" s="31"/>
     </row>
     <row r="574">
-      <c r="B574" s="29"/>
+      <c r="B574" s="31"/>
     </row>
     <row r="575">
-      <c r="B575" s="29"/>
+      <c r="B575" s="31"/>
     </row>
     <row r="576">
-      <c r="B576" s="29"/>
+      <c r="B576" s="31"/>
     </row>
     <row r="577">
-      <c r="B577" s="29"/>
+      <c r="B577" s="31"/>
     </row>
     <row r="578">
-      <c r="B578" s="29"/>
+      <c r="B578" s="31"/>
     </row>
     <row r="579">
-      <c r="B579" s="29"/>
+      <c r="B579" s="31"/>
     </row>
     <row r="580">
-      <c r="B580" s="29"/>
+      <c r="B580" s="31"/>
     </row>
     <row r="581">
-      <c r="B581" s="29"/>
+      <c r="B581" s="31"/>
     </row>
     <row r="582">
-      <c r="B582" s="29"/>
+      <c r="B582" s="31"/>
     </row>
     <row r="583">
-      <c r="B583" s="29"/>
+      <c r="B583" s="31"/>
     </row>
     <row r="584">
-      <c r="B584" s="29"/>
+      <c r="B584" s="31"/>
     </row>
     <row r="585">
-      <c r="B585" s="29"/>
+      <c r="B585" s="31"/>
     </row>
     <row r="586">
-      <c r="B586" s="29"/>
+      <c r="B586" s="31"/>
     </row>
     <row r="587">
-      <c r="B587" s="29"/>
+      <c r="B587" s="31"/>
     </row>
     <row r="588">
-      <c r="B588" s="29"/>
+      <c r="B588" s="31"/>
     </row>
     <row r="589">
-      <c r="B589" s="29"/>
+      <c r="B589" s="31"/>
     </row>
     <row r="590">
-      <c r="B590" s="29"/>
+      <c r="B590" s="31"/>
     </row>
     <row r="591">
-      <c r="B591" s="29"/>
+      <c r="B591" s="31"/>
     </row>
     <row r="592">
-      <c r="B592" s="29"/>
+      <c r="B592" s="31"/>
     </row>
     <row r="593">
-      <c r="B593" s="29"/>
+      <c r="B593" s="31"/>
     </row>
     <row r="594">
-      <c r="B594" s="29"/>
+      <c r="B594" s="31"/>
     </row>
     <row r="595">
-      <c r="B595" s="29"/>
+      <c r="B595" s="31"/>
     </row>
     <row r="596">
-      <c r="B596" s="29"/>
+      <c r="B596" s="31"/>
     </row>
     <row r="597">
-      <c r="B597" s="29"/>
+      <c r="B597" s="31"/>
     </row>
     <row r="598">
-      <c r="B598" s="29"/>
+      <c r="B598" s="31"/>
     </row>
     <row r="599">
-      <c r="B599" s="29"/>
+      <c r="B599" s="31"/>
     </row>
     <row r="600">
-      <c r="B600" s="29"/>
+      <c r="B600" s="31"/>
     </row>
     <row r="601">
-      <c r="B601" s="29"/>
+      <c r="B601" s="31"/>
     </row>
     <row r="602">
-      <c r="B602" s="29"/>
+      <c r="B602" s="31"/>
     </row>
     <row r="603">
-      <c r="B603" s="29"/>
+      <c r="B603" s="31"/>
     </row>
     <row r="604">
-      <c r="B604" s="29"/>
+      <c r="B604" s="31"/>
     </row>
     <row r="605">
-      <c r="B605" s="29"/>
+      <c r="B605" s="31"/>
     </row>
     <row r="606">
-      <c r="B606" s="29"/>
+      <c r="B606" s="31"/>
     </row>
     <row r="607">
-      <c r="B607" s="29"/>
+      <c r="B607" s="31"/>
     </row>
     <row r="608">
-      <c r="B608" s="29"/>
+      <c r="B608" s="31"/>
     </row>
     <row r="609">
-      <c r="B609" s="29"/>
+      <c r="B609" s="31"/>
     </row>
     <row r="610">
-      <c r="B610" s="29"/>
+      <c r="B610" s="31"/>
     </row>
     <row r="611">
-      <c r="B611" s="29"/>
+      <c r="B611" s="31"/>
     </row>
     <row r="612">
-      <c r="B612" s="29"/>
+      <c r="B612" s="31"/>
     </row>
     <row r="613">
-      <c r="B613" s="29"/>
+      <c r="B613" s="31"/>
     </row>
     <row r="614">
-      <c r="B614" s="29"/>
+      <c r="B614" s="31"/>
     </row>
     <row r="615">
-      <c r="B615" s="29"/>
+      <c r="B615" s="31"/>
     </row>
     <row r="616">
-      <c r="B616" s="29"/>
+      <c r="B616" s="31"/>
     </row>
     <row r="617">
-      <c r="B617" s="29"/>
+      <c r="B617" s="31"/>
     </row>
     <row r="618">
-      <c r="B618" s="29"/>
+      <c r="B618" s="31"/>
     </row>
     <row r="619">
-      <c r="B619" s="29"/>
+      <c r="B619" s="31"/>
     </row>
     <row r="620">
-      <c r="B620" s="29"/>
+      <c r="B620" s="31"/>
     </row>
     <row r="621">
-      <c r="B621" s="29"/>
+      <c r="B621" s="31"/>
     </row>
     <row r="622">
-      <c r="B622" s="29"/>
+      <c r="B622" s="31"/>
     </row>
     <row r="623">
-      <c r="B623" s="29"/>
+      <c r="B623" s="31"/>
     </row>
     <row r="624">
-      <c r="B624" s="29"/>
+      <c r="B624" s="31"/>
     </row>
     <row r="625">
-      <c r="B625" s="29"/>
+      <c r="B625" s="31"/>
     </row>
     <row r="626">
-      <c r="B626" s="29"/>
+      <c r="B626" s="31"/>
     </row>
     <row r="627">
-      <c r="B627" s="29"/>
+      <c r="B627" s="31"/>
     </row>
     <row r="628">
-      <c r="B628" s="29"/>
+      <c r="B628" s="31"/>
     </row>
     <row r="629">
-      <c r="B629" s="29"/>
+      <c r="B629" s="31"/>
     </row>
     <row r="630">
-      <c r="B630" s="29"/>
+      <c r="B630" s="31"/>
     </row>
     <row r="631">
-      <c r="B631" s="29"/>
+      <c r="B631" s="31"/>
     </row>
     <row r="632">
-      <c r="B632" s="29"/>
+      <c r="B632" s="31"/>
     </row>
     <row r="633">
-      <c r="B633" s="29"/>
+      <c r="B633" s="31"/>
     </row>
     <row r="634">
-      <c r="B634" s="29"/>
+      <c r="B634" s="31"/>
     </row>
     <row r="635">
-      <c r="B635" s="29"/>
+      <c r="B635" s="31"/>
     </row>
     <row r="636">
-      <c r="B636" s="29"/>
+      <c r="B636" s="31"/>
     </row>
     <row r="637">
-      <c r="B637" s="29"/>
+      <c r="B637" s="31"/>
     </row>
     <row r="638">
-      <c r="B638" s="29"/>
+      <c r="B638" s="31"/>
     </row>
     <row r="639">
-      <c r="B639" s="29"/>
+      <c r="B639" s="31"/>
     </row>
     <row r="640">
-      <c r="B640" s="29"/>
+      <c r="B640" s="31"/>
     </row>
     <row r="641">
-      <c r="B641" s="29"/>
+      <c r="B641" s="31"/>
     </row>
     <row r="642">
-      <c r="B642" s="29"/>
+      <c r="B642" s="31"/>
     </row>
     <row r="643">
-      <c r="B643" s="29"/>
+      <c r="B643" s="31"/>
     </row>
     <row r="644">
-      <c r="B644" s="29"/>
+      <c r="B644" s="31"/>
     </row>
     <row r="645">
-      <c r="B645" s="29"/>
+      <c r="B645" s="31"/>
     </row>
     <row r="646">
-      <c r="B646" s="29"/>
+      <c r="B646" s="31"/>
     </row>
     <row r="647">
-      <c r="B647" s="29"/>
+      <c r="B647" s="31"/>
     </row>
     <row r="648">
-      <c r="B648" s="29"/>
+      <c r="B648" s="31"/>
     </row>
     <row r="649">
-      <c r="B649" s="29"/>
+      <c r="B649" s="31"/>
     </row>
     <row r="650">
-      <c r="B650" s="29"/>
+      <c r="B650" s="31"/>
     </row>
     <row r="651">
-      <c r="B651" s="29"/>
+      <c r="B651" s="31"/>
     </row>
     <row r="652">
-      <c r="B652" s="29"/>
+      <c r="B652" s="31"/>
     </row>
     <row r="653">
-      <c r="B653" s="29"/>
+      <c r="B653" s="31"/>
     </row>
     <row r="654">
-      <c r="B654" s="29"/>
+      <c r="B654" s="31"/>
     </row>
     <row r="655">
-      <c r="B655" s="29"/>
+      <c r="B655" s="31"/>
     </row>
     <row r="656">
-      <c r="B656" s="29"/>
+      <c r="B656" s="31"/>
     </row>
     <row r="657">
-      <c r="B657" s="29"/>
+      <c r="B657" s="31"/>
     </row>
     <row r="658">
-      <c r="B658" s="29"/>
+      <c r="B658" s="31"/>
     </row>
     <row r="659">
-      <c r="B659" s="29"/>
+      <c r="B659" s="31"/>
     </row>
     <row r="660">
-      <c r="B660" s="29"/>
+      <c r="B660" s="31"/>
     </row>
     <row r="661">
-      <c r="B661" s="29"/>
+      <c r="B661" s="31"/>
     </row>
     <row r="662">
-      <c r="B662" s="29"/>
+      <c r="B662" s="31"/>
     </row>
     <row r="663">
-      <c r="B663" s="29"/>
+      <c r="B663" s="31"/>
     </row>
     <row r="664">
-      <c r="B664" s="29"/>
+      <c r="B664" s="31"/>
     </row>
     <row r="665">
-      <c r="B665" s="29"/>
+      <c r="B665" s="31"/>
     </row>
     <row r="666">
-      <c r="B666" s="29"/>
+      <c r="B666" s="31"/>
     </row>
     <row r="667">
-      <c r="B667" s="29"/>
+      <c r="B667" s="31"/>
     </row>
     <row r="668">
-      <c r="B668" s="29"/>
+      <c r="B668" s="31"/>
     </row>
     <row r="669">
-      <c r="B669" s="29"/>
+      <c r="B669" s="31"/>
     </row>
     <row r="670">
-      <c r="B670" s="29"/>
+      <c r="B670" s="31"/>
     </row>
     <row r="671">
-      <c r="B671" s="29"/>
+      <c r="B671" s="31"/>
     </row>
     <row r="672">
-      <c r="B672" s="29"/>
+      <c r="B672" s="31"/>
     </row>
     <row r="673">
-      <c r="B673" s="29"/>
+      <c r="B673" s="31"/>
     </row>
     <row r="674">
-      <c r="B674" s="29"/>
+      <c r="B674" s="31"/>
     </row>
     <row r="675">
-      <c r="B675" s="29"/>
+      <c r="B675" s="31"/>
     </row>
     <row r="676">
-      <c r="B676" s="29"/>
+      <c r="B676" s="31"/>
     </row>
     <row r="677">
-      <c r="B677" s="29"/>
+      <c r="B677" s="31"/>
     </row>
     <row r="678">
-      <c r="B678" s="29"/>
+      <c r="B678" s="31"/>
     </row>
     <row r="679">
-      <c r="B679" s="29"/>
+      <c r="B679" s="31"/>
     </row>
     <row r="680">
-      <c r="B680" s="29"/>
+      <c r="B680" s="31"/>
     </row>
     <row r="681">
-      <c r="B681" s="29"/>
+      <c r="B681" s="31"/>
     </row>
     <row r="682">
-      <c r="B682" s="29"/>
+      <c r="B682" s="31"/>
     </row>
     <row r="683">
-      <c r="B683" s="29"/>
+      <c r="B683" s="31"/>
     </row>
     <row r="684">
-      <c r="B684" s="29"/>
+      <c r="B684" s="31"/>
     </row>
     <row r="685">
-      <c r="B685" s="29"/>
+      <c r="B685" s="31"/>
     </row>
     <row r="686">
-      <c r="B686" s="29"/>
+      <c r="B686" s="31"/>
     </row>
     <row r="687">
-      <c r="B687" s="29"/>
+      <c r="B687" s="31"/>
     </row>
     <row r="688">
-      <c r="B688" s="29"/>
+      <c r="B688" s="31"/>
     </row>
     <row r="689">
-      <c r="B689" s="29"/>
+      <c r="B689" s="31"/>
     </row>
     <row r="690">
-      <c r="B690" s="29"/>
+      <c r="B690" s="31"/>
     </row>
     <row r="691">
-      <c r="B691" s="29"/>
+      <c r="B691" s="31"/>
     </row>
     <row r="692">
-      <c r="B692" s="29"/>
+      <c r="B692" s="31"/>
     </row>
     <row r="693">
-      <c r="B693" s="29"/>
+      <c r="B693" s="31"/>
     </row>
     <row r="694">
-      <c r="B694" s="29"/>
+      <c r="B694" s="31"/>
     </row>
     <row r="695">
-      <c r="B695" s="29"/>
+      <c r="B695" s="31"/>
     </row>
     <row r="696">
-      <c r="B696" s="29"/>
+      <c r="B696" s="31"/>
     </row>
     <row r="697">
-      <c r="B697" s="29"/>
+      <c r="B697" s="31"/>
     </row>
     <row r="698">
-      <c r="B698" s="29"/>
+      <c r="B698" s="31"/>
     </row>
     <row r="699">
-      <c r="B699" s="29"/>
+      <c r="B699" s="31"/>
     </row>
     <row r="700">
-      <c r="B700" s="29"/>
+      <c r="B700" s="31"/>
     </row>
     <row r="701">
-      <c r="B701" s="29"/>
+      <c r="B701" s="31"/>
     </row>
     <row r="702">
-      <c r="B702" s="29"/>
+      <c r="B702" s="31"/>
     </row>
     <row r="703">
-      <c r="B703" s="29"/>
+      <c r="B703" s="31"/>
     </row>
     <row r="704">
-      <c r="B704" s="29"/>
+      <c r="B704" s="31"/>
     </row>
     <row r="705">
-      <c r="B705" s="29"/>
+      <c r="B705" s="31"/>
     </row>
     <row r="706">
-      <c r="B706" s="29"/>
+      <c r="B706" s="31"/>
     </row>
     <row r="707">
-      <c r="B707" s="29"/>
+      <c r="B707" s="31"/>
     </row>
     <row r="708">
-      <c r="B708" s="29"/>
+      <c r="B708" s="31"/>
     </row>
     <row r="709">
-      <c r="B709" s="29"/>
+      <c r="B709" s="31"/>
     </row>
     <row r="710">
-      <c r="B710" s="29"/>
+      <c r="B710" s="31"/>
     </row>
     <row r="711">
-      <c r="B711" s="29"/>
+      <c r="B711" s="31"/>
     </row>
     <row r="712">
-      <c r="B712" s="29"/>
+      <c r="B712" s="31"/>
     </row>
     <row r="713">
-      <c r="B713" s="29"/>
+      <c r="B713" s="31"/>
     </row>
     <row r="714">
-      <c r="B714" s="29"/>
+      <c r="B714" s="31"/>
     </row>
     <row r="715">
-      <c r="B715" s="29"/>
+      <c r="B715" s="31"/>
     </row>
     <row r="716">
-      <c r="B716" s="29"/>
+      <c r="B716" s="31"/>
     </row>
     <row r="717">
-      <c r="B717" s="29"/>
+      <c r="B717" s="31"/>
     </row>
     <row r="718">
-      <c r="B718" s="29"/>
+      <c r="B718" s="31"/>
     </row>
     <row r="719">
-      <c r="B719" s="29"/>
+      <c r="B719" s="31"/>
     </row>
     <row r="720">
-      <c r="B720" s="29"/>
+      <c r="B720" s="31"/>
     </row>
     <row r="721">
-      <c r="B721" s="29"/>
+      <c r="B721" s="31"/>
     </row>
     <row r="722">
-      <c r="B722" s="29"/>
+      <c r="B722" s="31"/>
     </row>
     <row r="723">
-      <c r="B723" s="29"/>
+      <c r="B723" s="31"/>
     </row>
     <row r="724">
-      <c r="B724" s="29"/>
+      <c r="B724" s="31"/>
     </row>
     <row r="725">
-      <c r="B725" s="29"/>
+      <c r="B725" s="31"/>
     </row>
     <row r="726">
-      <c r="B726" s="29"/>
+      <c r="B726" s="31"/>
     </row>
     <row r="727">
-      <c r="B727" s="29"/>
+      <c r="B727" s="31"/>
     </row>
     <row r="728">
-      <c r="B728" s="29"/>
+      <c r="B728" s="31"/>
     </row>
     <row r="729">
-      <c r="B729" s="29"/>
+      <c r="B729" s="31"/>
     </row>
     <row r="730">
-      <c r="B730" s="29"/>
+      <c r="B730" s="31"/>
     </row>
     <row r="731">
-      <c r="B731" s="29"/>
+      <c r="B731" s="31"/>
     </row>
     <row r="732">
-      <c r="B732" s="29"/>
+      <c r="B732" s="31"/>
     </row>
     <row r="733">
-      <c r="B733" s="29"/>
+      <c r="B733" s="31"/>
     </row>
     <row r="734">
-      <c r="B734" s="29"/>
+      <c r="B734" s="31"/>
     </row>
     <row r="735">
-      <c r="B735" s="29"/>
+      <c r="B735" s="31"/>
     </row>
     <row r="736">
-      <c r="B736" s="29"/>
+      <c r="B736" s="31"/>
     </row>
     <row r="737">
-      <c r="B737" s="29"/>
+      <c r="B737" s="31"/>
     </row>
     <row r="738">
-      <c r="B738" s="29"/>
+      <c r="B738" s="31"/>
     </row>
     <row r="739">
-      <c r="B739" s="29"/>
+      <c r="B739" s="31"/>
     </row>
     <row r="740">
-      <c r="B740" s="29"/>
+      <c r="B740" s="31"/>
     </row>
     <row r="741">
-      <c r="B741" s="29"/>
+      <c r="B741" s="31"/>
     </row>
     <row r="742">
-      <c r="B742" s="29"/>
+      <c r="B742" s="31"/>
     </row>
     <row r="743">
-      <c r="B743" s="29"/>
+      <c r="B743" s="31"/>
     </row>
     <row r="744">
-      <c r="B744" s="29"/>
+      <c r="B744" s="31"/>
     </row>
     <row r="745">
-      <c r="B745" s="29"/>
+      <c r="B745" s="31"/>
     </row>
     <row r="746">
-      <c r="B746" s="29"/>
+      <c r="B746" s="31"/>
     </row>
     <row r="747">
-      <c r="B747" s="29"/>
+      <c r="B747" s="31"/>
     </row>
     <row r="748">
-      <c r="B748" s="29"/>
+      <c r="B748" s="31"/>
     </row>
     <row r="749">
-      <c r="B749" s="29"/>
+      <c r="B749" s="31"/>
     </row>
     <row r="750">
-      <c r="B750" s="29"/>
+      <c r="B750" s="31"/>
     </row>
     <row r="751">
-      <c r="B751" s="29"/>
+      <c r="B751" s="31"/>
     </row>
     <row r="752">
-      <c r="B752" s="29"/>
+      <c r="B752" s="31"/>
     </row>
     <row r="753">
-      <c r="B753" s="29"/>
+      <c r="B753" s="31"/>
     </row>
     <row r="754">
-      <c r="B754" s="29"/>
+      <c r="B754" s="31"/>
     </row>
     <row r="755">
-      <c r="B755" s="29"/>
+      <c r="B755" s="31"/>
     </row>
     <row r="756">
-      <c r="B756" s="29"/>
+      <c r="B756" s="31"/>
     </row>
     <row r="757">
-      <c r="B757" s="29"/>
+      <c r="B757" s="31"/>
     </row>
     <row r="758">
-      <c r="B758" s="29"/>
+      <c r="B758" s="31"/>
     </row>
     <row r="759">
-      <c r="B759" s="29"/>
+      <c r="B759" s="31"/>
     </row>
     <row r="760">
-      <c r="B760" s="29"/>
+      <c r="B760" s="31"/>
     </row>
     <row r="761">
-      <c r="B761" s="29"/>
+      <c r="B761" s="31"/>
     </row>
     <row r="762">
-      <c r="B762" s="29"/>
+      <c r="B762" s="31"/>
     </row>
     <row r="763">
-      <c r="B763" s="29"/>
+      <c r="B763" s="31"/>
     </row>
     <row r="764">
-      <c r="B764" s="29"/>
+      <c r="B764" s="31"/>
     </row>
     <row r="765">
-      <c r="B765" s="29"/>
+      <c r="B765" s="31"/>
     </row>
     <row r="766">
-      <c r="B766" s="29"/>
+      <c r="B766" s="31"/>
     </row>
     <row r="767">
-      <c r="B767" s="29"/>
+      <c r="B767" s="31"/>
     </row>
     <row r="768">
-      <c r="B768" s="29"/>
+      <c r="B768" s="31"/>
     </row>
     <row r="769">
-      <c r="B769" s="29"/>
+      <c r="B769" s="31"/>
     </row>
     <row r="770">
-      <c r="B770" s="29"/>
+      <c r="B770" s="31"/>
     </row>
     <row r="771">
-      <c r="B771" s="29"/>
+      <c r="B771" s="31"/>
     </row>
     <row r="772">
-      <c r="B772" s="29"/>
+      <c r="B772" s="31"/>
     </row>
     <row r="773">
-      <c r="B773" s="29"/>
+      <c r="B773" s="31"/>
     </row>
     <row r="774">
-      <c r="B774" s="29"/>
+      <c r="B774" s="31"/>
     </row>
     <row r="775">
-      <c r="B775" s="29"/>
+      <c r="B775" s="31"/>
     </row>
     <row r="776">
-      <c r="B776" s="29"/>
+      <c r="B776" s="31"/>
     </row>
     <row r="777">
-      <c r="B777" s="29"/>
+      <c r="B777" s="31"/>
     </row>
     <row r="778">
-      <c r="B778" s="29"/>
+      <c r="B778" s="31"/>
     </row>
     <row r="779">
-      <c r="B779" s="29"/>
+      <c r="B779" s="31"/>
     </row>
     <row r="780">
-      <c r="B780" s="29"/>
+      <c r="B780" s="31"/>
     </row>
     <row r="781">
-      <c r="B781" s="29"/>
+      <c r="B781" s="31"/>
     </row>
     <row r="782">
-      <c r="B782" s="29"/>
+      <c r="B782" s="31"/>
     </row>
     <row r="783">
-      <c r="B783" s="29"/>
+      <c r="B783" s="31"/>
     </row>
     <row r="784">
-      <c r="B784" s="29"/>
+      <c r="B784" s="31"/>
     </row>
     <row r="785">
-      <c r="B785" s="29"/>
+      <c r="B785" s="31"/>
     </row>
     <row r="786">
-      <c r="B786" s="29"/>
+      <c r="B786" s="31"/>
     </row>
     <row r="787">
-      <c r="B787" s="29"/>
+      <c r="B787" s="31"/>
     </row>
     <row r="788">
-      <c r="B788" s="29"/>
+      <c r="B788" s="31"/>
     </row>
     <row r="789">
-      <c r="B789" s="29"/>
+      <c r="B789" s="31"/>
     </row>
     <row r="790">
-      <c r="B790" s="29"/>
+      <c r="B790" s="31"/>
     </row>
     <row r="791">
-      <c r="B791" s="29"/>
+      <c r="B791" s="31"/>
     </row>
     <row r="792">
-      <c r="B792" s="29"/>
+      <c r="B792" s="31"/>
     </row>
     <row r="793">
-      <c r="B793" s="29"/>
+      <c r="B793" s="31"/>
     </row>
     <row r="794">
-      <c r="B794" s="29"/>
+      <c r="B794" s="31"/>
     </row>
     <row r="795">
-      <c r="B795" s="29"/>
+      <c r="B795" s="31"/>
     </row>
     <row r="796">
-      <c r="B796" s="29"/>
+      <c r="B796" s="31"/>
     </row>
     <row r="797">
-      <c r="B797" s="29"/>
+      <c r="B797" s="31"/>
     </row>
     <row r="798">
-      <c r="B798" s="29"/>
+      <c r="B798" s="31"/>
     </row>
     <row r="799">
-      <c r="B799" s="29"/>
+      <c r="B799" s="31"/>
     </row>
     <row r="800">
-      <c r="B800" s="29"/>
+      <c r="B800" s="31"/>
     </row>
     <row r="801">
-      <c r="B801" s="29"/>
+      <c r="B801" s="31"/>
     </row>
     <row r="802">
-      <c r="B802" s="29"/>
+      <c r="B802" s="31"/>
     </row>
     <row r="803">
-      <c r="B803" s="29"/>
+      <c r="B803" s="31"/>
     </row>
     <row r="804">
-      <c r="B804" s="29"/>
+      <c r="B804" s="31"/>
     </row>
     <row r="805">
-      <c r="B805" s="29"/>
+      <c r="B805" s="31"/>
     </row>
     <row r="806">
-      <c r="B806" s="29"/>
+      <c r="B806" s="31"/>
     </row>
     <row r="807">
-      <c r="B807" s="29"/>
+      <c r="B807" s="31"/>
     </row>
     <row r="808">
-      <c r="B808" s="29"/>
+      <c r="B808" s="31"/>
     </row>
     <row r="809">
-      <c r="B809" s="29"/>
+      <c r="B809" s="31"/>
     </row>
     <row r="810">
-      <c r="B810" s="29"/>
+      <c r="B810" s="31"/>
     </row>
     <row r="811">
-      <c r="B811" s="29"/>
+      <c r="B811" s="31"/>
     </row>
     <row r="812">
-      <c r="B812" s="29"/>
+      <c r="B812" s="31"/>
     </row>
     <row r="813">
-      <c r="B813" s="29"/>
+      <c r="B813" s="31"/>
     </row>
     <row r="814">
-      <c r="B814" s="29"/>
+      <c r="B814" s="31"/>
     </row>
     <row r="815">
-      <c r="B815" s="29"/>
+      <c r="B815" s="31"/>
     </row>
     <row r="816">
-      <c r="B816" s="29"/>
+      <c r="B816" s="31"/>
     </row>
     <row r="817">
-      <c r="B817" s="29"/>
+      <c r="B817" s="31"/>
     </row>
     <row r="818">
-      <c r="B818" s="29"/>
+      <c r="B818" s="31"/>
     </row>
     <row r="819">
-      <c r="B819" s="29"/>
+      <c r="B819" s="31"/>
     </row>
     <row r="820">
-      <c r="B820" s="29"/>
+      <c r="B820" s="31"/>
     </row>
     <row r="821">
-      <c r="B821" s="29"/>
+      <c r="B821" s="31"/>
     </row>
     <row r="822">
-      <c r="B822" s="29"/>
+      <c r="B822" s="31"/>
     </row>
     <row r="823">
-      <c r="B823" s="29"/>
+      <c r="B823" s="31"/>
     </row>
     <row r="824">
-      <c r="B824" s="29"/>
+      <c r="B824" s="31"/>
     </row>
     <row r="825">
-      <c r="B825" s="29"/>
+      <c r="B825" s="31"/>
     </row>
     <row r="826">
-      <c r="B826" s="29"/>
+      <c r="B826" s="31"/>
     </row>
     <row r="827">
-      <c r="B827" s="29"/>
+      <c r="B827" s="31"/>
     </row>
     <row r="828">
-      <c r="B828" s="29"/>
+      <c r="B828" s="31"/>
     </row>
     <row r="829">
-      <c r="B829" s="29"/>
+      <c r="B829" s="31"/>
     </row>
     <row r="830">
-      <c r="B830" s="29"/>
+      <c r="B830" s="31"/>
     </row>
     <row r="831">
-      <c r="B831" s="29"/>
+      <c r="B831" s="31"/>
     </row>
     <row r="832">
-      <c r="B832" s="29"/>
+      <c r="B832" s="31"/>
     </row>
     <row r="833">
-      <c r="B833" s="29"/>
+      <c r="B833" s="31"/>
     </row>
     <row r="834">
-      <c r="B834" s="29"/>
+      <c r="B834" s="31"/>
     </row>
     <row r="835">
-      <c r="B835" s="29"/>
+      <c r="B835" s="31"/>
     </row>
     <row r="836">
-      <c r="B836" s="29"/>
+      <c r="B836" s="31"/>
     </row>
     <row r="837">
-      <c r="B837" s="29"/>
+      <c r="B837" s="31"/>
     </row>
     <row r="838">
-      <c r="B838" s="29"/>
+      <c r="B838" s="31"/>
     </row>
     <row r="839">
-      <c r="B839" s="29"/>
+      <c r="B839" s="31"/>
     </row>
     <row r="840">
-      <c r="B840" s="29"/>
+      <c r="B840" s="31"/>
     </row>
     <row r="841">
-      <c r="B841" s="29"/>
+      <c r="B841" s="31"/>
     </row>
     <row r="842">
-      <c r="B842" s="29"/>
+      <c r="B842" s="31"/>
     </row>
     <row r="843">
-      <c r="B843" s="29"/>
+      <c r="B843" s="31"/>
     </row>
     <row r="844">
-      <c r="B844" s="29"/>
+      <c r="B844" s="31"/>
     </row>
     <row r="845">
-      <c r="B845" s="29"/>
+      <c r="B845" s="31"/>
     </row>
     <row r="846">
-      <c r="B846" s="29"/>
+      <c r="B846" s="31"/>
     </row>
     <row r="847">
-      <c r="B847" s="29"/>
+      <c r="B847" s="31"/>
     </row>
     <row r="848">
-      <c r="B848" s="29"/>
+      <c r="B848" s="31"/>
     </row>
     <row r="849">
-      <c r="B849" s="29"/>
+      <c r="B849" s="31"/>
     </row>
     <row r="850">
-      <c r="B850" s="29"/>
+      <c r="B850" s="31"/>
     </row>
     <row r="851">
-      <c r="B851" s="29"/>
+      <c r="B851" s="31"/>
     </row>
     <row r="852">
-      <c r="B852" s="29"/>
+      <c r="B852" s="31"/>
     </row>
     <row r="853">
-      <c r="B853" s="29"/>
+      <c r="B853" s="31"/>
     </row>
     <row r="854">
-      <c r="B854" s="29"/>
+      <c r="B854" s="31"/>
     </row>
     <row r="855">
-      <c r="B855" s="29"/>
+      <c r="B855" s="31"/>
     </row>
     <row r="856">
-      <c r="B856" s="29"/>
+      <c r="B856" s="31"/>
     </row>
     <row r="857">
-      <c r="B857" s="29"/>
+      <c r="B857" s="31"/>
     </row>
     <row r="858">
-      <c r="B858" s="29"/>
+      <c r="B858" s="31"/>
     </row>
     <row r="859">
-      <c r="B859" s="29"/>
+      <c r="B859" s="31"/>
     </row>
     <row r="860">
-      <c r="B860" s="29"/>
+      <c r="B860" s="31"/>
     </row>
     <row r="861">
-      <c r="B861" s="29"/>
+      <c r="B861" s="31"/>
     </row>
     <row r="862">
-      <c r="B862" s="29"/>
+      <c r="B862" s="31"/>
     </row>
     <row r="863">
-      <c r="B863" s="29"/>
+      <c r="B863" s="31"/>
     </row>
     <row r="864">
-      <c r="B864" s="29"/>
+      <c r="B864" s="31"/>
     </row>
     <row r="865">
-      <c r="B865" s="29"/>
+      <c r="B865" s="31"/>
     </row>
     <row r="866">
-      <c r="B866" s="29"/>
+      <c r="B866" s="31"/>
     </row>
     <row r="867">
-      <c r="B867" s="29"/>
+      <c r="B867" s="31"/>
     </row>
     <row r="868">
-      <c r="B868" s="29"/>
+      <c r="B868" s="31"/>
     </row>
     <row r="869">
-      <c r="B869" s="29"/>
+      <c r="B869" s="31"/>
     </row>
     <row r="870">
-      <c r="B870" s="29"/>
+      <c r="B870" s="31"/>
     </row>
     <row r="871">
-      <c r="B871" s="29"/>
+      <c r="B871" s="31"/>
     </row>
     <row r="872">
-      <c r="B872" s="29"/>
+      <c r="B872" s="31"/>
     </row>
     <row r="873">
-      <c r="B873" s="29"/>
+      <c r="B873" s="31"/>
     </row>
     <row r="874">
-      <c r="B874" s="29"/>
+      <c r="B874" s="31"/>
     </row>
     <row r="875">
-      <c r="B875" s="29"/>
+      <c r="B875" s="31"/>
     </row>
     <row r="876">
-      <c r="B876" s="29"/>
+      <c r="B876" s="31"/>
     </row>
     <row r="877">
-      <c r="B877" s="29"/>
+      <c r="B877" s="31"/>
     </row>
     <row r="878">
-      <c r="B878" s="29"/>
+      <c r="B878" s="31"/>
     </row>
     <row r="879">
-      <c r="B879" s="29"/>
+      <c r="B879" s="31"/>
     </row>
     <row r="880">
-      <c r="B880" s="29"/>
+      <c r="B880" s="31"/>
     </row>
     <row r="881">
-      <c r="B881" s="29"/>
+      <c r="B881" s="31"/>
     </row>
     <row r="882">
-      <c r="B882" s="29"/>
+      <c r="B882" s="31"/>
     </row>
     <row r="883">
-      <c r="B883" s="29"/>
+      <c r="B883" s="31"/>
     </row>
     <row r="884">
-      <c r="B884" s="29"/>
+      <c r="B884" s="31"/>
     </row>
     <row r="885">
-      <c r="B885" s="29"/>
+      <c r="B885" s="31"/>
     </row>
     <row r="886">
-      <c r="B886" s="29"/>
+      <c r="B886" s="31"/>
     </row>
     <row r="887">
-      <c r="B887" s="29"/>
+      <c r="B887" s="31"/>
     </row>
     <row r="888">
-      <c r="B888" s="29"/>
+      <c r="B888" s="31"/>
     </row>
     <row r="889">
-      <c r="B889" s="29"/>
+      <c r="B889" s="31"/>
     </row>
     <row r="890">
-      <c r="B890" s="29"/>
+      <c r="B890" s="31"/>
     </row>
     <row r="891">
-      <c r="B891" s="29"/>
+      <c r="B891" s="31"/>
     </row>
     <row r="892">
-      <c r="B892" s="29"/>
+      <c r="B892" s="31"/>
     </row>
     <row r="893">
-      <c r="B893" s="29"/>
+      <c r="B893" s="31"/>
     </row>
     <row r="894">
-      <c r="B894" s="29"/>
+      <c r="B894" s="31"/>
     </row>
     <row r="895">
-      <c r="B895" s="29"/>
+      <c r="B895" s="31"/>
     </row>
     <row r="896">
-      <c r="B896" s="29"/>
+      <c r="B896" s="31"/>
     </row>
     <row r="897">
-      <c r="B897" s="29"/>
+      <c r="B897" s="31"/>
     </row>
     <row r="898">
-      <c r="B898" s="29"/>
+      <c r="B898" s="31"/>
     </row>
     <row r="899">
-      <c r="B899" s="29"/>
+      <c r="B899" s="31"/>
     </row>
     <row r="900">
-      <c r="B900" s="29"/>
+      <c r="B900" s="31"/>
     </row>
     <row r="901">
-      <c r="B901" s="29"/>
+      <c r="B901" s="31"/>
     </row>
     <row r="902">
-      <c r="B902" s="29"/>
+      <c r="B902" s="31"/>
     </row>
     <row r="903">
-      <c r="B903" s="29"/>
+      <c r="B903" s="31"/>
     </row>
     <row r="904">
-      <c r="B904" s="29"/>
+      <c r="B904" s="31"/>
     </row>
     <row r="905">
-      <c r="B905" s="29"/>
+      <c r="B905" s="31"/>
     </row>
     <row r="906">
-      <c r="B906" s="29"/>
+      <c r="B906" s="31"/>
     </row>
     <row r="907">
-      <c r="B907" s="29"/>
+      <c r="B907" s="31"/>
     </row>
     <row r="908">
-      <c r="B908" s="29"/>
+      <c r="B908" s="31"/>
     </row>
     <row r="909">
-      <c r="B909" s="29"/>
+      <c r="B909" s="31"/>
     </row>
     <row r="910">
-      <c r="B910" s="29"/>
+      <c r="B910" s="31"/>
     </row>
     <row r="911">
-      <c r="B911" s="29"/>
+      <c r="B911" s="31"/>
     </row>
     <row r="912">
-      <c r="B912" s="29"/>
+      <c r="B912" s="31"/>
     </row>
     <row r="913">
-      <c r="B913" s="29"/>
+      <c r="B913" s="31"/>
     </row>
     <row r="914">
-      <c r="B914" s="29"/>
+      <c r="B914" s="31"/>
     </row>
     <row r="915">
-      <c r="B915" s="29"/>
+      <c r="B915" s="31"/>
     </row>
     <row r="916">
-      <c r="B916" s="29"/>
+      <c r="B916" s="31"/>
     </row>
     <row r="917">
-      <c r="B917" s="29"/>
+      <c r="B917" s="31"/>
     </row>
     <row r="918">
-      <c r="B918" s="29"/>
+      <c r="B918" s="31"/>
     </row>
     <row r="919">
-      <c r="B919" s="29"/>
+      <c r="B919" s="31"/>
     </row>
     <row r="920">
-      <c r="B920" s="29"/>
+      <c r="B920" s="31"/>
     </row>
     <row r="921">
-      <c r="B921" s="29"/>
+      <c r="B921" s="31"/>
     </row>
     <row r="922">
-      <c r="B922" s="29"/>
+      <c r="B922" s="31"/>
     </row>
     <row r="923">
-      <c r="B923" s="29"/>
+      <c r="B923" s="31"/>
     </row>
     <row r="924">
-      <c r="B924" s="29"/>
+      <c r="B924" s="31"/>
     </row>
     <row r="925">
-      <c r="B925" s="29"/>
+      <c r="B925" s="31"/>
     </row>
     <row r="926">
-      <c r="B926" s="29"/>
+      <c r="B926" s="31"/>
     </row>
     <row r="927">
-      <c r="B927" s="29"/>
+      <c r="B927" s="31"/>
     </row>
     <row r="928">
-      <c r="B928" s="29"/>
+      <c r="B928" s="31"/>
     </row>
     <row r="929">
-      <c r="B929" s="29"/>
+      <c r="B929" s="31"/>
     </row>
     <row r="930">
-      <c r="B930" s="29"/>
+      <c r="B930" s="31"/>
     </row>
     <row r="931">
-      <c r="B931" s="29"/>
+      <c r="B931" s="31"/>
     </row>
     <row r="932">
-      <c r="B932" s="29"/>
+      <c r="B932" s="31"/>
     </row>
     <row r="933">
-      <c r="B933" s="29"/>
+      <c r="B933" s="31"/>
     </row>
     <row r="934">
-      <c r="B934" s="29"/>
+      <c r="B934" s="31"/>
     </row>
     <row r="935">
-      <c r="B935" s="29"/>
+      <c r="B935" s="31"/>
     </row>
     <row r="936">
-      <c r="B936" s="29"/>
+      <c r="B936" s="31"/>
     </row>
     <row r="937">
-      <c r="B937" s="29"/>
+      <c r="B937" s="31"/>
     </row>
     <row r="938">
-      <c r="B938" s="29"/>
+      <c r="B938" s="31"/>
     </row>
     <row r="939">
-      <c r="B939" s="29"/>
+      <c r="B939" s="31"/>
     </row>
     <row r="940">
-      <c r="B940" s="29"/>
+      <c r="B940" s="31"/>
     </row>
     <row r="941">
-      <c r="B941" s="29"/>
+      <c r="B941" s="31"/>
     </row>
     <row r="942">
-      <c r="B942" s="29"/>
+      <c r="B942" s="31"/>
     </row>
     <row r="943">
-      <c r="B943" s="29"/>
+      <c r="B943" s="31"/>
     </row>
     <row r="944">
-      <c r="B944" s="29"/>
+      <c r="B944" s="31"/>
     </row>
     <row r="945">
-      <c r="B945" s="29"/>
+      <c r="B945" s="31"/>
     </row>
     <row r="946">
-      <c r="B946" s="29"/>
+      <c r="B946" s="31"/>
     </row>
     <row r="947">
-      <c r="B947" s="29"/>
+      <c r="B947" s="31"/>
     </row>
     <row r="948">
-      <c r="B948" s="29"/>
+      <c r="B948" s="31"/>
     </row>
     <row r="949">
-      <c r="B949" s="29"/>
+      <c r="B949" s="31"/>
     </row>
     <row r="950">
-      <c r="B950" s="29"/>
+      <c r="B950" s="31"/>
     </row>
     <row r="951">
-      <c r="B951" s="29"/>
+      <c r="B951" s="31"/>
     </row>
     <row r="952">
-      <c r="B952" s="29"/>
+      <c r="B952" s="31"/>
     </row>
     <row r="953">
-      <c r="B953" s="29"/>
+      <c r="B953" s="31"/>
     </row>
     <row r="954">
-      <c r="B954" s="29"/>
+      <c r="B954" s="31"/>
     </row>
     <row r="955">
-      <c r="B955" s="29"/>
+      <c r="B955" s="31"/>
     </row>
     <row r="956">
-      <c r="B956" s="29"/>
+      <c r="B956" s="31"/>
     </row>
     <row r="957">
-      <c r="B957" s="29"/>
+      <c r="B957" s="31"/>
     </row>
     <row r="958">
-      <c r="B958" s="29"/>
+      <c r="B958" s="31"/>
     </row>
     <row r="959">
-      <c r="B959" s="29"/>
+      <c r="B959" s="31"/>
     </row>
     <row r="960">
-      <c r="B960" s="29"/>
+      <c r="B960" s="31"/>
     </row>
     <row r="961">
-      <c r="B961" s="29"/>
+      <c r="B961" s="31"/>
     </row>
     <row r="962">
-      <c r="B962" s="29"/>
+      <c r="B962" s="31"/>
     </row>
     <row r="963">
-      <c r="B963" s="29"/>
+      <c r="B963" s="31"/>
     </row>
     <row r="964">
-      <c r="B964" s="29"/>
+      <c r="B964" s="31"/>
     </row>
     <row r="965">
-      <c r="B965" s="29"/>
+      <c r="B965" s="31"/>
     </row>
     <row r="966">
-      <c r="B966" s="29"/>
+      <c r="B966" s="31"/>
     </row>
     <row r="967">
-      <c r="B967" s="29"/>
+      <c r="B967" s="31"/>
     </row>
     <row r="968">
-      <c r="B968" s="29"/>
+      <c r="B968" s="31"/>
     </row>
     <row r="969">
-      <c r="B969" s="29"/>
+      <c r="B969" s="31"/>
     </row>
     <row r="970">
-      <c r="B970" s="29"/>
+      <c r="B970" s="31"/>
     </row>
     <row r="971">
-      <c r="B971" s="29"/>
+      <c r="B971" s="31"/>
     </row>
     <row r="972">
-      <c r="B972" s="29"/>
+      <c r="B972" s="31"/>
     </row>
     <row r="973">
-      <c r="B973" s="29"/>
+      <c r="B973" s="31"/>
     </row>
     <row r="974">
-      <c r="B974" s="29"/>
+      <c r="B974" s="31"/>
     </row>
     <row r="975">
-      <c r="B975" s="29"/>
+      <c r="B975" s="31"/>
     </row>
     <row r="976">
-      <c r="B976" s="29"/>
+      <c r="B976" s="31"/>
     </row>
     <row r="977">
-      <c r="B977" s="29"/>
+      <c r="B977" s="31"/>
     </row>
     <row r="978">
-      <c r="B978" s="29"/>
+      <c r="B978" s="31"/>
     </row>
     <row r="979">
-      <c r="B979" s="29"/>
+      <c r="B979" s="31"/>
     </row>
     <row r="980">
-      <c r="B980" s="29"/>
+      <c r="B980" s="31"/>
     </row>
     <row r="981">
-      <c r="B981" s="29"/>
+      <c r="B981" s="31"/>
     </row>
     <row r="982">
-      <c r="B982" s="29"/>
+      <c r="B982" s="31"/>
     </row>
     <row r="983">
-      <c r="B983" s="29"/>
+      <c r="B983" s="31"/>
     </row>
     <row r="984">
-      <c r="B984" s="29"/>
+      <c r="B984" s="31"/>
     </row>
     <row r="985">
-      <c r="B985" s="29"/>
+      <c r="B985" s="31"/>
     </row>
     <row r="986">
-      <c r="B986" s="29"/>
+      <c r="B986" s="31"/>
     </row>
     <row r="987">
-      <c r="B987" s="29"/>
+      <c r="B987" s="31"/>
     </row>
     <row r="988">
-      <c r="B988" s="29"/>
+      <c r="B988" s="31"/>
     </row>
     <row r="989">
-      <c r="B989" s="29"/>
+      <c r="B989" s="31"/>
     </row>
     <row r="990">
-      <c r="B990" s="29"/>
+      <c r="B990" s="31"/>
     </row>
     <row r="991">
-      <c r="B991" s="29"/>
+      <c r="B991" s="31"/>
     </row>
     <row r="992">
-      <c r="B992" s="29"/>
+      <c r="B992" s="31"/>
     </row>
     <row r="993">
-      <c r="B993" s="29"/>
+      <c r="B993" s="31"/>
     </row>
     <row r="994">
-      <c r="B994" s="29"/>
+      <c r="B994" s="31"/>
     </row>
     <row r="995">
-      <c r="B995" s="29"/>
+      <c r="B995" s="31"/>
     </row>
     <row r="996">
-      <c r="B996" s="29"/>
+      <c r="B996" s="31"/>
     </row>
     <row r="997">
-      <c r="B997" s="29"/>
+      <c r="B997" s="31"/>
     </row>
     <row r="998">
-      <c r="B998" s="29"/>
+      <c r="B998" s="31"/>
     </row>
     <row r="999">
-      <c r="B999" s="29"/>
+      <c r="B999" s="31"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="29"/>
+      <c r="B1000" s="31"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="380">
   <si>
     <t>Text_ID</t>
   </si>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Abstimmung über die SVP-"Masseneinwanderungs-Initiative" im Februar 2014 in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t xml:space="preserve">Des changements dans la structure de #Gemeinde_f empêchent une comparaison avec le vote sur l'initiative "contre l'immigration de masse" de l'UDC il y a six ans et demi. </t>
+    <t>Impossible de comparer les résultats de ce dimanche à #Gemeinde_f avec ceux de l'initiative "contre l'immigration de masse" il y a six ans et demi. La commune a sans doute fusionné depuis.</t>
   </si>
   <si>
     <t>Vergleich nicht möglich</t>
@@ -585,7 +585,7 @@
     <t xml:space="preserve">Wegen der Veränderung der Gemeindestruktur ist ein Vergleich mit der Gripen-Abstimmung im Mai 2014 in #Gemeinde_d nicht möglich. </t>
   </si>
   <si>
-    <t>Des changements dans la structure de #Gemeinde_f empêchent une comparaison avec le vote de 2014 sur l'avion de combat Gripen.</t>
+    <t>Impossible de comparer les résultats de ce dimanche à #Gemeinde_f avec ceux concernant le Gripen il y a six ans. La commune a sans doute fusionné depuis.</t>
   </si>
   <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja-Stimmen hat eine Mehrheit der Abstimmenden in #Gemeinde_d  die Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub angenommen. </t>
@@ -669,7 +669,7 @@
     <t>In #Gemeinde_d hat der zweiwöchige bezahlte Vaterschaftsurlaub keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Änderung des Erwerbsersatzgesetzes abgelehnt.</t>
   </si>
   <si>
-    <t>Le congé paternité de deux semaines échoue à #Gemeinde_f avec #NeinStimmenInProzent de non.</t>
+    <t>Le congé paternité de deux semaines échoue à #Gemeinde_f avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben zur Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
@@ -693,7 +693,7 @@
     <t>#Gemeinde_d hat die Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse le congé paternité de deux semaines n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse le congé paternité de deux semaines n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.$</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über einen zweiwöchigen bezahlten Vaterschaftsurlaub erreicht: #JaStimmenInProzent Prozent haben der Änderung des Erwerbsersatzgesetzes zugestimmt.</t>
@@ -732,7 +732,7 @@
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton #Kanton_d.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se distingue par le plus fort pourcentage de oui du canton #Kanton_f.</t>
+    <t>#Gemeinde_f se distingue par le plus fort pourcentage de oui du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil im Kanton (Ja-Anteil muss über 50 liegen)</t>
@@ -744,7 +744,7 @@
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton #Kanton_d.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se signale par le plus fort pourcentage de non du canton #Kanton_f.</t>
+    <t>#Gemeinde_f se signale par le plus fort pourcentage de non du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil im Kanton (Ja-Anteil muss unter 50 liegen)</t>
@@ -756,7 +756,7 @@
     <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Ja gesagt zu dieser Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a voté oui, comme la majorité des citoyens du canton #Kanton_f.</t>
+    <t>#Gemeinde_f a voté oui, comme la majorité des citoyens du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Ja</t>
@@ -768,7 +768,7 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage angenommen hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f vote non, contrairement à la majorité des citoyens du canton #Kanton_f.</t>
+    <t>#Gemeinde_f vote non, contrairement à la majorité des citoyens du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt Nein, Kanton Ja</t>
@@ -780,7 +780,7 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der Kanton #Kanton_d, der die Vorlage abgelehnt hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_f vote oui, contrairement à la majorité des citoyens du canton #Kanton_f.</t>
+    <t>#Gemeinde_f vote oui, contrairement à la majorité des citoyens du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt Ja, Kanton Nein</t>
@@ -792,7 +792,7 @@
     <t>#Gemeinde_d hat damit gleich wie der Kanton #Kanton_d Nein gesagt zu dieser Vorlage.</t>
   </si>
   <si>
-    <t>#Gemeinde_f a voté non, comme la majorité des citoyens du canton #Kanton_f.</t>
+    <t>#Gemeinde_f a voté non, comme la majorité des citoyens du canton de #Kanton_f.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Nein</t>
@@ -879,7 +879,7 @@
     <t>In #Gemeinde_d haben höhere Kinderabzüge bei der direkten Bundessteuer keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Änderung des Bundesgesetzes abgelehnt.</t>
   </si>
   <si>
-    <t>Le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers échoue à #Gemeinde_f avec #NeinStimmenInProzent de non.</t>
+    <t>Le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers échoue à #Gemeinde_f avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei Abstimmung über höhere Kinderabzüge bei der direkten Bundessteuer ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
@@ -936,10 +936,10 @@
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus du relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers. Ses citoyens disent non à #NeinStimmenInProzent pourcents.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se distingue par le plus grand pourcentage de oui du canton #Kanton_f.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_f se signale par le plus grand pourcentage de non du canton #Kanton_f</t>
+    <t>#Gemeinde_f se distingue par le plus grand pourcentage de oui du canton de #Kanton_f.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_f se signale par le plus grand pourcentage de non du canton de #Kanton_f</t>
   </si>
   <si>
     <t xml:space="preserve">#Gemeinde_d hat der Änderung des Jagdgesetzes mit #JaStimmenInProzent Prozent Ja-Stimmen zugestimmt. </t>
@@ -987,7 +987,7 @@
     <t>Les électeurs de #Gemeinde_f valident avec #JaStimmenInProzent pourcents de oui la modification de la loi sur la chasse.</t>
   </si>
   <si>
-    <t xml:space="preserve">#Gemeinde_d ist gegen das neue Jagdgesetz: Die Stimmbügerinnen und Stimmbürger der Gemeinde haben die Vorlage mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
+    <t xml:space="preserve">#Gemeinde_d ist gegen das neue Jagdgesetz: Die Stimmbügerinnen und Stimmbürger der Gemeinde haben die geplante Änderung mit #NeinStimmenInProzent Prozent verworfen. </t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f refusent la modification de la loi sur la chasse avec #NeinStimmenInProzent pourcents de non.</t>
@@ -1026,7 +1026,7 @@
     <t>In #Gemeinde_d hat die Änderung des Jagdgesetzes keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>La modification de la loi sur la chasse échoue à #Gemeinde_f avec #NeinStimmenInProzent de non.</t>
+    <t>La modification de la loi sur la chasse échoue à #Gemeinde_f avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei Abstimmung über die Änderung des Jagdgesetzes ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
@@ -1083,7 +1083,7 @@
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la modification de la loi sur la chasse. Ses citoyens disent non à #NeinStimmenInProzent pourcents.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se signale par le plus fort pourcentage de non du canton #Kanton_f</t>
+    <t>#Gemeinde_f se signale par le plus fort pourcentage de non du canton de #Kanton_f</t>
   </si>
   <si>
     <t>Variable</t>
@@ -1162,7 +1162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1180,6 +1180,9 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -1346,22 +1349,22 @@
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2065,7 +2068,6 @@
     </row>
     <row r="36">
       <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
     </row>
     <row r="37">
       <c r="B37" s="17"/>
@@ -6363,7 +6365,7 @@
       <c r="B35" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -9441,7 +9443,7 @@
       <c r="B15" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9494,7 +9496,7 @@
       <c r="B19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>225</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -9642,7 +9644,7 @@
       <c r="B30" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -9656,7 +9658,7 @@
       <c r="B31" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -9670,7 +9672,7 @@
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -9694,7 +9696,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="41.86"/>
     <col customWidth="1" min="2" max="2" width="58.57"/>
-    <col customWidth="1" min="3" max="3" width="55.29"/>
+    <col customWidth="1" min="3" max="3" width="73.71"/>
     <col customWidth="1" min="4" max="4" width="70.29"/>
   </cols>
   <sheetData>
@@ -9868,7 +9870,7 @@
       <c r="B15" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10069,7 +10071,7 @@
       <c r="B30" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -10083,7 +10085,7 @@
       <c r="B31" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -10097,7 +10099,7 @@
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10298,7 +10300,7 @@
       <c r="B15" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10432,9 +10434,7 @@
       <c r="A25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
         <v>74</v>
       </c>
@@ -10443,9 +10443,7 @@
       <c r="A26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
         <v>77</v>
       </c>
@@ -10499,7 +10497,7 @@
       <c r="B30" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -10513,7 +10511,7 @@
       <c r="B31" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -10527,7 +10525,7 @@
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">

--- a/Data/Textbausteine_LENA_September2020.xlsx
+++ b/Data/Textbausteine_LENA_September2020.xlsx
@@ -57,7 +57,7 @@
     <t>Die Initiative "Für eine massvolle Zuwanderung" ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont favorables à l'initiative pour "une immigration modérée" avec #JaStimmenInProzent pourcents de oui.</t>
+    <t>A #Gemeinde_f, les habitants sont favorables à l'initiative "pour une immigration modérée" avec #JaStimmenInProzent pourcents de oui.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Initiative "Für eine massvolle Zuwanderung".</t>
@@ -75,7 +75,7 @@
     <t>Ja zur Initiative "Für eine massvolle Zuwanderung": #Gemeinde_d hat das Volksbegehren mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
-    <t>Les électeurs de #Gemeinde_f valident l'initiative pour une "immigration modérée" avec #JaStimmenInProzent pourcents de oui.</t>
+    <t>Les électeurs de #Gemeinde_f valident l'initiative "pour une immigration modérée" avec #JaStimmenInProzent pourcents de oui.</t>
   </si>
   <si>
     <t>Intro_Nein</t>
@@ -165,7 +165,7 @@
     <t>Mit #JaStimmenInProzent Prozent der Stimmen hat #Gemeinde_d  die Initiative "Für eine massvolle Zuwanderung" von allen Schweizer Gemeinden am deutlichsten angenommen.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse l'initiative "pour une immigration modérée" est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, l'initiative "pour une immigration modérée" est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
@@ -177,7 +177,7 @@
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über die Initiative "Für eine massvolle Zuwanderung" erreicht: #JaStimmenInProzent Prozent haben dem Volksbegehren zugestimmt.</t>
   </si>
   <si>
-    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de l'initiative "pour une immigration modérée". Ses citoyens disent oui à #JaStimmenInProzent pourcents</t>
+    <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de l'initiative "pour une immigration modérée". Ses citoyens disent oui à #JaStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
@@ -201,7 +201,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die  Initiative "Für eine massvolle Zuwanderung" ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse l'initiative "pour une immigration modérée" n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, l'initiative "pour une immigration modérée" n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil (schweizweit)</t>
@@ -318,7 +318,7 @@
     <t>Erstaunlicherweise ist damit im Vergleich zur Abstimmung über die SVP-"Masseneinwanderungs-Initiative" vor sechseinhalb Jahren der Nein-Stimmen-Anteil in #Gemeinde_d genau gleich geblieben.</t>
   </si>
   <si>
-    <t>Les citoyens de #Gemeinde_f avaient déjà refusé avec #HistNeinStimmenInProzent pourcents de non l'initiative "contre l'immigration de masse" en février 2014. Fait étonnant, la part n'a pas changé en un peu plus de six ans et demi.</t>
+    <t>Les citoyens de #Gemeinde_f avaient déjà refusé avec #HistNeinStimmenInProzent pourcents de non l'initiative "contre l'immigration de masse" en février 2014. Fait étonnant, la proportion de refus n'a pas changé en un peu plus de six ans et demi.</t>
   </si>
   <si>
     <t>Masseneinwanderung und Zuwanderung gleicher Nein-Anteil</t>
@@ -375,13 +375,13 @@
     <t>Die Gemeinde #Gemeinde_d ist für den Kauf neuer Kampfjets. Die Stimmbevölkerung hat dem Bundesbeschluss mit #JaStimmenAbsolut Ja-Stimmen zu #NeinStimmenAbsolut Nein-Stimmen zugestimmt. Das entspricht #JaStimmenInProzent Prozent Ja.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pourcents à l'arrêté relatif à l'acquisition de nouveaux avions de combats.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pourcents à l'arrêté relatif à l'acquisition de nouveaux avions de combat.</t>
   </si>
   <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung für den Kauf neuer Kampfflugzeuge gestimmt. Der Bundesbeschluss wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont pour l'acquisition de nouveaux avions de combats avec #JaStimmenInProzent pourcents de oui.</t>
+    <t>A #Gemeinde_f, les habitants sont pour l'acquisition de nouveaux avions de combat avec #JaStimmenInProzent pourcents de oui.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent Ja zum Kauf neuer Kampfflugzeuge in der Gemeinde #Gemeinde_d.</t>
@@ -420,13 +420,13 @@
     <t>#NeinStimmenInProzent Prozent Nein zum Kauf neuer Kampfflugzeuge in der Gemeinde #Gemeinde_d.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pourcents à l'arrêté relatif à l'acquisition de nouveaux avions de combats.</t>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pourcents à l'arrêté relatif à l'acquisition de nouveaux avions de combat.</t>
   </si>
   <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung den Kauf neuer Kampfflugzeuge abgelehnt. Der Bundesbeschluss wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants sont contre l'acquisition de nouveaux avions de combats avec #NeinStimmenInProzent pourcents de non.</t>
+    <t>A #Gemeinde_f, les habitants sont contre l'acquisition de nouveaux avions de combat avec #NeinStimmenInProzent pourcents de non.</t>
   </si>
   <si>
     <t>Keine Mehrheit für neue Kampfflugzeuge in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde den Bundesbeschluss verworfen.</t>
@@ -678,13 +678,13 @@
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter le congé paternité de deux semaines et #JaStimmenAbsolut à le refuser.</t>
   </si>
   <si>
-    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAsolut Abstimmenden haben ein Ja zur Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub in die Urne gelegt.</t>
+    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden haben ein Ja zur Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub in die Urne gelegt.</t>
   </si>
   <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous le congé paternité de de deux semaines.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAsolut Abstimmenden ein Nein zur Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen Vaterschaftsurlaub in die Urne gelegt. </t>
+    <t xml:space="preserve">Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden ein Nein zur Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen Vaterschaftsurlaub in die Urne gelegt. </t>
   </si>
   <si>
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche refusent tous d'accorder un congé paternité de deux semaines.</t>
@@ -693,7 +693,7 @@
     <t>#Gemeinde_d hat die Änderung des Erwerbsersatzgesetzes für einen zweiwöchigen bezahlten Vaterschaftsurlaub von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse le congé paternité de deux semaines n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.$</t>
+    <t>Nulle part ailleurs en Suisse le congé paternité de deux semaines n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über einen zweiwöchigen bezahlten Vaterschaftsurlaub erreicht: #JaStimmenInProzent Prozent haben der Änderung des Erwerbsersatzgesetzes zugestimmt.</t>
@@ -711,7 +711,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen den zweiwöchigen Vaterschaftsurlaub ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse le congé paternité de deux semaines n'est plus fortement rejeté qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, le congé paternité de deux semaines n'est plus fortement rejeté qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei der Abstimmung über den zweiwöchigen bezahlten Vaterschaftsurlaub": #NeinStimmenInProzent Prozent haben die Änderung des Erwerbsersatzgesetzes abgelehnt.</t>
@@ -888,13 +888,13 @@
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers et #JaStimmenAbsolut à le refuser.</t>
   </si>
   <si>
-    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAsolut Abstimmenden sagen Ja zur Erhöhung der Kinderabzüge bei der direkten Bundessteuer.</t>
+    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden sagen Ja zur Erhöhung der Kinderabzüge bei der direkten Bundessteuer.</t>
   </si>
   <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers.</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAsolut Abstimmenden Nein gesagt zur Erhöhung der Kinderabzüge bei der direkten Bundessteuer.</t>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden Nein gesagt zur Erhöhung der Kinderabzüge bei der direkten Bundessteuer.</t>
   </si>
   <si>
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche refusent tous le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers.</t>
@@ -903,7 +903,7 @@
     <t>#Gemeinde_d hat die Erhöhung der Kinderabzüge bei der direkten Bundessteuer von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers n'est davantage soutenu qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über die Erhöhung der Kinderabzüge bei der direkten Bundessteuer: #JaStimmenInProzent Prozent haben der Änderung des Bundesgesetzes zugestimmt.</t>
@@ -921,7 +921,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Erhöhung der Kinderabzüge bei der direkten Bundessteuer ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers n'est plus fortement rejeté qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, le relèvement des déductions fiscales pour les enfants et pour les frais de garde par des tiers n'est plus fortement rejeté qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Nein-Anteil bei der Abstimmung über die Erhöhung der Kinderabzüge bei der direkten Bundessteuer: #NeinStimmenInProzent Prozent haben die Änderung des Bundesgesetzes abgelehnt.</t>
@@ -1032,16 +1032,16 @@
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei Abstimmung über die Änderung des Jagdgesetzes ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la modification de la loi sur la chasse et #JaStimmenAbsolut à le refuser.</t>
-  </si>
-  <si>
-    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAsolut Abstimmenden sagen Ja zur Änderung des Jagdgesetzes.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la modification de la loi sur la chasse et #JaStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
+    <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden sagen Ja zur Änderung des Jagdgesetzes.</t>
   </si>
   <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la modification de la loi sur la chasse.</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAsolut Abstimmenden Nein gesagt Änderung des Jagdgesetzes.</t>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden Nein gesagt Änderung des Jagdgesetzes.</t>
   </si>
   <si>
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche refusent tous la modification de la loi sur la chasse.</t>
@@ -1050,7 +1050,7 @@
     <t>#Gemeinde_d hat die Änderung des Jagdgesetzes von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse la modification de la loi sur la chasse n'est davantage soutenue qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
+    <t>Nulle part ailleurs en Suisse, la modification de la loi sur la chasse n'est davantage soutenue qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pourcents.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den zweithöchsten Ja-Anteil bei der Abstimmung über die Änderung des Jagdgesetzes: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt.</t>
@@ -1276,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1301,7 +1301,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1333,6 +1333,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1672,7 +1675,7 @@
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1835,7 +1838,7 @@
       <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1849,7 +1852,7 @@
       <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1877,7 +1880,7 @@
       <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2017,7 +2020,7 @@
       <c r="B32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -5964,7 +5967,7 @@
       <c r="B4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5975,7 +5978,7 @@
       <c r="B5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6008,7 +6011,7 @@
       <c r="B8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6016,7 +6019,7 @@
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6044,7 +6047,7 @@
       <c r="B11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6055,7 +6058,7 @@
       <c r="B12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6096,7 +6099,7 @@
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -6138,7 +6141,7 @@
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -6152,7 +6155,7 @@
       <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -6166,7 +6169,7 @@
       <c r="A21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -6194,7 +6197,7 @@
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -6208,7 +6211,7 @@
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -6250,7 +6253,7 @@
       <c r="A27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -6264,7 +6267,7 @@
       <c r="A28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -6292,7 +6295,7 @@
       <c r="A30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>173</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -6306,7 +6309,7 @@
       <c r="A31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -6334,7 +6337,7 @@
       <c r="A33" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>182</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -6348,7 +6351,7 @@
       <c r="A34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>185</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -9291,7 +9294,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -9363,7 +9366,7 @@
       <c r="B8" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>203</v>
       </c>
     </row>
@@ -9465,7 +9468,7 @@
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -9479,7 +9482,7 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -9538,7 +9541,7 @@
       <c r="B22" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>231</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -9596,13 +9599,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>236</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -9610,13 +9613,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>242</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -9624,13 +9627,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -9638,7 +9641,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -9652,7 +9655,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>252</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -9666,13 +9669,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>256</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -9790,7 +9793,7 @@
       <c r="B8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9892,7 +9895,7 @@
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -9906,7 +9909,7 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -9923,7 +9926,7 @@
       <c r="B19" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>295</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -9965,7 +9968,7 @@
       <c r="B22" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -10023,13 +10026,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>236</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>306</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -10037,13 +10040,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>307</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -10051,13 +10054,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -10065,7 +10068,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -10079,7 +10082,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>252</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -10093,13 +10096,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>256</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10154,7 +10157,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>310</v>
       </c>
     </row>
@@ -10220,7 +10223,7 @@
       <c r="B8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>322</v>
       </c>
     </row>
@@ -10228,7 +10231,7 @@
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -10311,7 +10314,7 @@
       <c r="B16" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>338</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -10322,7 +10325,7 @@
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>339</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -10336,7 +10339,7 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>341</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -10353,7 +10356,7 @@
       <c r="B19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>344</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -10449,13 +10452,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>236</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -10463,13 +10466,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>355</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -10477,13 +10480,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>244</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>246</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -10491,7 +10494,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -10505,7 +10508,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>252</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -10519,13 +10522,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="26" t="s">
         <v>256</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>258</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -10551,10 +10554,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>357</v>
       </c>
     </row>
@@ -10562,7 +10565,7 @@
       <c r="A2" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>359</v>
       </c>
     </row>
@@ -10570,7 +10573,7 @@
       <c r="A3" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>361</v>
       </c>
     </row>
@@ -10578,7 +10581,7 @@
       <c r="A4" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>363</v>
       </c>
     </row>
@@ -10586,7 +10589,7 @@
       <c r="A5" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10594,7 +10597,7 @@
       <c r="A6" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>60.4</v>
       </c>
     </row>
@@ -10602,7 +10605,7 @@
       <c r="A7" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="31">
         <v>39.6</v>
       </c>
     </row>
@@ -10610,7 +10613,7 @@
       <c r="A8" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10618,7 +10621,7 @@
       <c r="A9" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>371</v>
       </c>
     </row>
@@ -10626,7 +10629,7 @@
       <c r="A10" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>60.4</v>
       </c>
     </row>
@@ -10634,7 +10637,7 @@
       <c r="A11" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="31">
         <v>39.6</v>
       </c>
     </row>
@@ -10642,7 +10645,7 @@
       <c r="A12" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10650,7 +10653,7 @@
       <c r="A13" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>371</v>
       </c>
     </row>
@@ -10658,7 +10661,7 @@
       <c r="A14" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>15.0</v>
       </c>
     </row>
@@ -10666,7 +10669,7 @@
       <c r="A15" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>15.0</v>
       </c>
     </row>
@@ -10674,2961 +10677,2961 @@
       <c r="A16" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="31"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18">
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19">
-      <c r="B19" s="31"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20">
-      <c r="B20" s="31"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21">
-      <c r="B21" s="31"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22">
-      <c r="B22" s="31"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23">
-      <c r="B23" s="31"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24">
-      <c r="B24" s="31"/>
+      <c r="B24" s="32"/>
     </row>
     <row r="25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26">
-      <c r="B26" s="31"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27">
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28">
-      <c r="B28" s="31"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29">
-      <c r="B29" s="31"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30">
-      <c r="B30" s="31"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31">
-      <c r="B31" s="31"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32">
-      <c r="B32" s="31"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33">
-      <c r="B33" s="31"/>
+      <c r="B33" s="32"/>
     </row>
     <row r="34">
-      <c r="B34" s="31"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35">
-      <c r="B35" s="31"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36">
-      <c r="B36" s="31"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37">
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
     </row>
     <row r="38">
-      <c r="B38" s="31"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39">
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
     </row>
     <row r="40">
-      <c r="B40" s="31"/>
+      <c r="B40" s="32"/>
     </row>
     <row r="41">
-      <c r="B41" s="31"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42">
-      <c r="B42" s="31"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43">
-      <c r="B43" s="31"/>
+      <c r="B43" s="32"/>
     </row>
     <row r="44">
-      <c r="B44" s="31"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45">
-      <c r="B45" s="31"/>
+      <c r="B45" s="32"/>
     </row>
     <row r="46">
-      <c r="B46" s="31"/>
+      <c r="B46" s="32"/>
     </row>
     <row r="47">
-      <c r="B47" s="31"/>
+      <c r="B47" s="32"/>
     </row>
     <row r="48">
-      <c r="B48" s="31"/>
+      <c r="B48" s="32"/>
     </row>
     <row r="49">
-      <c r="B49" s="31"/>
+      <c r="B49" s="32"/>
     </row>
     <row r="50">
-      <c r="B50" s="31"/>
+      <c r="B50" s="32"/>
     </row>
     <row r="51">
-      <c r="B51" s="31"/>
+      <c r="B51" s="32"/>
     </row>
     <row r="52">
-      <c r="B52" s="31"/>
+      <c r="B52" s="32"/>
     </row>
     <row r="53">
-      <c r="B53" s="31"/>
+      <c r="B53" s="32"/>
     </row>
     <row r="54">
-      <c r="B54" s="31"/>
+      <c r="B54" s="32"/>
     </row>
     <row r="55">
-      <c r="B55" s="31"/>
+      <c r="B55" s="32"/>
     </row>
     <row r="56">
-      <c r="B56" s="31"/>
+      <c r="B56" s="32"/>
     </row>
     <row r="57">
-      <c r="B57" s="31"/>
+      <c r="B57" s="32"/>
     </row>
     <row r="58">
-      <c r="B58" s="31"/>
+      <c r="B58" s="32"/>
     </row>
     <row r="59">
-      <c r="B59" s="31"/>
+      <c r="B59" s="32"/>
     </row>
     <row r="60">
-      <c r="B60" s="31"/>
+      <c r="B60" s="32"/>
     </row>
     <row r="61">
-      <c r="B61" s="31"/>
+      <c r="B61" s="32"/>
     </row>
     <row r="62">
-      <c r="B62" s="31"/>
+      <c r="B62" s="32"/>
     </row>
     <row r="63">
-      <c r="B63" s="31"/>
+      <c r="B63" s="32"/>
     </row>
     <row r="64">
-      <c r="B64" s="31"/>
+      <c r="B64" s="32"/>
     </row>
     <row r="65">
-      <c r="B65" s="31"/>
+      <c r="B65" s="32"/>
     </row>
     <row r="66">
-      <c r="B66" s="31"/>
+      <c r="B66" s="32"/>
     </row>
     <row r="67">
-      <c r="B67" s="31"/>
+      <c r="B67" s="32"/>
     </row>
     <row r="68">
-      <c r="B68" s="31"/>
+      <c r="B68" s="32"/>
     </row>
     <row r="69">
-      <c r="B69" s="31"/>
+      <c r="B69" s="32"/>
     </row>
     <row r="70">
-      <c r="B70" s="31"/>
+      <c r="B70" s="32"/>
     </row>
     <row r="71">
-      <c r="B71" s="31"/>
+      <c r="B71" s="32"/>
     </row>
     <row r="72">
-      <c r="B72" s="31"/>
+      <c r="B72" s="32"/>
     </row>
     <row r="73">
-      <c r="B73" s="31"/>
+      <c r="B73" s="32"/>
     </row>
     <row r="74">
-      <c r="B74" s="31"/>
+      <c r="B74" s="32"/>
     </row>
     <row r="75">
-      <c r="B75" s="31"/>
+      <c r="B75" s="32"/>
     </row>
     <row r="76">
-      <c r="B76" s="31"/>
+      <c r="B76" s="32"/>
     </row>
     <row r="77">
-      <c r="B77" s="31"/>
+      <c r="B77" s="32"/>
     </row>
     <row r="78">
-      <c r="B78" s="31"/>
+      <c r="B78" s="32"/>
     </row>
     <row r="79">
-      <c r="B79" s="31"/>
+      <c r="B79" s="32"/>
     </row>
     <row r="80">
-      <c r="B80" s="31"/>
+      <c r="B80" s="32"/>
     </row>
     <row r="81">
-      <c r="B81" s="31"/>
+      <c r="B81" s="32"/>
     </row>
     <row r="82">
-      <c r="B82" s="31"/>
+      <c r="B82" s="32"/>
     </row>
     <row r="83">
-      <c r="B83" s="31"/>
+      <c r="B83" s="32"/>
     </row>
     <row r="84">
-      <c r="B84" s="31"/>
+      <c r="B84" s="32"/>
     </row>
     <row r="85">
-      <c r="B85" s="31"/>
+      <c r="B85" s="32"/>
     </row>
     <row r="86">
-      <c r="B86" s="31"/>
+      <c r="B86" s="32"/>
     </row>
     <row r="87">
-      <c r="B87" s="31"/>
+      <c r="B87" s="32"/>
     </row>
     <row r="88">
-      <c r="B88" s="31"/>
+      <c r="B88" s="32"/>
     </row>
     <row r="89">
-      <c r="B89" s="31"/>
+      <c r="B89" s="32"/>
     </row>
     <row r="90">
-      <c r="B90" s="31"/>
+      <c r="B90" s="32"/>
     </row>
     <row r="91">
-      <c r="B91" s="31"/>
+      <c r="B91" s="32"/>
     </row>
     <row r="92">
-      <c r="B92" s="31"/>
+      <c r="B92" s="32"/>
     </row>
     <row r="93">
-      <c r="B93" s="31"/>
+      <c r="B93" s="32"/>
     </row>
     <row r="94">
-      <c r="B94" s="31"/>
+      <c r="B94" s="32"/>
     </row>
     <row r="95">
-      <c r="B95" s="31"/>
+      <c r="B95" s="32"/>
     </row>
     <row r="96">
-      <c r="B96" s="31"/>
+      <c r="B96" s="32"/>
     </row>
     <row r="97">
-      <c r="B97" s="31"/>
+      <c r="B97" s="32"/>
     </row>
     <row r="98">
-      <c r="B98" s="31"/>
+      <c r="B98" s="32"/>
     </row>
     <row r="99">
-      <c r="B99" s="31"/>
+      <c r="B99" s="32"/>
     </row>
     <row r="100">
-      <c r="B100" s="31"/>
+      <c r="B100" s="32"/>
     </row>
     <row r="101">
-      <c r="B101" s="31"/>
+      <c r="B101" s="32"/>
     </row>
     <row r="102">
-      <c r="B102" s="31"/>
+      <c r="B102" s="32"/>
     </row>
     <row r="103">
-      <c r="B103" s="31"/>
+      <c r="B103" s="32"/>
     </row>
     <row r="104">
-      <c r="B104" s="31"/>
+      <c r="B104" s="32"/>
     </row>
     <row r="105">
-      <c r="B105" s="31"/>
+      <c r="B105" s="32"/>
     </row>
     <row r="106">
-      <c r="B106" s="31"/>
+      <c r="B106" s="32"/>
     </row>
     <row r="107">
-      <c r="B107" s="31"/>
+      <c r="B107" s="32"/>
     </row>
     <row r="108">
-      <c r="B108" s="31"/>
+      <c r="B108" s="32"/>
     </row>
     <row r="109">
-      <c r="B109" s="31"/>
+      <c r="B109" s="32"/>
     </row>
     <row r="110">
-      <c r="B110" s="31"/>
+      <c r="B110" s="32"/>
     </row>
     <row r="111">
-      <c r="B111" s="31"/>
+      <c r="B111" s="32"/>
     </row>
     <row r="112">
-      <c r="B112" s="31"/>
+      <c r="B112" s="32"/>
     </row>
     <row r="113">
-      <c r="B113" s="31"/>
+      <c r="B113" s="32"/>
     </row>
     <row r="114">
-      <c r="B114" s="31"/>
+      <c r="B114" s="32"/>
     </row>
     <row r="115">
-      <c r="B115" s="31"/>
+      <c r="B115" s="32"/>
     </row>
     <row r="116">
-      <c r="B116" s="31"/>
+      <c r="B116" s="32"/>
     </row>
     <row r="117">
-      <c r="B117" s="31"/>
+      <c r="B117" s="32"/>
     </row>
     <row r="118">
-      <c r="B118" s="31"/>
+      <c r="B118" s="32"/>
     </row>
     <row r="119">
-      <c r="B119" s="31"/>
+      <c r="B119" s="32"/>
     </row>
     <row r="120">
-      <c r="B120" s="31"/>
+      <c r="B120" s="32"/>
     </row>
     <row r="121">
-      <c r="B121" s="31"/>
+      <c r="B121" s="32"/>
     </row>
     <row r="122">
-      <c r="B122" s="31"/>
+      <c r="B122" s="32"/>
     </row>
     <row r="123">
-      <c r="B123" s="31"/>
+      <c r="B123" s="32"/>
     </row>
     <row r="124">
-      <c r="B124" s="31"/>
+      <c r="B124" s="32"/>
     </row>
     <row r="125">
-      <c r="B125" s="31"/>
+      <c r="B125" s="32"/>
     </row>
     <row r="126">
-      <c r="B126" s="31"/>
+      <c r="B126" s="32"/>
     </row>
     <row r="127">
-      <c r="B127" s="31"/>
+      <c r="B127" s="32"/>
     </row>
     <row r="128">
-      <c r="B128" s="31"/>
+      <c r="B128" s="32"/>
     </row>
     <row r="129">
-      <c r="B129" s="31"/>
+      <c r="B129" s="32"/>
     </row>
     <row r="130">
-      <c r="B130" s="31"/>
+      <c r="B130" s="32"/>
     </row>
     <row r="131">
-      <c r="B131" s="31"/>
+      <c r="B131" s="32"/>
     </row>
     <row r="132">
-      <c r="B132" s="31"/>
+      <c r="B132" s="32"/>
     </row>
     <row r="133">
-      <c r="B133" s="31"/>
+      <c r="B133" s="32"/>
     </row>
     <row r="134">
-      <c r="B134" s="31"/>
+      <c r="B134" s="32"/>
     </row>
     <row r="135">
-      <c r="B135" s="31"/>
+      <c r="B135" s="32"/>
     </row>
     <row r="136">
-      <c r="B136" s="31"/>
+      <c r="B136" s="32"/>
     </row>
     <row r="137">
-      <c r="B137" s="31"/>
+      <c r="B137" s="32"/>
     </row>
     <row r="138">
-      <c r="B138" s="31"/>
+      <c r="B138" s="32"/>
     </row>
     <row r="139">
-      <c r="B139" s="31"/>
+      <c r="B139" s="32"/>
     </row>
     <row r="140">
-      <c r="B140" s="31"/>
+      <c r="B140" s="32"/>
     </row>
     <row r="141">
-      <c r="B141" s="31"/>
+      <c r="B141" s="32"/>
     </row>
     <row r="142">
-      <c r="B142" s="31"/>
+      <c r="B142" s="32"/>
     </row>
     <row r="143">
-      <c r="B143" s="31"/>
+      <c r="B143" s="32"/>
     </row>
     <row r="144">
-      <c r="B144" s="31"/>
+      <c r="B144" s="32"/>
     </row>
     <row r="145">
-      <c r="B145" s="31"/>
+      <c r="B145" s="32"/>
     </row>
     <row r="146">
-      <c r="B146" s="31"/>
+      <c r="B146" s="32"/>
     </row>
     <row r="147">
-      <c r="B147" s="31"/>
+      <c r="B147" s="32"/>
     </row>
     <row r="148">
-      <c r="B148" s="31"/>
+      <c r="B148" s="32"/>
     </row>
     <row r="149">
-      <c r="B149" s="31"/>
+      <c r="B149" s="32"/>
     </row>
     <row r="150">
-      <c r="B150" s="31"/>
+      <c r="B150" s="32"/>
     </row>
     <row r="151">
-      <c r="B151" s="31"/>
+      <c r="B151" s="32"/>
     </row>
     <row r="152">
-      <c r="B152" s="31"/>
+      <c r="B152" s="32"/>
     </row>
     <row r="153">
-      <c r="B153" s="31"/>
+      <c r="B153" s="32"/>
     </row>
     <row r="154">
-      <c r="B154" s="31"/>
+      <c r="B154" s="32"/>
     </row>
     <row r="155">
-      <c r="B155" s="31"/>
+      <c r="B155" s="32"/>
     </row>
     <row r="156">
-      <c r="B156" s="31"/>
+      <c r="B156" s="32"/>
     </row>
     <row r="157">
-      <c r="B157" s="31"/>
+      <c r="B157" s="32"/>
     </row>
     <row r="158">
-      <c r="B158" s="31"/>
+      <c r="B158" s="32"/>
     </row>
     <row r="159">
-      <c r="B159" s="31"/>
+      <c r="B159" s="32"/>
     </row>
     <row r="160">
-      <c r="B160" s="31"/>
+      <c r="B160" s="32"/>
     </row>
     <row r="161">
-      <c r="B161" s="31"/>
+      <c r="B161" s="32"/>
     </row>
     <row r="162">
-      <c r="B162" s="31"/>
+      <c r="B162" s="32"/>
     </row>
     <row r="163">
-      <c r="B163" s="31"/>
+      <c r="B163" s="32"/>
     </row>
     <row r="164">
-      <c r="B164" s="31"/>
+      <c r="B164" s="32"/>
     </row>
     <row r="165">
-      <c r="B165" s="31"/>
+      <c r="B165" s="32"/>
     </row>
     <row r="166">
-      <c r="B166" s="31"/>
+      <c r="B166" s="32"/>
     </row>
     <row r="167">
-      <c r="B167" s="31"/>
+      <c r="B167" s="32"/>
     </row>
     <row r="168">
-      <c r="B168" s="31"/>
+      <c r="B168" s="32"/>
     </row>
     <row r="169">
-      <c r="B169" s="31"/>
+      <c r="B169" s="32"/>
     </row>
     <row r="170">
-      <c r="B170" s="31"/>
+      <c r="B170" s="32"/>
     </row>
     <row r="171">
-      <c r="B171" s="31"/>
+      <c r="B171" s="32"/>
     </row>
     <row r="172">
-      <c r="B172" s="31"/>
+      <c r="B172" s="32"/>
     </row>
     <row r="173">
-      <c r="B173" s="31"/>
+      <c r="B173" s="32"/>
     </row>
     <row r="174">
-      <c r="B174" s="31"/>
+      <c r="B174" s="32"/>
     </row>
     <row r="175">
-      <c r="B175" s="31"/>
+      <c r="B175" s="32"/>
     </row>
     <row r="176">
-      <c r="B176" s="31"/>
+      <c r="B176" s="32"/>
     </row>
     <row r="177">
-      <c r="B177" s="31"/>
+      <c r="B177" s="32"/>
     </row>
     <row r="178">
-      <c r="B178" s="31"/>
+      <c r="B178" s="32"/>
     </row>
     <row r="179">
-      <c r="B179" s="31"/>
+      <c r="B179" s="32"/>
     </row>
     <row r="180">
-      <c r="B180" s="31"/>
+      <c r="B180" s="32"/>
     </row>
     <row r="181">
-      <c r="B181" s="31"/>
+      <c r="B181" s="32"/>
     </row>
     <row r="182">
-      <c r="B182" s="31"/>
+      <c r="B182" s="32"/>
     </row>
     <row r="183">
-      <c r="B183" s="31"/>
+      <c r="B183" s="32"/>
     </row>
     <row r="184">
-      <c r="B184" s="31"/>
+      <c r="B184" s="32"/>
     </row>
     <row r="185">
-      <c r="B185" s="31"/>
+      <c r="B185" s="32"/>
     </row>
     <row r="186">
-      <c r="B186" s="31"/>
+      <c r="B186" s="32"/>
     </row>
     <row r="187">
-      <c r="B187" s="31"/>
+      <c r="B187" s="32"/>
     </row>
     <row r="188">
-      <c r="B188" s="31"/>
+      <c r="B188" s="32"/>
     </row>
     <row r="189">
-      <c r="B189" s="31"/>
+      <c r="B189" s="32"/>
     </row>
     <row r="190">
-      <c r="B190" s="31"/>
+      <c r="B190" s="32"/>
     </row>
     <row r="191">
-      <c r="B191" s="31"/>
+      <c r="B191" s="32"/>
     </row>
     <row r="192">
-      <c r="B192" s="31"/>
+      <c r="B192" s="32"/>
     </row>
     <row r="193">
-      <c r="B193" s="31"/>
+      <c r="B193" s="32"/>
     </row>
     <row r="194">
-      <c r="B194" s="31"/>
+      <c r="B194" s="32"/>
     </row>
     <row r="195">
-      <c r="B195" s="31"/>
+      <c r="B195" s="32"/>
     </row>
     <row r="196">
-      <c r="B196" s="31"/>
+      <c r="B196" s="32"/>
     </row>
     <row r="197">
-      <c r="B197" s="31"/>
+      <c r="B197" s="32"/>
     </row>
     <row r="198">
-      <c r="B198" s="31"/>
+      <c r="B198" s="32"/>
     </row>
     <row r="199">
-      <c r="B199" s="31"/>
+      <c r="B199" s="32"/>
     </row>
     <row r="200">
-      <c r="B200" s="31"/>
+      <c r="B200" s="32"/>
     </row>
     <row r="201">
-      <c r="B201" s="31"/>
+      <c r="B201" s="32"/>
     </row>
     <row r="202">
-      <c r="B202" s="31"/>
+      <c r="B202" s="32"/>
     </row>
     <row r="203">
-      <c r="B203" s="31"/>
+      <c r="B203" s="32"/>
     </row>
     <row r="204">
-      <c r="B204" s="31"/>
+      <c r="B204" s="32"/>
     </row>
     <row r="205">
-      <c r="B205" s="31"/>
+      <c r="B205" s="32"/>
     </row>
     <row r="206">
-      <c r="B206" s="31"/>
+      <c r="B206" s="32"/>
     </row>
     <row r="207">
-      <c r="B207" s="31"/>
+      <c r="B207" s="32"/>
     </row>
     <row r="208">
-      <c r="B208" s="31"/>
+      <c r="B208" s="32"/>
     </row>
     <row r="209">
-      <c r="B209" s="31"/>
+      <c r="B209" s="32"/>
     </row>
     <row r="210">
-      <c r="B210" s="31"/>
+      <c r="B210" s="32"/>
     </row>
     <row r="211">
-      <c r="B211" s="31"/>
+      <c r="B211" s="32"/>
     </row>
     <row r="212">
-      <c r="B212" s="31"/>
+      <c r="B212" s="32"/>
     </row>
     <row r="213">
-      <c r="B213" s="31"/>
+      <c r="B213" s="32"/>
     </row>
     <row r="214">
-      <c r="B214" s="31"/>
+      <c r="B214" s="32"/>
     </row>
     <row r="215">
-      <c r="B215" s="31"/>
+      <c r="B215" s="32"/>
     </row>
     <row r="216">
-      <c r="B216" s="31"/>
+      <c r="B216" s="32"/>
     </row>
     <row r="217">
-      <c r="B217" s="31"/>
+      <c r="B217" s="32"/>
     </row>
     <row r="218">
-      <c r="B218" s="31"/>
+      <c r="B218" s="32"/>
     </row>
     <row r="219">
-      <c r="B219" s="31"/>
+      <c r="B219" s="32"/>
     </row>
     <row r="220">
-      <c r="B220" s="31"/>
+      <c r="B220" s="32"/>
     </row>
     <row r="221">
-      <c r="B221" s="31"/>
+      <c r="B221" s="32"/>
     </row>
     <row r="222">
-      <c r="B222" s="31"/>
+      <c r="B222" s="32"/>
     </row>
     <row r="223">
-      <c r="B223" s="31"/>
+      <c r="B223" s="32"/>
     </row>
     <row r="224">
-      <c r="B224" s="31"/>
+      <c r="B224" s="32"/>
     </row>
     <row r="225">
-      <c r="B225" s="31"/>
+      <c r="B225" s="32"/>
     </row>
     <row r="226">
-      <c r="B226" s="31"/>
+      <c r="B226" s="32"/>
     </row>
     <row r="227">
-      <c r="B227" s="31"/>
+      <c r="B227" s="32"/>
     </row>
     <row r="228">
-      <c r="B228" s="31"/>
+      <c r="B228" s="32"/>
     </row>
     <row r="229">
-      <c r="B229" s="31"/>
+      <c r="B229" s="32"/>
     </row>
     <row r="230">
-      <c r="B230" s="31"/>
+      <c r="B230" s="32"/>
     </row>
     <row r="231">
-      <c r="B231" s="31"/>
+      <c r="B231" s="32"/>
     </row>
     <row r="232">
-      <c r="B232" s="31"/>
+      <c r="B232" s="32"/>
     </row>
     <row r="233">
-      <c r="B233" s="31"/>
+      <c r="B233" s="32"/>
     </row>
     <row r="234">
-      <c r="B234" s="31"/>
+      <c r="B234" s="32"/>
     </row>
     <row r="235">
-      <c r="B235" s="31"/>
+      <c r="B235" s="32"/>
     </row>
     <row r="236">
-      <c r="B236" s="31"/>
+      <c r="B236" s="32"/>
     </row>
     <row r="237">
-      <c r="B237" s="31"/>
+      <c r="B237" s="32"/>
     </row>
     <row r="238">
-      <c r="B238" s="31"/>
+      <c r="B238" s="32"/>
     </row>
     <row r="239">
-      <c r="B239" s="31"/>
+      <c r="B239" s="32"/>
     </row>
     <row r="240">
-      <c r="B240" s="31"/>
+      <c r="B240" s="32"/>
     </row>
     <row r="241">
-      <c r="B241" s="31"/>
+      <c r="B241" s="32"/>
     </row>
     <row r="242">
-      <c r="B242" s="31"/>
+      <c r="B242" s="32"/>
     </row>
     <row r="243">
-      <c r="B243" s="31"/>
+      <c r="B243" s="32"/>
     </row>
     <row r="244">
-      <c r="B244" s="31"/>
+      <c r="B244" s="32"/>
     </row>
     <row r="245">
-      <c r="B245" s="31"/>
+      <c r="B245" s="32"/>
     </row>
     <row r="246">
-      <c r="B246" s="31"/>
+      <c r="B246" s="32"/>
     </row>
     <row r="247">
-      <c r="B247" s="31"/>
+      <c r="B247" s="32"/>
     </row>
     <row r="248">
-      <c r="B248" s="31"/>
+      <c r="B248" s="32"/>
     </row>
     <row r="249">
-      <c r="B249" s="31"/>
+      <c r="B249" s="32"/>
     </row>
     <row r="250">
-      <c r="B250" s="31"/>
+      <c r="B250" s="32"/>
     </row>
     <row r="251">
-      <c r="B251" s="31"/>
+      <c r="B251" s="32"/>
     </row>
     <row r="252">
-      <c r="B252" s="31"/>
+      <c r="B252" s="32"/>
     </row>
     <row r="253">
-      <c r="B253" s="31"/>
+      <c r="B253" s="32"/>
     </row>
     <row r="254">
-      <c r="B254" s="31"/>
+      <c r="B254" s="32"/>
     </row>
     <row r="255">
-      <c r="B255" s="31"/>
+      <c r="B255" s="32"/>
     </row>
     <row r="256">
-      <c r="B256" s="31"/>
+      <c r="B256" s="32"/>
     </row>
     <row r="257">
-      <c r="B257" s="31"/>
+      <c r="B257" s="32"/>
     </row>
     <row r="258">
-      <c r="B258" s="31"/>
+      <c r="B258" s="32"/>
     </row>
     <row r="259">
-      <c r="B259" s="31"/>
+      <c r="B259" s="32"/>
     </row>
     <row r="260">
-      <c r="B260" s="31"/>
+      <c r="B260" s="32"/>
     </row>
     <row r="261">
-      <c r="B261" s="31"/>
+      <c r="B261" s="32"/>
     </row>
     <row r="262">
-      <c r="B262" s="31"/>
+      <c r="B262" s="32"/>
     </row>
     <row r="263">
-      <c r="B263" s="31"/>
+      <c r="B263" s="32"/>
     </row>
     <row r="264">
-      <c r="B264" s="31"/>
+      <c r="B264" s="32"/>
     </row>
     <row r="265">
-      <c r="B265" s="31"/>
+      <c r="B265" s="32"/>
     </row>
     <row r="266">
-      <c r="B266" s="31"/>
+      <c r="B266" s="32"/>
     </row>
     <row r="267">
-      <c r="B267" s="31"/>
+      <c r="B267" s="32"/>
     </row>
     <row r="268">
-      <c r="B268" s="31"/>
+      <c r="B268" s="32"/>
     </row>
     <row r="269">
-      <c r="B269" s="31"/>
+      <c r="B269" s="32"/>
     </row>
     <row r="270">
-      <c r="B270" s="31"/>
+      <c r="B270" s="32"/>
     </row>
     <row r="271">
-      <c r="B271" s="31"/>
+      <c r="B271" s="32"/>
     </row>
     <row r="272">
-      <c r="B272" s="31"/>
+      <c r="B272" s="32"/>
     </row>
     <row r="273">
-      <c r="B273" s="31"/>
+      <c r="B273" s="32"/>
     </row>
     <row r="274">
-      <c r="B274" s="31"/>
+      <c r="B274" s="32"/>
     </row>
     <row r="275">
-      <c r="B275" s="31"/>
+      <c r="B275" s="32"/>
     </row>
     <row r="276">
-      <c r="B276" s="31"/>
+      <c r="B276" s="32"/>
     </row>
     <row r="277">
-      <c r="B277" s="31"/>
+      <c r="B277" s="32"/>
     </row>
     <row r="278">
-      <c r="B278" s="31"/>
+      <c r="B278" s="32"/>
     </row>
     <row r="279">
-      <c r="B279" s="31"/>
+      <c r="B279" s="32"/>
     </row>
     <row r="280">
-      <c r="B280" s="31"/>
+      <c r="B280" s="32"/>
     </row>
     <row r="281">
-      <c r="B281" s="31"/>
+      <c r="B281" s="32"/>
     </row>
     <row r="282">
-      <c r="B282" s="31"/>
+      <c r="B282" s="32"/>
     </row>
     <row r="283">
-      <c r="B283" s="31"/>
+      <c r="B283" s="32"/>
     </row>
     <row r="284">
-      <c r="B284" s="31"/>
+      <c r="B284" s="32"/>
     </row>
     <row r="285">
-      <c r="B285" s="31"/>
+      <c r="B285" s="32"/>
     </row>
     <row r="286">
-      <c r="B286" s="31"/>
+      <c r="B286" s="32"/>
     </row>
     <row r="287">
-      <c r="B287" s="31"/>
+      <c r="B287" s="32"/>
     </row>
     <row r="288">
-      <c r="B288" s="31"/>
+      <c r="B288" s="32"/>
     </row>
     <row r="289">
-      <c r="B289" s="31"/>
+      <c r="B289" s="32"/>
     </row>
     <row r="290">
-      <c r="B290" s="31"/>
+      <c r="B290" s="32"/>
     </row>
     <row r="291">
-      <c r="B291" s="31"/>
+      <c r="B291" s="32"/>
     </row>
     <row r="292">
-      <c r="B292" s="31"/>
+      <c r="B292" s="32"/>
     </row>
     <row r="293">
-      <c r="B293" s="31"/>
+      <c r="B293" s="32"/>
     </row>
     <row r="294">
-      <c r="B294" s="31"/>
+      <c r="B294" s="32"/>
     </row>
     <row r="295">
-      <c r="B295" s="31"/>
+      <c r="B295" s="32"/>
     </row>
     <row r="296">
-      <c r="B296" s="31"/>
+      <c r="B296" s="32"/>
     </row>
     <row r="297">
-      <c r="B297" s="31"/>
+      <c r="B297" s="32"/>
     </row>
     <row r="298">
-      <c r="B298" s="31"/>
+      <c r="B298" s="32"/>
     </row>
     <row r="299">
-      <c r="B299" s="31"/>
+      <c r="B299" s="32"/>
     </row>
     <row r="300">
-      <c r="B300" s="31"/>
+      <c r="B300" s="32"/>
     </row>
     <row r="301">
-      <c r="B301" s="31"/>
+      <c r="B301" s="32"/>
     </row>
     <row r="302">
-      <c r="B302" s="31"/>
+      <c r="B302" s="32"/>
     </row>
     <row r="303">
-      <c r="B303" s="31"/>
+      <c r="B303" s="32"/>
     </row>
     <row r="304">
-      <c r="B304" s="31"/>
+      <c r="B304" s="32"/>
     </row>
     <row r="305">
-      <c r="B305" s="31"/>
+      <c r="B305" s="32"/>
     </row>
     <row r="306">
-      <c r="B306" s="31"/>
+      <c r="B306" s="32"/>
     </row>
     <row r="307">
-      <c r="B307" s="31"/>
+      <c r="B307" s="32"/>
     </row>
     <row r="308">
-      <c r="B308" s="31"/>
+      <c r="B308" s="32"/>
     </row>
     <row r="309">
-      <c r="B309" s="31"/>
+      <c r="B309" s="32"/>
     </row>
     <row r="310">
-      <c r="B310" s="31"/>
+      <c r="B310" s="32"/>
     </row>
     <row r="311">
-      <c r="B311" s="31"/>
+      <c r="B311" s="32"/>
     </row>
     <row r="312">
-      <c r="B312" s="31"/>
+      <c r="B312" s="32"/>
     </row>
     <row r="313">
-      <c r="B313" s="31"/>
+      <c r="B313" s="32"/>
     </row>
     <row r="314">
-      <c r="B314" s="31"/>
+      <c r="B314" s="32"/>
     </row>
     <row r="315">
-      <c r="B315" s="31"/>
+      <c r="B315" s="32"/>
     </row>
     <row r="316">
-      <c r="B316" s="31"/>
+      <c r="B316" s="32"/>
     </row>
     <row r="317">
-      <c r="B317" s="31"/>
+      <c r="B317" s="32"/>
     </row>
     <row r="318">
-      <c r="B318" s="31"/>
+      <c r="B318" s="32"/>
     </row>
     <row r="319">
-      <c r="B319" s="31"/>
+      <c r="B319" s="32"/>
     </row>
     <row r="320">
-      <c r="B320" s="31"/>
+      <c r="B320" s="32"/>
     </row>
     <row r="321">
-      <c r="B321" s="31"/>
+      <c r="B321" s="32"/>
     </row>
     <row r="322">
-      <c r="B322" s="31"/>
+      <c r="B322" s="32"/>
     </row>
     <row r="323">
-      <c r="B323" s="31"/>
+      <c r="B323" s="32"/>
     </row>
     <row r="324">
-      <c r="B324" s="31"/>
+      <c r="B324" s="32"/>
     </row>
     <row r="325">
-      <c r="B325" s="31"/>
+      <c r="B325" s="32"/>
     </row>
     <row r="326">
-      <c r="B326" s="31"/>
+      <c r="B326" s="32"/>
     </row>
     <row r="327">
-      <c r="B327" s="31"/>
+      <c r="B327" s="32"/>
     </row>
     <row r="328">
-      <c r="B328" s="31"/>
+      <c r="B328" s="32"/>
     </row>
     <row r="329">
-      <c r="B329" s="31"/>
+      <c r="B329" s="32"/>
     </row>
     <row r="330">
-      <c r="B330" s="31"/>
+      <c r="B330" s="32"/>
     </row>
     <row r="331">
-      <c r="B331" s="31"/>
+      <c r="B331" s="32"/>
     </row>
     <row r="332">
-      <c r="B332" s="31"/>
+      <c r="B332" s="32"/>
     </row>
     <row r="333">
-      <c r="B333" s="31"/>
+      <c r="B333" s="32"/>
     </row>
     <row r="334">
-      <c r="B334" s="31"/>
+      <c r="B334" s="32"/>
     </row>
     <row r="335">
-      <c r="B335" s="31"/>
+      <c r="B335" s="32"/>
     </row>
     <row r="336">
-      <c r="B336" s="31"/>
+      <c r="B336" s="32"/>
     </row>
     <row r="337">
-      <c r="B337" s="31"/>
+      <c r="B337" s="32"/>
     </row>
     <row r="338">
-      <c r="B338" s="31"/>
+      <c r="B338" s="32"/>
     </row>
     <row r="339">
-      <c r="B339" s="31"/>
+      <c r="B339" s="32"/>
     </row>
     <row r="340">
-      <c r="B340" s="31"/>
+      <c r="B340" s="32"/>
     </row>
     <row r="341">
-      <c r="B341" s="31"/>
+      <c r="B341" s="32"/>
     </row>
     <row r="342">
-      <c r="B342" s="31"/>
+      <c r="B342" s="32"/>
     </row>
     <row r="343">
-      <c r="B343" s="31"/>
+      <c r="B343" s="32"/>
     </row>
     <row r="344">
-      <c r="B344" s="31"/>
+      <c r="B344" s="32"/>
     </row>
     <row r="345">
-      <c r="B345" s="31"/>
+      <c r="B345" s="32"/>
     </row>
     <row r="346">
-      <c r="B346" s="31"/>
+      <c r="B346" s="32"/>
     </row>
     <row r="347">
-      <c r="B347" s="31"/>
+      <c r="B347" s="32"/>
     </row>
     <row r="348">
-      <c r="B348" s="31"/>
+      <c r="B348" s="32"/>
     </row>
     <row r="349">
-      <c r="B349" s="31"/>
+      <c r="B349" s="32"/>
     </row>
     <row r="350">
-      <c r="B350" s="31"/>
+      <c r="B350" s="32"/>
     </row>
     <row r="351">
-      <c r="B351" s="31"/>
+      <c r="B351" s="32"/>
     </row>
     <row r="352">
-      <c r="B352" s="31"/>
+      <c r="B352" s="32"/>
     </row>
     <row r="353">
-      <c r="B353" s="31"/>
+      <c r="B353" s="32"/>
     </row>
     <row r="354">
-      <c r="B354" s="31"/>
+      <c r="B354" s="32"/>
     </row>
     <row r="355">
-      <c r="B355" s="31"/>
+      <c r="B355" s="32"/>
     </row>
     <row r="356">
-      <c r="B356" s="31"/>
+      <c r="B356" s="32"/>
     </row>
     <row r="357">
-      <c r="B357" s="31"/>
+      <c r="B357" s="32"/>
     </row>
     <row r="358">
-      <c r="B358" s="31"/>
+      <c r="B358" s="32"/>
     </row>
     <row r="359">
-      <c r="B359" s="31"/>
+      <c r="B359" s="32"/>
     </row>
     <row r="360">
-      <c r="B360" s="31"/>
+      <c r="B360" s="32"/>
     </row>
     <row r="361">
-      <c r="B361" s="31"/>
+      <c r="B361" s="32"/>
     </row>
     <row r="362">
-      <c r="B362" s="31"/>
+      <c r="B362" s="32"/>
     </row>
     <row r="363">
-      <c r="B363" s="31"/>
+      <c r="B363" s="32"/>
     </row>
     <row r="364">
-      <c r="B364" s="31"/>
+      <c r="B364" s="32"/>
     </row>
     <row r="365">
-      <c r="B365" s="31"/>
+      <c r="B365" s="32"/>
     </row>
     <row r="366">
-      <c r="B366" s="31"/>
+      <c r="B366" s="32"/>
     </row>
     <row r="367">
-      <c r="B367" s="31"/>
+      <c r="B367" s="32"/>
     </row>
     <row r="368">
-      <c r="B368" s="31"/>
+      <c r="B368" s="32"/>
     </row>
     <row r="369">
-      <c r="B369" s="31"/>
+      <c r="B369" s="32"/>
     </row>
     <row r="370">
-      <c r="B370" s="31"/>
+      <c r="B370" s="32"/>
     </row>
     <row r="371">
-      <c r="B371" s="31"/>
+      <c r="B371" s="32"/>
     </row>
     <row r="372">
-      <c r="B372" s="31"/>
+      <c r="B372" s="32"/>
     </row>
     <row r="373">
-      <c r="B373" s="31"/>
+      <c r="B373" s="32"/>
     </row>
     <row r="374">
-      <c r="B374" s="31"/>
+      <c r="B374" s="32"/>
     </row>
     <row r="375">
-      <c r="B375" s="31"/>
+      <c r="B375" s="32"/>
     </row>
     <row r="376">
-      <c r="B376" s="31"/>
+      <c r="B376" s="32"/>
     </row>
     <row r="377">
-      <c r="B377" s="31"/>
+      <c r="B377" s="32"/>
     </row>
     <row r="378">
-      <c r="B378" s="31"/>
+      <c r="B378" s="32"/>
     </row>
     <row r="379">
-      <c r="B379" s="31"/>
+      <c r="B379" s="32"/>
     </row>
     <row r="380">
-      <c r="B380" s="31"/>
+      <c r="B380" s="32"/>
     </row>
     <row r="381">
-      <c r="B381" s="31"/>
+      <c r="B381" s="32"/>
     </row>
     <row r="382">
-      <c r="B382" s="31"/>
+      <c r="B382" s="32"/>
     </row>
     <row r="383">
-      <c r="B383" s="31"/>
+      <c r="B383" s="32"/>
     </row>
     <row r="384">
-      <c r="B384" s="31"/>
+      <c r="B384" s="32"/>
     </row>
     <row r="385">
-      <c r="B385" s="31"/>
+      <c r="B385" s="32"/>
     </row>
     <row r="386">
-      <c r="B386" s="31"/>
+      <c r="B386" s="32"/>
     </row>
     <row r="387">
-      <c r="B387" s="31"/>
+      <c r="B387" s="32"/>
     </row>
     <row r="388">
-      <c r="B388" s="31"/>
+      <c r="B388" s="32"/>
     </row>
     <row r="389">
-      <c r="B389" s="31"/>
+      <c r="B389" s="32"/>
     </row>
     <row r="390">
-      <c r="B390" s="31"/>
+      <c r="B390" s="32"/>
     </row>
     <row r="391">
-      <c r="B391" s="31"/>
+      <c r="B391" s="32"/>
     </row>
     <row r="392">
-      <c r="B392" s="31"/>
+      <c r="B392" s="32"/>
     </row>
     <row r="393">
-      <c r="B393" s="31"/>
+      <c r="B393" s="32"/>
     </row>
     <row r="394">
-      <c r="B394" s="31"/>
+      <c r="B394" s="32"/>
     </row>
     <row r="395">
-      <c r="B395" s="31"/>
+      <c r="B395" s="32"/>
     </row>
     <row r="396">
-      <c r="B396" s="31"/>
+      <c r="B396" s="32"/>
     </row>
     <row r="397">
-      <c r="B397" s="31"/>
+      <c r="B397" s="32"/>
     </row>
     <row r="398">
-      <c r="B398" s="31"/>
+      <c r="B398" s="32"/>
     </row>
     <row r="399">
-      <c r="B399" s="31"/>
+      <c r="B399" s="32"/>
     </row>
     <row r="400">
-      <c r="B400" s="31"/>
+      <c r="B400" s="32"/>
     </row>
     <row r="401">
-      <c r="B401" s="31"/>
+      <c r="B401" s="32"/>
     </row>
     <row r="402">
-      <c r="B402" s="31"/>
+      <c r="B402" s="32"/>
     </row>
     <row r="403">
-      <c r="B403" s="31"/>
+      <c r="B403" s="32"/>
     </row>
     <row r="404">
-      <c r="B404" s="31"/>
+      <c r="B404" s="32"/>
     </row>
     <row r="405">
-      <c r="B405" s="31"/>
+      <c r="B405" s="32"/>
     </row>
     <row r="406">
-      <c r="B406" s="31"/>
+      <c r="B406" s="32"/>
     </row>
     <row r="407">
-      <c r="B407" s="31"/>
+      <c r="B407" s="32"/>
     </row>
     <row r="408">
-      <c r="B408" s="31"/>
+      <c r="B408" s="32"/>
     </row>
     <row r="409">
-      <c r="B409" s="31"/>
+      <c r="B409" s="32"/>
     </row>
     <row r="410">
-      <c r="B410" s="31"/>
+      <c r="B410" s="32"/>
     </row>
     <row r="411">
-      <c r="B411" s="31"/>
+      <c r="B411" s="32"/>
     </row>
     <row r="412">
-      <c r="B412" s="31"/>
+      <c r="B412" s="32"/>
     </row>
     <row r="413">
-      <c r="B413" s="31"/>
+      <c r="B413" s="32"/>
     </row>
     <row r="414">
-      <c r="B414" s="31"/>
+      <c r="B414" s="32"/>
     </row>
     <row r="415">
-      <c r="B415" s="31"/>
+      <c r="B415" s="32"/>
     </row>
     <row r="416">
-      <c r="B416" s="31"/>
+      <c r="B416" s="32"/>
     </row>
     <row r="417">
-      <c r="B417" s="31"/>
+      <c r="B417" s="32"/>
     </row>
     <row r="418">
-      <c r="B418" s="31"/>
+      <c r="B418" s="32"/>
     </row>
     <row r="419">
-      <c r="B419" s="31"/>
+      <c r="B419" s="32"/>
     </row>
     <row r="420">
-      <c r="B420" s="31"/>
+      <c r="B420" s="32"/>
     </row>
     <row r="421">
-      <c r="B421" s="31"/>
+      <c r="B421" s="32"/>
     </row>
     <row r="422">
-      <c r="B422" s="31"/>
+      <c r="B422" s="32"/>
     </row>
     <row r="423">
-      <c r="B423" s="31"/>
+      <c r="B423" s="32"/>
     </row>
     <row r="424">
-      <c r="B424" s="31"/>
+      <c r="B424" s="32"/>
     </row>
     <row r="425">
-      <c r="B425" s="31"/>
+      <c r="B425" s="32"/>
     </row>
     <row r="426">
-      <c r="B426" s="31"/>
+      <c r="B426" s="32"/>
     </row>
     <row r="427">
-      <c r="B427" s="31"/>
+      <c r="B427" s="32"/>
     </row>
     <row r="428">
-      <c r="B428" s="31"/>
+      <c r="B428" s="32"/>
     </row>
     <row r="429">
-      <c r="B429" s="31"/>
+      <c r="B429" s="32"/>
     </row>
     <row r="430">
-      <c r="B430" s="31"/>
+      <c r="B430" s="32"/>
     </row>
     <row r="431">
-      <c r="B431" s="31"/>
+      <c r="B431" s="32"/>
     </row>
     <row r="432">
-      <c r="B432" s="31"/>
+      <c r="B432" s="32"/>
     </row>
     <row r="433">
-      <c r="B433" s="31"/>
+      <c r="B433" s="32"/>
     </row>
     <row r="434">
-      <c r="B434" s="31"/>
+      <c r="B434" s="32"/>
     </row>
     <row r="435">
-      <c r="B435" s="31"/>
+      <c r="B435" s="32"/>
     </row>
     <row r="436">
-      <c r="B436" s="31"/>
+      <c r="B436" s="32"/>
     </row>
     <row r="437">
-      <c r="B437" s="31"/>
+      <c r="B437" s="32"/>
     </row>
     <row r="438">
-      <c r="B438" s="31"/>
+      <c r="B438" s="32"/>
     </row>
     <row r="439">
-      <c r="B439" s="31"/>
+      <c r="B439" s="32"/>
     </row>
     <row r="440">
-      <c r="B440" s="31"/>
+      <c r="B440" s="32"/>
     </row>
     <row r="441">
-      <c r="B441" s="31"/>
+      <c r="B441" s="32"/>
     </row>
     <row r="442">
-      <c r="B442" s="31"/>
+      <c r="B442" s="32"/>
     </row>
     <row r="443">
-      <c r="B443" s="31"/>
+      <c r="B443" s="32"/>
     </row>
     <row r="444">
-      <c r="B444" s="31"/>
+      <c r="B444" s="32"/>
     </row>
     <row r="445">
-      <c r="B445" s="31"/>
+      <c r="B445" s="32"/>
     </row>
     <row r="446">
-      <c r="B446" s="31"/>
+      <c r="B446" s="32"/>
     </row>
     <row r="447">
-      <c r="B447" s="31"/>
+      <c r="B447" s="32"/>
     </row>
     <row r="448">
-      <c r="B448" s="31"/>
+      <c r="B448" s="32"/>
     </row>
     <row r="449">
-      <c r="B449" s="31"/>
+      <c r="B449" s="32"/>
     </row>
     <row r="450">
-      <c r="B450" s="31"/>
+      <c r="B450" s="32"/>
     </row>
     <row r="451">
-      <c r="B451" s="31"/>
+      <c r="B451" s="32"/>
     </row>
     <row r="452">
-      <c r="B452" s="31"/>
+      <c r="B452" s="32"/>
     </row>
     <row r="453">
-      <c r="B453" s="31"/>
+      <c r="B453" s="32"/>
     </row>
     <row r="454">
-      <c r="B454" s="31"/>
+      <c r="B454" s="32"/>
     </row>
     <row r="455">
-      <c r="B455" s="31"/>
+      <c r="B455" s="32"/>
     </row>
     <row r="456">
-      <c r="B456" s="31"/>
+      <c r="B456" s="32"/>
     </row>
     <row r="457">
-      <c r="B457" s="31"/>
+      <c r="B457" s="32"/>
     </row>
     <row r="458">
-      <c r="B458" s="31"/>
+      <c r="B458" s="32"/>
     </row>
     <row r="459">
-      <c r="B459" s="31"/>
+      <c r="B459" s="32"/>
     </row>
     <row r="460">
-      <c r="B460" s="31"/>
+      <c r="B460" s="32"/>
     </row>
     <row r="461">
-      <c r="B461" s="31"/>
+      <c r="B461" s="32"/>
     </row>
     <row r="462">
-      <c r="B462" s="31"/>
+      <c r="B462" s="32"/>
     </row>
     <row r="463">
-      <c r="B463" s="31"/>
+      <c r="B463" s="32"/>
     </row>
     <row r="464">
-      <c r="B464" s="31"/>
+      <c r="B464" s="32"/>
     </row>
     <row r="465">
-      <c r="B465" s="31"/>
+      <c r="B465" s="32"/>
     </row>
     <row r="466">
-      <c r="B466" s="31"/>
+      <c r="B466" s="32"/>
     </row>
     <row r="467">
-      <c r="B467" s="31"/>
+      <c r="B467" s="32"/>
     </row>
     <row r="468">
-      <c r="B468" s="31"/>
+      <c r="B468" s="32"/>
     </row>
     <row r="469">
-      <c r="B469" s="31"/>
+      <c r="B469" s="32"/>
     </row>
     <row r="470">
-      <c r="B470" s="31"/>
+      <c r="B470" s="32"/>
     </row>
     <row r="471">
-      <c r="B471" s="31"/>
+      <c r="B471" s="32"/>
     </row>
     <row r="472">
-      <c r="B472" s="31"/>
+      <c r="B472" s="32"/>
     </row>
     <row r="473">
-      <c r="B473" s="31"/>
+      <c r="B473" s="32"/>
     </row>
     <row r="474">
-      <c r="B474" s="31"/>
+      <c r="B474" s="32"/>
     </row>
     <row r="475">
-      <c r="B475" s="31"/>
+      <c r="B475" s="32"/>
     </row>
     <row r="476">
-      <c r="B476" s="31"/>
+      <c r="B476" s="32"/>
     </row>
     <row r="477">
-      <c r="B477" s="31"/>
+      <c r="B477" s="32"/>
     </row>
     <row r="478">
-      <c r="B478" s="31"/>
+      <c r="B478" s="32"/>
     </row>
     <row r="479">
-      <c r="B479" s="31"/>
+      <c r="B479" s="32"/>
     </row>
     <row r="480">
-      <c r="B480" s="31"/>
+      <c r="B480" s="32"/>
     </row>
     <row r="481">
-      <c r="B481" s="31"/>
+      <c r="B481" s="32"/>
     </row>
     <row r="482">
-      <c r="B482" s="31"/>
+      <c r="B482" s="32"/>
     </row>
     <row r="483">
-      <c r="B483" s="31"/>
+      <c r="B483" s="32"/>
     </row>
     <row r="484">
-      <c r="B484" s="31"/>
+      <c r="B484" s="32"/>
     </row>
     <row r="485">
-      <c r="B485" s="31"/>
+      <c r="B485" s="32"/>
     </row>
     <row r="486">
-      <c r="B486" s="31"/>
+      <c r="B486" s="32"/>
     </row>
     <row r="487">
-      <c r="B487" s="31"/>
+      <c r="B487" s="32"/>
     </row>
     <row r="488">
-      <c r="B488" s="31"/>
+      <c r="B488" s="32"/>
     </row>
     <row r="489">
-      <c r="B489" s="31"/>
+      <c r="B489" s="32"/>
     </row>
     <row r="490">
-      <c r="B490" s="31"/>
+      <c r="B490" s="32"/>
     </row>
     <row r="491">
-      <c r="B491" s="31"/>
+      <c r="B491" s="32"/>
     </row>
     <row r="492">
-      <c r="B492" s="31"/>
+      <c r="B492" s="32"/>
     </row>
     <row r="493">
-      <c r="B493" s="31"/>
+      <c r="B493" s="32"/>
     </row>
     <row r="494">
-      <c r="B494" s="31"/>
+      <c r="B494" s="32"/>
     </row>
     <row r="495">
-      <c r="B495" s="31"/>
+      <c r="B495" s="32"/>
     </row>
     <row r="496">
-      <c r="B496" s="31"/>
+      <c r="B496" s="32"/>
     </row>
     <row r="497">
-      <c r="B497" s="31"/>
+      <c r="B497" s="32"/>
     </row>
     <row r="498">
-      <c r="B498" s="31"/>
+      <c r="B498" s="32"/>
     </row>
     <row r="499">
-      <c r="B499" s="31"/>
+      <c r="B499" s="32"/>
     </row>
     <row r="500">
-      <c r="B500" s="31"/>
+      <c r="B500" s="32"/>
     </row>
     <row r="501">
-      <c r="B501" s="31"/>
+      <c r="B501" s="32"/>
     </row>
     <row r="502">
-      <c r="B502" s="31"/>
+      <c r="B502" s="32"/>
     </row>
     <row r="503">
-      <c r="B503" s="31"/>
+      <c r="B503" s="32"/>
     </row>
     <row r="504">
-      <c r="B504" s="31"/>
+      <c r="B504" s="32"/>
     </row>
     <row r="505">
-      <c r="B505" s="31"/>
+      <c r="B505" s="32"/>
     </row>
     <row r="506">
-      <c r="B506" s="31"/>
+      <c r="B506" s="32"/>
     </row>
     <row r="507">
-      <c r="B507" s="31"/>
+      <c r="B507" s="32"/>
     </row>
     <row r="508">
-      <c r="B508" s="31"/>
+      <c r="B508" s="32"/>
     </row>
     <row r="509">
-      <c r="B509" s="31"/>
+      <c r="B509" s="32"/>
     </row>
     <row r="510">
-      <c r="B510" s="31"/>
+      <c r="B510" s="32"/>
     </row>
     <row r="511">
-      <c r="B511" s="31"/>
+      <c r="B511" s="32"/>
     </row>
     <row r="512">
-      <c r="B512" s="31"/>
+      <c r="B512" s="32"/>
     </row>
     <row r="513">
-      <c r="B513" s="31"/>
+      <c r="B513" s="32"/>
     </row>
     <row r="514">
-      <c r="B514" s="31"/>
+      <c r="B514" s="32"/>
     </row>
     <row r="515">
-      <c r="B515" s="31"/>
+      <c r="B515" s="32"/>
     </row>
     <row r="516">
-      <c r="B516" s="31"/>
+      <c r="B516" s="32"/>
     </row>
     <row r="517">
-      <c r="B517" s="31"/>
+      <c r="B517" s="32"/>
     </row>
     <row r="518">
-      <c r="B518" s="31"/>
+      <c r="B518" s="32"/>
     </row>
     <row r="519">
-      <c r="B519" s="31"/>
+      <c r="B519" s="32"/>
     </row>
     <row r="520">
-      <c r="B520" s="31"/>
+      <c r="B520" s="32"/>
     </row>
     <row r="521">
-      <c r="B521" s="31"/>
+      <c r="B521" s="32"/>
     </row>
     <row r="522">
-      <c r="B522" s="31"/>
+      <c r="B522" s="32"/>
     </row>
     <row r="523">
-      <c r="B523" s="31"/>
+      <c r="B523" s="32"/>
     </row>
     <row r="524">
-      <c r="B524" s="31"/>
+      <c r="B524" s="32"/>
     </row>
     <row r="525">
-      <c r="B525" s="31"/>
+      <c r="B525" s="32"/>
     </row>
     <row r="526">
-      <c r="B526" s="31"/>
+      <c r="B526" s="32"/>
     </row>
     <row r="527">
-      <c r="B527" s="31"/>
+      <c r="B527" s="32"/>
     </row>
     <row r="528">
-      <c r="B528" s="31"/>
+      <c r="B528" s="32"/>
     </row>
     <row r="529">
-      <c r="B529" s="31"/>
+      <c r="B529" s="32"/>
     </row>
     <row r="530">
-      <c r="B530" s="31"/>
+      <c r="B530" s="32"/>
     </row>
     <row r="531">
-      <c r="B531" s="31"/>
+      <c r="B531" s="32"/>
     </row>
     <row r="532">
-      <c r="B532" s="31"/>
+      <c r="B532" s="32"/>
     </row>
     <row r="533">
-      <c r="B533" s="31"/>
+      <c r="B533" s="32"/>
     </row>
     <row r="534">
-      <c r="B534" s="31"/>
+      <c r="B534" s="32"/>
     </row>
     <row r="535">
-      <c r="B535" s="31"/>
+      <c r="B535" s="32"/>
     </row>
     <row r="536">
-      <c r="B536" s="31"/>
+      <c r="B536" s="32"/>
     </row>
     <row r="537">
-      <c r="B537" s="31"/>
+      <c r="B537" s="32"/>
     </row>
     <row r="538">
-      <c r="B538" s="31"/>
+      <c r="B538" s="32"/>
     </row>
     <row r="539">
-      <c r="B539" s="31"/>
+      <c r="B539" s="32"/>
     </row>
     <row r="540">
-      <c r="B540" s="31"/>
+      <c r="B540" s="32"/>
     </row>
     <row r="541">
-      <c r="B541" s="31"/>
+      <c r="B541" s="32"/>
     </row>
     <row r="542">
-      <c r="B542" s="31"/>
+      <c r="B542" s="32"/>
     </row>
     <row r="543">
-      <c r="B543" s="31"/>
+      <c r="B543" s="32"/>
     </row>
     <row r="544">
-      <c r="B544" s="31"/>
+      <c r="B544" s="32"/>
     </row>
     <row r="545">
-      <c r="B545" s="31"/>
+      <c r="B545" s="32"/>
     </row>
     <row r="546">
-      <c r="B546" s="31"/>
+      <c r="B546" s="32"/>
     </row>
     <row r="547">
-      <c r="B547" s="31"/>
+      <c r="B547" s="32"/>
     </row>
     <row r="548">
-      <c r="B548" s="31"/>
+      <c r="B548" s="32"/>
     </row>
     <row r="549">
-      <c r="B549" s="31"/>
+      <c r="B549" s="32"/>
     </row>
     <row r="550">
-      <c r="B550" s="31"/>
+      <c r="B550" s="32"/>
     </row>
     <row r="551">
-      <c r="B551" s="31"/>
+      <c r="B551" s="32"/>
     </row>
     <row r="552">
-      <c r="B552" s="31"/>
+      <c r="B552" s="32"/>
     </row>
     <row r="553">
-      <c r="B553" s="31"/>
+      <c r="B553" s="32"/>
     </row>
     <row r="554">
-      <c r="B554" s="31"/>
+      <c r="B554" s="32"/>
     </row>
     <row r="555">
-      <c r="B555" s="31"/>
+      <c r="B555" s="32"/>
     </row>
     <row r="556">
-      <c r="B556" s="31"/>
+      <c r="B556" s="32"/>
     </row>
     <row r="557">
-      <c r="B557" s="31"/>
+      <c r="B557" s="32"/>
     </row>
     <row r="558">
-      <c r="B558" s="31"/>
+      <c r="B558" s="32"/>
     </row>
     <row r="559">
-      <c r="B559" s="31"/>
+      <c r="B559" s="32"/>
     </row>
     <row r="560">
-      <c r="B560" s="31"/>
+      <c r="B560" s="32"/>
     </row>
     <row r="561">
-      <c r="B561" s="31"/>
+      <c r="B561" s="32"/>
     </row>
     <row r="562">
-      <c r="B562" s="31"/>
+      <c r="B562" s="32"/>
     </row>
     <row r="563">
-      <c r="B563" s="31"/>
+      <c r="B563" s="32"/>
     </row>
     <row r="564">
-      <c r="B564" s="31"/>
+      <c r="B564" s="32"/>
     </row>
     <row r="565">
-      <c r="B565" s="31"/>
+      <c r="B565" s="32"/>
     </row>
     <row r="566">
-      <c r="B566" s="31"/>
+      <c r="B566" s="32"/>
     </row>
     <row r="567">
-      <c r="B567" s="31"/>
+      <c r="B567" s="32"/>
     </row>
     <row r="568">
-      <c r="B568" s="31"/>
+      <c r="B568" s="32"/>
     </row>
     <row r="569">
-      <c r="B569" s="31"/>
+      <c r="B569" s="32"/>
     </row>
     <row r="570">
-      <c r="B570" s="31"/>
+      <c r="B570" s="32"/>
     </row>
     <row r="571">
-      <c r="B571" s="31"/>
+      <c r="B571" s="32"/>
     </row>
     <row r="572">
-      <c r="B572" s="31"/>
+      <c r="B572" s="32"/>
     </row>
     <row r="573">
-      <c r="B573" s="31"/>
+      <c r="B573" s="32"/>
     </row>
     <row r="574">
-      <c r="B574" s="31"/>
+      <c r="B574" s="32"/>
     </row>
     <row r="575">
-      <c r="B575" s="31"/>
+      <c r="B575" s="32"/>
     </row>
     <row r="576">
-      <c r="B576" s="31"/>
+      <c r="B576" s="32"/>
     </row>
     <row r="577">
-      <c r="B577" s="31"/>
+      <c r="B577" s="32"/>
     </row>
     <row r="578">
-      <c r="B578" s="31"/>
+      <c r="B578" s="32"/>
     </row>
     <row r="579">
-      <c r="B579" s="31"/>
+      <c r="B579" s="32"/>
     </row>
     <row r="580">
-      <c r="B580" s="31"/>
+      <c r="B580" s="32"/>
     </row>
     <row r="581">
-      <c r="B581" s="31"/>
+      <c r="B581" s="32"/>
     </row>
     <row r="582">
-      <c r="B582" s="31"/>
+      <c r="B582" s="32"/>
     </row>
     <row r="583">
-      <c r="B583" s="31"/>
+      <c r="B583" s="32"/>
     </row>
     <row r="584">
-      <c r="B584" s="31"/>
+      <c r="B584" s="32"/>
     </row>
     <row r="585">
-      <c r="B585" s="31"/>
+      <c r="B585" s="32"/>
     </row>
     <row r="586">
-      <c r="B586" s="31"/>
+      <c r="B586" s="32"/>
     </row>
     <row r="587">
-      <c r="B587" s="31"/>
+      <c r="B587" s="32"/>
     </row>
     <row r="588">
-      <c r="B588" s="31"/>
+      <c r="B588" s="32"/>
     </row>
     <row r="589">
-      <c r="B589" s="31"/>
+      <c r="B589" s="32"/>
     </row>
     <row r="590">
-      <c r="B590" s="31"/>
+      <c r="B590" s="32"/>
     </row>
     <row r="591">
-      <c r="B591" s="31"/>
+      <c r="B591" s="32"/>
     </row>
     <row r="592">
-      <c r="B592" s="31"/>
+      <c r="B592" s="32"/>
     </row>
     <row r="593">
-      <c r="B593" s="31"/>
+      <c r="B593" s="32"/>
     </row>
     <row r="594">
-      <c r="B594" s="31"/>
+      <c r="B594" s="32"/>
     </row>
     <row r="595">
-      <c r="B595" s="31"/>
+      <c r="B595" s="32"/>
     </row>
     <row r="596">
-      <c r="B596" s="31"/>
+      <c r="B596" s="32"/>
     </row>
     <row r="597">
-      <c r="B597" s="31"/>
+      <c r="B597" s="32"/>
     </row>
     <row r="598">
-      <c r="B598" s="31"/>
+      <c r="B598" s="32"/>
     </row>
     <row r="599">
-      <c r="B599" s="31"/>
+      <c r="B599" s="32"/>
     </row>
     <row r="600">
-      <c r="B600" s="31"/>
+      <c r="B600" s="32"/>
     </row>
     <row r="601">
-      <c r="B601" s="31"/>
+      <c r="B601" s="32"/>
     </row>
     <row r="602">
-      <c r="B602" s="31"/>
+      <c r="B602" s="32"/>
     </row>
     <row r="603">
-      <c r="B603" s="31"/>
+      <c r="B603" s="32"/>
     </row>
     <row r="604">
-      <c r="B604" s="31"/>
+      <c r="B604" s="32"/>
     </row>
     <row r="605">
-      <c r="B605" s="31"/>
+      <c r="B605" s="32"/>
     </row>
     <row r="606">
-      <c r="B606" s="31"/>
+      <c r="B606" s="32"/>
     </row>
     <row r="607">
-      <c r="B607" s="31"/>
+      <c r="B607" s="32"/>
     </row>
     <row r="608">
-      <c r="B608" s="31"/>
+      <c r="B608" s="32"/>
     </row>
     <row r="609">
-      <c r="B609" s="31"/>
+      <c r="B609" s="32"/>
     </row>
     <row r="610">
-      <c r="B610" s="31"/>
+      <c r="B610" s="32"/>
     </row>
     <row r="611">
-      <c r="B611" s="31"/>
+      <c r="B611" s="32"/>
     </row>
     <row r="612">
-      <c r="B612" s="31"/>
+      <c r="B612" s="32"/>
     </row>
     <row r="613">
-      <c r="B613" s="31"/>
+      <c r="B613" s="32"/>
     </row>
     <row r="614">
-      <c r="B614" s="31"/>
+      <c r="B614" s="32"/>
     </row>
     <row r="615">
-      <c r="B615" s="31"/>
+      <c r="B615" s="32"/>
     </row>
     <row r="616">
-      <c r="B616" s="31"/>
+      <c r="B616" s="32"/>
     </row>
     <row r="617">
-      <c r="B617" s="31"/>
+      <c r="B617" s="32"/>
     </row>
     <row r="618">
-      <c r="B618" s="31"/>
+      <c r="B618" s="32"/>
     </row>
     <row r="619">
-      <c r="B619" s="31"/>
+      <c r="B619" s="32"/>
     </row>
     <row r="620">
-      <c r="B620" s="31"/>
+      <c r="B620" s="32"/>
     </row>
     <row r="621">
-      <c r="B621" s="31"/>
+      <c r="B621" s="32"/>
     </row>
     <row r="622">
-      <c r="B622" s="31"/>
+      <c r="B622" s="32"/>
     </row>
     <row r="623">
-      <c r="B623" s="31"/>
+      <c r="B623" s="32"/>
     </row>
     <row r="624">
-      <c r="B624" s="31"/>
+      <c r="B624" s="32"/>
     </row>
     <row r="625">
-      <c r="B625" s="31"/>
+      <c r="B625" s="32"/>
     </row>
     <row r="626">
-      <c r="B626" s="31"/>
+      <c r="B626" s="32"/>
     </row>
     <row r="627">
-      <c r="B627" s="31"/>
+      <c r="B627" s="32"/>
     </row>
     <row r="628">
-      <c r="B628" s="31"/>
+      <c r="B628" s="32"/>
     </row>
     <row r="629">
-      <c r="B629" s="31"/>
+      <c r="B629" s="32"/>
     </row>
     <row r="630">
-      <c r="B630" s="31"/>
+      <c r="B630" s="32"/>
     </row>
     <row r="631">
-      <c r="B631" s="31"/>
+      <c r="B631" s="32"/>
     </row>
     <row r="632">
-      <c r="B632" s="31"/>
+      <c r="B632" s="32"/>
     </row>
     <row r="633">
-      <c r="B633" s="31"/>
+      <c r="B633" s="32"/>
     </row>
     <row r="634">
-      <c r="B634" s="31"/>
+      <c r="B634" s="32"/>
     </row>
     <row r="635">
-      <c r="B635" s="31"/>
+      <c r="B635" s="32"/>
     </row>
     <row r="636">
-      <c r="B636" s="31"/>
+      <c r="B636" s="32"/>
     </row>
     <row r="637">
-      <c r="B637" s="31"/>
+      <c r="B637" s="32"/>
     </row>
     <row r="638">
-      <c r="B638" s="31"/>
+      <c r="B638" s="32"/>
     </row>
     <row r="639">
-      <c r="B639" s="31"/>
+      <c r="B639" s="32"/>
     </row>
     <row r="640">
-      <c r="B640" s="31"/>
+      <c r="B640" s="32"/>
     </row>
     <row r="641">
-      <c r="B641" s="31"/>
+      <c r="B641" s="32"/>
     </row>
     <row r="642">
-      <c r="B642" s="31"/>
+      <c r="B642" s="32"/>
     </row>
     <row r="643">
-      <c r="B643" s="31"/>
+      <c r="B643" s="32"/>
     </row>
     <row r="644">
-      <c r="B644" s="31"/>
+      <c r="B644" s="32"/>
     </row>
     <row r="645">
-      <c r="B645" s="31"/>
+      <c r="B645" s="32"/>
     </row>
     <row r="646">
-      <c r="B646" s="31"/>
+      <c r="B646" s="32"/>
     </row>
     <row r="647">
-      <c r="B647" s="31"/>
+      <c r="B647" s="32"/>
     </row>
     <row r="648">
-      <c r="B648" s="31"/>
+      <c r="B648" s="32"/>
     </row>
     <row r="649">
-      <c r="B649" s="31"/>
+      <c r="B649" s="32"/>
     </row>
     <row r="650">
-      <c r="B650" s="31"/>
+      <c r="B650" s="32"/>
     </row>
     <row r="651">
-      <c r="B651" s="31"/>
+      <c r="B651" s="32"/>
     </row>
     <row r="652">
-      <c r="B652" s="31"/>
+      <c r="B652" s="32"/>
     </row>
     <row r="653">
-      <c r="B653" s="31"/>
+      <c r="B653" s="32"/>
     </row>
     <row r="654">
-      <c r="B654" s="31"/>
+      <c r="B654" s="32"/>
     </row>
     <row r="655">
-      <c r="B655" s="31"/>
+      <c r="B655" s="32"/>
     </row>
     <row r="656">
-      <c r="B656" s="31"/>
+      <c r="B656" s="32"/>
     </row>
     <row r="657">
-      <c r="B657" s="31"/>
+      <c r="B657" s="32"/>
     </row>
     <row r="658">
-      <c r="B658" s="31"/>
+      <c r="B658" s="32"/>
     </row>
     <row r="659">
-      <c r="B659" s="31"/>
+      <c r="B659" s="32"/>
     </row>
     <row r="660">
-      <c r="B660" s="31"/>
+      <c r="B660" s="32"/>
     </row>
     <row r="661">
-      <c r="B661" s="31"/>
+      <c r="B661" s="32"/>
     </row>
     <row r="662">
-      <c r="B662" s="31"/>
+      <c r="B662" s="32"/>
     </row>
     <row r="663">
-      <c r="B663" s="31"/>
+      <c r="B663" s="32"/>
     </row>
     <row r="664">
-      <c r="B664" s="31"/>
+      <c r="B664" s="32"/>
     </row>
     <row r="665">
-      <c r="B665" s="31"/>
+      <c r="B665" s="32"/>
     </row>
     <row r="666">
-      <c r="B666" s="31"/>
+      <c r="B666" s="32"/>
     </row>
     <row r="667">
-      <c r="B667" s="31"/>
+      <c r="B667" s="32"/>
     </row>
     <row r="668">
-      <c r="B668" s="31"/>
+      <c r="B668" s="32"/>
     </row>
     <row r="669">
-      <c r="B669" s="31"/>
+      <c r="B669" s="32"/>
     </row>
     <row r="670">
-      <c r="B670" s="31"/>
+      <c r="B670" s="32"/>
     </row>
     <row r="671">
-      <c r="B671" s="31"/>
+      <c r="B671" s="32"/>
     </row>
     <row r="672">
-      <c r="B672" s="31"/>
+      <c r="B672" s="32"/>
     </row>
     <row r="673">
-      <c r="B673" s="31"/>
+      <c r="B673" s="32"/>
     </row>
     <row r="674">
-      <c r="B674" s="31"/>
+      <c r="B674" s="32"/>
     </row>
     <row r="675">
-      <c r="B675" s="31"/>
+      <c r="B675" s="32"/>
     </row>
     <row r="676">
-      <c r="B676" s="31"/>
+      <c r="B676" s="32"/>
     </row>
     <row r="677">
-      <c r="B677" s="31"/>
+      <c r="B677" s="32"/>
     </row>
     <row r="678">
-      <c r="B678" s="31"/>
+      <c r="B678" s="32"/>
     </row>
     <row r="679">
-      <c r="B679" s="31"/>
+      <c r="B679" s="32"/>
     </row>
     <row r="680">
-      <c r="B680" s="31"/>
+      <c r="B680" s="32"/>
     </row>
     <row r="681">
-      <c r="B681" s="31"/>
+      <c r="B681" s="32"/>
     </row>
     <row r="682">
-      <c r="B682" s="31"/>
+      <c r="B682" s="32"/>
     </row>
     <row r="683">
-      <c r="B683" s="31"/>
+      <c r="B683" s="32"/>
     </row>
     <row r="684">
-      <c r="B684" s="31"/>
+      <c r="B684" s="32"/>
     </row>
     <row r="685">
-      <c r="B685" s="31"/>
+      <c r="B685" s="32"/>
     </row>
     <row r="686">
-      <c r="B686" s="31"/>
+      <c r="B686" s="32"/>
     </row>
     <row r="687">
-      <c r="B687" s="31"/>
+      <c r="B687" s="32"/>
     </row>
     <row r="688">
-      <c r="B688" s="31"/>
+      <c r="B688" s="32"/>
     </row>
     <row r="689">
-      <c r="B689" s="31"/>
+      <c r="B689" s="32"/>
     </row>
     <row r="690">
-      <c r="B690" s="31"/>
+      <c r="B690" s="32"/>
     </row>
     <row r="691">
-      <c r="B691" s="31"/>
+      <c r="B691" s="32"/>
     </row>
     <row r="692">
-      <c r="B692" s="31"/>
+      <c r="B692" s="32"/>
     </row>
     <row r="693">
-      <c r="B693" s="31"/>
+      <c r="B693" s="32"/>
     </row>
     <row r="694">
-      <c r="B694" s="31"/>
+      <c r="B694" s="32"/>
     </row>
     <row r="695">
-      <c r="B695" s="31"/>
+      <c r="B695" s="32"/>
     </row>
     <row r="696">
-      <c r="B696" s="31"/>
+      <c r="B696" s="32"/>
     </row>
     <row r="697">
-      <c r="B697" s="31"/>
+      <c r="B697" s="32"/>
     </row>
     <row r="698">
-      <c r="B698" s="31"/>
+      <c r="B698" s="32"/>
     </row>
     <row r="699">
-      <c r="B699" s="31"/>
+      <c r="B699" s="32"/>
     </row>
     <row r="700">
-      <c r="B700" s="31"/>
+      <c r="B700" s="32"/>
     </row>
     <row r="701">
-      <c r="B701" s="31"/>
+      <c r="B701" s="32"/>
     </row>
     <row r="702">
-      <c r="B702" s="31"/>
+      <c r="B702" s="32"/>
     </row>
     <row r="703">
-      <c r="B703" s="31"/>
+      <c r="B703" s="32"/>
     </row>
     <row r="704">
-      <c r="B704" s="31"/>
+      <c r="B704" s="32"/>
     </row>
     <row r="705">
-      <c r="B705" s="31"/>
+      <c r="B705" s="32"/>
     </row>
     <row r="706">
-      <c r="B706" s="31"/>
+      <c r="B706" s="32"/>
     </row>
     <row r="707">
-      <c r="B707" s="31"/>
+      <c r="B707" s="32"/>
     </row>
     <row r="708">
-      <c r="B708" s="31"/>
+      <c r="B708" s="32"/>
     </row>
     <row r="709">
-      <c r="B709" s="31"/>
+      <c r="B709" s="32"/>
     </row>
     <row r="710">
-      <c r="B710" s="31"/>
+      <c r="B710" s="32"/>
     </row>
     <row r="711">
-      <c r="B711" s="31"/>
+      <c r="B711" s="32"/>
     </row>
     <row r="712">
-      <c r="B712" s="31"/>
+      <c r="B712" s="32"/>
     </row>
     <row r="713">
-      <c r="B713" s="31"/>
+      <c r="B713" s="32"/>
     </row>
     <row r="714">
-      <c r="B714" s="31"/>
+      <c r="B714" s="32"/>
     </row>
     <row r="715">
-      <c r="B715" s="31"/>
+      <c r="B715" s="32"/>
     </row>
     <row r="716">
-      <c r="B716" s="31"/>
+      <c r="B716" s="32"/>
     </row>
     <row r="717">
-      <c r="B717" s="31"/>
+      <c r="B717" s="32"/>
     </row>
     <row r="718">
-      <c r="B718" s="31"/>
+      <c r="B718" s="32"/>
     </row>
     <row r="719">
-      <c r="B719" s="31"/>
+      <c r="B719" s="32"/>
     </row>
     <row r="720">
-      <c r="B720" s="31"/>
+      <c r="B720" s="32"/>
     </row>
     <row r="721">
-      <c r="B721" s="31"/>
+      <c r="B721" s="32"/>
     </row>
     <row r="722">
-      <c r="B722" s="31"/>
+      <c r="B722" s="32"/>
     </row>
     <row r="723">
-      <c r="B723" s="31"/>
+      <c r="B723" s="32"/>
     </row>
     <row r="724">
-      <c r="B724" s="31"/>
+      <c r="B724" s="32"/>
     </row>
     <row r="725">
-      <c r="B725" s="31"/>
+      <c r="B725" s="32"/>
     </row>
     <row r="726">
-      <c r="B726" s="31"/>
+      <c r="B726" s="32"/>
     </row>
     <row r="727">
-      <c r="B727" s="31"/>
+      <c r="B727" s="32"/>
     </row>
     <row r="728">
-      <c r="B728" s="31"/>
+      <c r="B728" s="32"/>
     </row>
     <row r="729">
-      <c r="B729" s="31"/>
+      <c r="B729" s="32"/>
     </row>
     <row r="730">
-      <c r="B730" s="31"/>
+      <c r="B730" s="32"/>
     </row>
     <row r="731">
-      <c r="B731" s="31"/>
+      <c r="B731" s="32"/>
     </row>
     <row r="732">
-      <c r="B732" s="31"/>
+      <c r="B732" s="32"/>
     </row>
     <row r="733">
-      <c r="B733" s="31"/>
+      <c r="B733" s="32"/>
     </row>
     <row r="734">
-      <c r="B734" s="31"/>
+      <c r="B734" s="32"/>
     </row>
     <row r="735">
-      <c r="B735" s="31"/>
+      <c r="B735" s="32"/>
     </row>
     <row r="736">
-      <c r="B736" s="31"/>
+      <c r="B736" s="32"/>
     </row>
     <row r="737">
-      <c r="B737" s="31"/>
+      <c r="B737" s="32"/>
     </row>
     <row r="738">
-      <c r="B738" s="31"/>
+      <c r="B738" s="32"/>
     </row>
     <row r="739">
-      <c r="B739" s="31"/>
+      <c r="B739" s="32"/>
     </row>
     <row r="740">
-      <c r="B740" s="31"/>
+      <c r="B740" s="32"/>
     </row>
     <row r="741">
-      <c r="B741" s="31"/>
+      <c r="B741" s="32"/>
     </row>
     <row r="742">
-      <c r="B742" s="31"/>
+      <c r="B742" s="32"/>
     </row>
     <row r="743">
-      <c r="B743" s="31"/>
+      <c r="B743" s="32"/>
     </row>
     <row r="744">
-      <c r="B744" s="31"/>
+      <c r="B744" s="32"/>
     </row>
     <row r="745">
-      <c r="B745" s="31"/>
+      <c r="B745" s="32"/>
     </row>
     <row r="746">
-      <c r="B746" s="31"/>
+      <c r="B746" s="32"/>
     </row>
     <row r="747">
-      <c r="B747" s="31"/>
+      <c r="B747" s="32"/>
     </row>
     <row r="748">
-      <c r="B748" s="31"/>
+      <c r="B748" s="32"/>
     </row>
     <row r="749">
-      <c r="B749" s="31"/>
+      <c r="B749" s="32"/>
     </row>
     <row r="750">
-      <c r="B750" s="31"/>
+      <c r="B750" s="32"/>
     </row>
     <row r="751">
-      <c r="B751" s="31"/>
+      <c r="B751" s="32"/>
     </row>
     <row r="752">
-      <c r="B752" s="31"/>
+      <c r="B752" s="32"/>
     </row>
     <row r="753">
-      <c r="B753" s="31"/>
+      <c r="B753" s="32"/>
     </row>
     <row r="754">
-      <c r="B754" s="31"/>
+      <c r="B754" s="32"/>
     </row>
     <row r="755">
-      <c r="B755" s="31"/>
+      <c r="B755" s="32"/>
     </row>
     <row r="756">
-      <c r="B756" s="31"/>
+      <c r="B756" s="32"/>
     </row>
     <row r="757">
-      <c r="B757" s="31"/>
+      <c r="B757" s="32"/>
     </row>
     <row r="758">
-      <c r="B758" s="31"/>
+      <c r="B758" s="32"/>
     </row>
     <row r="759">
-      <c r="B759" s="31"/>
+      <c r="B759" s="32"/>
     </row>
     <row r="760">
-      <c r="B760" s="31"/>
+      <c r="B760" s="32"/>
     </row>
     <row r="761">
-      <c r="B761" s="31"/>
+      <c r="B761" s="32"/>
     </row>
     <row r="762">
-      <c r="B762" s="31"/>
+      <c r="B762" s="32"/>
     </row>
     <row r="763">
-      <c r="B763" s="31"/>
+      <c r="B763" s="32"/>
     </row>
     <row r="764">
-      <c r="B764" s="31"/>
+      <c r="B764" s="32"/>
     </row>
     <row r="765">
-      <c r="B765" s="31"/>
+      <c r="B765" s="32"/>
     </row>
     <row r="766">
-      <c r="B766" s="31"/>
+      <c r="B766" s="32"/>
     </row>
     <row r="767">
-      <c r="B767" s="31"/>
+      <c r="B767" s="32"/>
     </row>
     <row r="768">
-      <c r="B768" s="31"/>
+      <c r="B768" s="32"/>
     </row>
     <row r="769">
-      <c r="B769" s="31"/>
+      <c r="B769" s="32"/>
     </row>
     <row r="770">
-      <c r="B770" s="31"/>
+      <c r="B770" s="32"/>
     </row>
     <row r="771">
-      <c r="B771" s="31"/>
+      <c r="B771" s="32"/>
     </row>
     <row r="772">
-      <c r="B772" s="31"/>
+      <c r="B772" s="32"/>
     </row>
     <row r="773">
-      <c r="B773" s="31"/>
+      <c r="B773" s="32"/>
     </row>
     <row r="774">
-      <c r="B774" s="31"/>
+      <c r="B774" s="32"/>
     </row>
     <row r="775">
-      <c r="B775" s="31"/>
+      <c r="B775" s="32"/>
     </row>
     <row r="776">
-      <c r="B776" s="31"/>
+      <c r="B776" s="32"/>
     </row>
     <row r="777">
-      <c r="B777" s="31"/>
+      <c r="B777" s="32"/>
     </row>
     <row r="778">
-      <c r="B778" s="31"/>
+      <c r="B778" s="32"/>
     </row>
     <row r="779">
-      <c r="B779" s="31"/>
+      <c r="B779" s="32"/>
     </row>
     <row r="780">
-      <c r="B780" s="31"/>
+      <c r="B780" s="32"/>
     </row>
     <row r="781">
-      <c r="B781" s="31"/>
+      <c r="B781" s="32"/>
     </row>
     <row r="782">
-      <c r="B782" s="31"/>
+      <c r="B782" s="32"/>
     </row>
     <row r="783">
-      <c r="B783" s="31"/>
+      <c r="B783" s="32"/>
     </row>
     <row r="784">
-      <c r="B784" s="31"/>
+      <c r="B784" s="32"/>
     </row>
     <row r="785">
-      <c r="B785" s="31"/>
+      <c r="B785" s="32"/>
     </row>
     <row r="786">
-      <c r="B786" s="31"/>
+      <c r="B786" s="32"/>
     </row>
     <row r="787">
-      <c r="B787" s="31"/>
+      <c r="B787" s="32"/>
     </row>
     <row r="788">
-      <c r="B788" s="31"/>
+      <c r="B788" s="32"/>
     </row>
     <row r="789">
-      <c r="B789" s="31"/>
+      <c r="B789" s="32"/>
     </row>
     <row r="790">
-      <c r="B790" s="31"/>
+      <c r="B790" s="32"/>
     </row>
     <row r="791">
-      <c r="B791" s="31"/>
+      <c r="B791" s="32"/>
     </row>
     <row r="792">
-      <c r="B792" s="31"/>
+      <c r="B792" s="32"/>
     </row>
     <row r="793">
-      <c r="B793" s="31"/>
+      <c r="B793" s="32"/>
     </row>
     <row r="794">
-      <c r="B794" s="31"/>
+      <c r="B794" s="32"/>
     </row>
     <row r="795">
-      <c r="B795" s="31"/>
+      <c r="B795" s="32"/>
     </row>
     <row r="796">
-      <c r="B796" s="31"/>
+      <c r="B796" s="32"/>
     </row>
     <row r="797">
-      <c r="B797" s="31"/>
+      <c r="B797" s="32"/>
     </row>
     <row r="798">
-      <c r="B798" s="31"/>
+      <c r="B798" s="32"/>
     </row>
     <row r="799">
-      <c r="B799" s="31"/>
+      <c r="B799" s="32"/>
     </row>
     <row r="800">
-      <c r="B800" s="31"/>
+      <c r="B800" s="32"/>
     </row>
     <row r="801">
-      <c r="B801" s="31"/>
+      <c r="B801" s="32"/>
     </row>
     <row r="802">
-      <c r="B802" s="31"/>
+      <c r="B802" s="32"/>
     </row>
     <row r="803">
-      <c r="B803" s="31"/>
+      <c r="B803" s="32"/>
     </row>
     <row r="804">
-      <c r="B804" s="31"/>
+      <c r="B804" s="32"/>
     </row>
     <row r="805">
-      <c r="B805" s="31"/>
+      <c r="B805" s="32"/>
     </row>
     <row r="806">
-      <c r="B806" s="31"/>
+      <c r="B806" s="32"/>
     </row>
     <row r="807">
-      <c r="B807" s="31"/>
+      <c r="B807" s="32"/>
     </row>
     <row r="808">
-      <c r="B808" s="31"/>
+      <c r="B808" s="32"/>
     </row>
     <row r="809">
-      <c r="B809" s="31"/>
+      <c r="B809" s="32"/>
     </row>
     <row r="810">
-      <c r="B810" s="31"/>
+      <c r="B810" s="32"/>
     </row>
     <row r="811">
-      <c r="B811" s="31"/>
+      <c r="B811" s="32"/>
     </row>
     <row r="812">
-      <c r="B812" s="31"/>
+      <c r="B812" s="32"/>
     </row>
     <row r="813">
-      <c r="B813" s="31"/>
+      <c r="B813" s="32"/>
     </row>
     <row r="814">
-      <c r="B814" s="31"/>
+      <c r="B814" s="32"/>
     </row>
     <row r="815">
-      <c r="B815" s="31"/>
+      <c r="B815" s="32"/>
     </row>
     <row r="816">
-      <c r="B816" s="31"/>
+      <c r="B816" s="32"/>
     </row>
     <row r="817">
-      <c r="B817" s="31"/>
+      <c r="B817" s="32"/>
     </row>
     <row r="818">
-      <c r="B818" s="31"/>
+      <c r="B818" s="32"/>
     </row>
     <row r="819">
-      <c r="B819" s="31"/>
+      <c r="B819" s="32"/>
     </row>
     <row r="820">
-      <c r="B820" s="31"/>
+      <c r="B820" s="32"/>
     </row>
     <row r="821">
-      <c r="B821" s="31"/>
+      <c r="B821" s="32"/>
     </row>
     <row r="822">
-      <c r="B822" s="31"/>
+      <c r="B822" s="32"/>
     </row>
     <row r="823">
-      <c r="B823" s="31"/>
+      <c r="B823" s="32"/>
     </row>
     <row r="824">
-      <c r="B824" s="31"/>
+      <c r="B824" s="32"/>
     </row>
     <row r="825">
-      <c r="B825" s="31"/>
+      <c r="B825" s="32"/>
     </row>
     <row r="826">
-      <c r="B826" s="31"/>
+      <c r="B826" s="32"/>
     </row>
     <row r="827">
-      <c r="B827" s="31"/>
+      <c r="B827" s="32"/>
     </row>
     <row r="828">
-      <c r="B828" s="31"/>
+      <c r="B828" s="32"/>
     </row>
     <row r="829">
-      <c r="B829" s="31"/>
+      <c r="B829" s="32"/>
     </row>
     <row r="830">
-      <c r="B830" s="31"/>
+      <c r="B830" s="32"/>
     </row>
     <row r="831">
-      <c r="B831" s="31"/>
+      <c r="B831" s="32"/>
     </row>
     <row r="832">
-      <c r="B832" s="31"/>
+      <c r="B832" s="32"/>
     </row>
     <row r="833">
-      <c r="B833" s="31"/>
+      <c r="B833" s="32"/>
     </row>
     <row r="834">
-      <c r="B834" s="31"/>
+      <c r="B834" s="32"/>
     </row>
     <row r="835">
-      <c r="B835" s="31"/>
+      <c r="B835" s="32"/>
     </row>
     <row r="836">
-      <c r="B836" s="31"/>
+      <c r="B836" s="32"/>
     </row>
     <row r="837">
-      <c r="B837" s="31"/>
+      <c r="B837" s="32"/>
     </row>
     <row r="838">
-      <c r="B838" s="31"/>
+      <c r="B838" s="32"/>
     </row>
     <row r="839">
-      <c r="B839" s="31"/>
+      <c r="B839" s="32"/>
     </row>
     <row r="840">
-      <c r="B840" s="31"/>
+      <c r="B840" s="32"/>
     </row>
     <row r="841">
-      <c r="B841" s="31"/>
+      <c r="B841" s="32"/>
     </row>
     <row r="842">
-      <c r="B842" s="31"/>
+      <c r="B842" s="32"/>
     </row>
     <row r="843">
-      <c r="B843" s="31"/>
+      <c r="B843" s="32"/>
     </row>
     <row r="844">
-      <c r="B844" s="31"/>
+      <c r="B844" s="32"/>
     </row>
     <row r="845">
-      <c r="B845" s="31"/>
+      <c r="B845" s="32"/>
     </row>
     <row r="846">
-      <c r="B846" s="31"/>
+      <c r="B846" s="32"/>
     </row>
     <row r="847">
-      <c r="B847" s="31"/>
+      <c r="B847" s="32"/>
     </row>
     <row r="848">
-      <c r="B848" s="31"/>
+      <c r="B848" s="32"/>
     </row>
     <row r="849">
-      <c r="B849" s="31"/>
+      <c r="B849" s="32"/>
     </row>
     <row r="850">
-      <c r="B850" s="31"/>
+      <c r="B850" s="32"/>
     </row>
     <row r="851">
-      <c r="B851" s="31"/>
+      <c r="B851" s="32"/>
     </row>
     <row r="852">
-      <c r="B852" s="31"/>
+      <c r="B852" s="32"/>
     </row>
     <row r="853">
-      <c r="B853" s="31"/>
+      <c r="B853" s="32"/>
     </row>
     <row r="854">
-      <c r="B854" s="31"/>
+      <c r="B854" s="32"/>
     </row>
     <row r="855">
-      <c r="B855" s="31"/>
+      <c r="B855" s="32"/>
     </row>
     <row r="856">
-      <c r="B856" s="31"/>
+      <c r="B856" s="32"/>
     </row>
     <row r="857">
-      <c r="B857" s="31"/>
+      <c r="B857" s="32"/>
     </row>
     <row r="858">
-      <c r="B858" s="31"/>
+      <c r="B858" s="32"/>
     </row>
     <row r="859">
-      <c r="B859" s="31"/>
+      <c r="B859" s="32"/>
     </row>
     <row r="860">
-      <c r="B860" s="31"/>
+      <c r="B860" s="32"/>
     </row>
     <row r="861">
-      <c r="B861" s="31"/>
+      <c r="B861" s="32"/>
     </row>
     <row r="862">
-      <c r="B862" s="31"/>
+      <c r="B862" s="32"/>
     </row>
     <row r="863">
-      <c r="B863" s="31"/>
+      <c r="B863" s="32"/>
     </row>
     <row r="864">
-      <c r="B864" s="31"/>
+      <c r="B864" s="32"/>
     </row>
     <row r="865">
-      <c r="B865" s="31"/>
+      <c r="B865" s="32"/>
     </row>
     <row r="866">
-      <c r="B866" s="31"/>
+      <c r="B866" s="32"/>
     </row>
     <row r="867">
-      <c r="B867" s="31"/>
+      <c r="B867" s="32"/>
     </row>
     <row r="868">
-      <c r="B868" s="31"/>
+      <c r="B868" s="32"/>
     </row>
     <row r="869">
-      <c r="B869" s="31"/>
+      <c r="B869" s="32"/>
     </row>
     <row r="870">
-      <c r="B870" s="31"/>
+      <c r="B870" s="32"/>
     </row>
     <row r="871">
-      <c r="B871" s="31"/>
+      <c r="B871" s="32"/>
     </row>
     <row r="872">
-      <c r="B872" s="31"/>
+      <c r="B872" s="32"/>
     </row>
     <row r="873">
-      <c r="B873" s="31"/>
+      <c r="B873" s="32"/>
     </row>
     <row r="874">
-      <c r="B874" s="31"/>
+      <c r="B874" s="32"/>
     </row>
     <row r="875">
-      <c r="B875" s="31"/>
+      <c r="B875" s="32"/>
     </row>
     <row r="876">
-      <c r="B876" s="31"/>
+      <c r="B876" s="32"/>
     </row>
     <row r="877">
-      <c r="B877" s="31"/>
+      <c r="B877" s="32"/>
     </row>
     <row r="878">
-      <c r="B878" s="31"/>
+      <c r="B878" s="32"/>
     </row>
     <row r="879">
-      <c r="B879" s="31"/>
+      <c r="B879" s="32"/>
     </row>
     <row r="880">
-      <c r="B880" s="31"/>
+      <c r="B880" s="32"/>
     </row>
     <row r="881">
-      <c r="B881" s="31"/>
+      <c r="B881" s="32"/>
     </row>
     <row r="882">
-      <c r="B882" s="31"/>
+      <c r="B882" s="32"/>
     </row>
     <row r="883">
-      <c r="B883" s="31"/>
+      <c r="B883" s="32"/>
     </row>
     <row r="884">
-      <c r="B884" s="31"/>
+      <c r="B884" s="32"/>
     </row>
     <row r="885">
-      <c r="B885" s="31"/>
+      <c r="B885" s="32"/>
     </row>
     <row r="886">
-      <c r="B886" s="31"/>
+      <c r="B886" s="32"/>
     </row>
     <row r="887">
-      <c r="B887" s="31"/>
+      <c r="B887" s="32"/>
     </row>
     <row r="888">
-      <c r="B888" s="31"/>
+      <c r="B888" s="32"/>
     </row>
     <row r="889">
-      <c r="B889" s="31"/>
+      <c r="B889" s="32"/>
     </row>
     <row r="890">
-      <c r="B890" s="31"/>
+      <c r="B890" s="32"/>
     </row>
     <row r="891">
-      <c r="B891" s="31"/>
+      <c r="B891" s="32"/>
     </row>
     <row r="892">
-      <c r="B892" s="31"/>
+      <c r="B892" s="32"/>
     </row>
     <row r="893">
-      <c r="B893" s="31"/>
+      <c r="B893" s="32"/>
     </row>
     <row r="894">
-      <c r="B894" s="31"/>
+      <c r="B894" s="32"/>
     </row>
     <row r="895">
-      <c r="B895" s="31"/>
+      <c r="B895" s="32"/>
     </row>
     <row r="896">
-      <c r="B896" s="31"/>
+      <c r="B896" s="32"/>
     </row>
     <row r="897">
-      <c r="B897" s="31"/>
+      <c r="B897" s="32"/>
     </row>
     <row r="898">
-      <c r="B898" s="31"/>
+      <c r="B898" s="32"/>
     </row>
     <row r="899">
-      <c r="B899" s="31"/>
+      <c r="B899" s="32"/>
     </row>
     <row r="900">
-      <c r="B900" s="31"/>
+      <c r="B900" s="32"/>
     </row>
     <row r="901">
-      <c r="B901" s="31"/>
+      <c r="B901" s="32"/>
     </row>
     <row r="902">
-      <c r="B902" s="31"/>
+      <c r="B902" s="32"/>
     </row>
     <row r="903">
-      <c r="B903" s="31"/>
+      <c r="B903" s="32"/>
     </row>
     <row r="904">
-      <c r="B904" s="31"/>
+      <c r="B904" s="32"/>
     </row>
     <row r="905">
-      <c r="B905" s="31"/>
+      <c r="B905" s="32"/>
     </row>
     <row r="906">
-      <c r="B906" s="31"/>
+      <c r="B906" s="32"/>
     </row>
     <row r="907">
-      <c r="B907" s="31"/>
+      <c r="B907" s="32"/>
     </row>
     <row r="908">
-      <c r="B908" s="31"/>
+      <c r="B908" s="32"/>
     </row>
     <row r="909">
-      <c r="B909" s="31"/>
+      <c r="B909" s="32"/>
     </row>
     <row r="910">
-      <c r="B910" s="31"/>
+      <c r="B910" s="32"/>
     </row>
     <row r="911">
-      <c r="B911" s="31"/>
+      <c r="B911" s="32"/>
     </row>
     <row r="912">
-      <c r="B912" s="31"/>
+      <c r="B912" s="32"/>
     </row>
     <row r="913">
-      <c r="B913" s="31"/>
+      <c r="B913" s="32"/>
     </row>
     <row r="914">
-      <c r="B914" s="31"/>
+      <c r="B914" s="32"/>
     </row>
     <row r="915">
-      <c r="B915" s="31"/>
+      <c r="B915" s="32"/>
     </row>
     <row r="916">
-      <c r="B916" s="31"/>
+      <c r="B916" s="32"/>
     </row>
     <row r="917">
-      <c r="B917" s="31"/>
+      <c r="B917" s="32"/>
     </row>
     <row r="918">
-      <c r="B918" s="31"/>
+      <c r="B918" s="32"/>
     </row>
     <row r="919">
-      <c r="B919" s="31"/>
+      <c r="B919" s="32"/>
     </row>
     <row r="920">
-      <c r="B920" s="31"/>
+      <c r="B920" s="32"/>
     </row>
     <row r="921">
-      <c r="B921" s="31"/>
+      <c r="B921" s="32"/>
     </row>
     <row r="922">
-      <c r="B922" s="31"/>
+      <c r="B922" s="32"/>
     </row>
     <row r="923">
-      <c r="B923" s="31"/>
+      <c r="B923" s="32"/>
     </row>
     <row r="924">
-      <c r="B924" s="31"/>
+      <c r="B924" s="32"/>
     </row>
     <row r="925">
-      <c r="B925" s="31"/>
+      <c r="B925" s="32"/>
     </row>
     <row r="926">
-      <c r="B926" s="31"/>
+      <c r="B926" s="32"/>
     </row>
     <row r="927">
-      <c r="B927" s="31"/>
+      <c r="B927" s="32"/>
     </row>
     <row r="928">
-      <c r="B928" s="31"/>
+      <c r="B928" s="32"/>
     </row>
     <row r="929">
-      <c r="B929" s="31"/>
+      <c r="B929" s="32"/>
     </row>
     <row r="930">
-      <c r="B930" s="31"/>
+      <c r="B930" s="32"/>
     </row>
     <row r="931">
-      <c r="B931" s="31"/>
+      <c r="B931" s="32"/>
     </row>
     <row r="932">
-      <c r="B932" s="31"/>
+      <c r="B932" s="32"/>
     </row>
     <row r="933">
-      <c r="B933" s="31"/>
+      <c r="B933" s="32"/>
     </row>
     <row r="934">
-      <c r="B934" s="31"/>
+      <c r="B934" s="32"/>
     </row>
     <row r="935">
-      <c r="B935" s="31"/>
+      <c r="B935" s="32"/>
     </row>
     <row r="936">
-      <c r="B936" s="31"/>
+      <c r="B936" s="32"/>
     </row>
     <row r="937">
-      <c r="B937" s="31"/>
+      <c r="B937" s="32"/>
     </row>
     <row r="938">
-      <c r="B938" s="31"/>
+      <c r="B938" s="32"/>
     </row>
     <row r="939">
-      <c r="B939" s="31"/>
+      <c r="B939" s="32"/>
     </row>
     <row r="940">
-      <c r="B940" s="31"/>
+      <c r="B940" s="32"/>
     </row>
     <row r="941">
-      <c r="B941" s="31"/>
+      <c r="B941" s="32"/>
     </row>
     <row r="942">
-      <c r="B942" s="31"/>
+      <c r="B942" s="32"/>
     </row>
     <row r="943">
-      <c r="B943" s="31"/>
+      <c r="B943" s="32"/>
     </row>
     <row r="944">
-      <c r="B944" s="31"/>
+      <c r="B944" s="32"/>
     </row>
     <row r="945">
-      <c r="B945" s="31"/>
+      <c r="B945" s="32"/>
     </row>
     <row r="946">
-      <c r="B946" s="31"/>
+      <c r="B946" s="32"/>
     </row>
     <row r="947">
-      <c r="B947" s="31"/>
+      <c r="B947" s="32"/>
     </row>
     <row r="948">
-      <c r="B948" s="31"/>
+      <c r="B948" s="32"/>
     </row>
     <row r="949">
-      <c r="B949" s="31"/>
+      <c r="B949" s="32"/>
     </row>
     <row r="950">
-      <c r="B950" s="31"/>
+      <c r="B950" s="32"/>
     </row>
     <row r="951">
-      <c r="B951" s="31"/>
+      <c r="B951" s="32"/>
     </row>
     <row r="952">
-      <c r="B952" s="31"/>
+      <c r="B952" s="32"/>
     </row>
     <row r="953">
-      <c r="B953" s="31"/>
+      <c r="B953" s="32"/>
     </row>
     <row r="954">
-      <c r="B954" s="31"/>
+      <c r="B954" s="32"/>
     </row>
     <row r="955">
-      <c r="B955" s="31"/>
+      <c r="B955" s="32"/>
     </row>
     <row r="956">
-      <c r="B956" s="31"/>
+      <c r="B956" s="32"/>
     </row>
     <row r="957">
-      <c r="B957" s="31"/>
+      <c r="B957" s="32"/>
     </row>
     <row r="958">
-      <c r="B958" s="31"/>
+      <c r="B958" s="32"/>
     </row>
     <row r="959">
-      <c r="B959" s="31"/>
+      <c r="B959" s="32"/>
     </row>
     <row r="960">
-      <c r="B960" s="31"/>
+      <c r="B960" s="32"/>
     </row>
     <row r="961">
-      <c r="B961" s="31"/>
+      <c r="B961" s="32"/>
     </row>
     <row r="962">
-      <c r="B962" s="31"/>
+      <c r="B962" s="32"/>
     </row>
     <row r="963">
-      <c r="B963" s="31"/>
+      <c r="B963" s="32"/>
     </row>
     <row r="964">
-      <c r="B964" s="31"/>
+      <c r="B964" s="32"/>
     </row>
     <row r="965">
-      <c r="B965" s="31"/>
+      <c r="B965" s="32"/>
     </row>
     <row r="966">
-      <c r="B966" s="31"/>
+      <c r="B966" s="32"/>
     </row>
     <row r="967">
-      <c r="B967" s="31"/>
+      <c r="B967" s="32"/>
     </row>
     <row r="968">
-      <c r="B968" s="31"/>
+      <c r="B968" s="32"/>
     </row>
     <row r="969">
-      <c r="B969" s="31"/>
+      <c r="B969" s="32"/>
     </row>
     <row r="970">
-      <c r="B970" s="31"/>
+      <c r="B970" s="32"/>
     </row>
     <row r="971">
-      <c r="B971" s="31"/>
+      <c r="B971" s="32"/>
     </row>
     <row r="972">
-      <c r="B972" s="31"/>
+      <c r="B972" s="32"/>
     </row>
     <row r="973">
-      <c r="B973" s="31"/>
+      <c r="B973" s="32"/>
     </row>
     <row r="974">
-      <c r="B974" s="31"/>
+      <c r="B974" s="32"/>
     </row>
     <row r="975">
-      <c r="B975" s="31"/>
+      <c r="B975" s="32"/>
     </row>
     <row r="976">
-      <c r="B976" s="31"/>
+      <c r="B976" s="32"/>
     </row>
     <row r="977">
-      <c r="B977" s="31"/>
+      <c r="B977" s="32"/>
     </row>
     <row r="978">
-      <c r="B978" s="31"/>
+      <c r="B978" s="32"/>
     </row>
     <row r="979">
-      <c r="B979" s="31"/>
+      <c r="B979" s="32"/>
     </row>
     <row r="980">
-      <c r="B980" s="31"/>
+      <c r="B980" s="32"/>
     </row>
     <row r="981">
-      <c r="B981" s="31"/>
+      <c r="B981" s="32"/>
     </row>
     <row r="982">
-      <c r="B982" s="31"/>
+      <c r="B982" s="32"/>
     </row>
     <row r="983">
-      <c r="B983" s="31"/>
+      <c r="B983" s="32"/>
     </row>
     <row r="984">
-      <c r="B984" s="31"/>
+      <c r="B984" s="32"/>
     </row>
     <row r="985">
-      <c r="B985" s="31"/>
+      <c r="B985" s="32"/>
     </row>
     <row r="986">
-      <c r="B986" s="31"/>
+      <c r="B986" s="32"/>
     </row>
     <row r="987">
-      <c r="B987" s="31"/>
+      <c r="B987" s="32"/>
     </row>
     <row r="988">
-      <c r="B988" s="31"/>
+      <c r="B988" s="32"/>
     </row>
     <row r="989">
-      <c r="B989" s="31"/>
+      <c r="B989" s="32"/>
     </row>
     <row r="990">
-      <c r="B990" s="31"/>
+      <c r="B990" s="32"/>
     </row>
     <row r="991">
-      <c r="B991" s="31"/>
+      <c r="B991" s="32"/>
     </row>
     <row r="992">
-      <c r="B992" s="31"/>
+      <c r="B992" s="32"/>
     </row>
     <row r="993">
-      <c r="B993" s="31"/>
+      <c r="B993" s="32"/>
     </row>
     <row r="994">
-      <c r="B994" s="31"/>
+      <c r="B994" s="32"/>
     </row>
     <row r="995">
-      <c r="B995" s="31"/>
+      <c r="B995" s="32"/>
     </row>
     <row r="996">
-      <c r="B996" s="31"/>
+      <c r="B996" s="32"/>
     </row>
     <row r="997">
-      <c r="B997" s="31"/>
+      <c r="B997" s="32"/>
     </row>
     <row r="998">
-      <c r="B998" s="31"/>
+      <c r="B998" s="32"/>
     </row>
     <row r="999">
-      <c r="B999" s="31"/>
+      <c r="B999" s="32"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="31"/>
+      <c r="B1000" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
